--- a/Emh/SVR/#1decentralization.xlsx
+++ b/Emh/SVR/#1decentralization.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WINTER\Project\HuaShui\Emh\SVR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87FC5E72-CE95-465B-9F3F-5ECA4519950F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2C287B-62F6-4C89-8631-C25C8DCB8E37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3540" yWindow="3540" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,12 +48,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -68,8 +74,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -352,11 +359,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M365"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="E220" sqref="E220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="8" max="8" width="9" style="1"/>
+    <col min="11" max="11" width="9" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1">
@@ -368,7 +380,7 @@
       <c r="C1">
         <v>0.83294930875576034</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="1">
         <v>9.0386727429728309E-2</v>
       </c>
       <c r="E1">
@@ -380,7 +392,7 @@
       <c r="G1">
         <v>-0.18825244636858676</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="1">
         <v>2.1224875531242804E-2</v>
       </c>
       <c r="I1">
@@ -389,7 +401,7 @@
       <c r="J1">
         <v>-8.4393420451119333E-2</v>
       </c>
-      <c r="K1">
+      <c r="K1" s="1">
         <v>-0.77716726560391791</v>
       </c>
       <c r="M1">
@@ -406,7 +418,7 @@
       <c r="C2">
         <v>0.78341013824884798</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>9.5020098792744187E-2</v>
       </c>
       <c r="E2">
@@ -418,7 +430,7 @@
       <c r="G2">
         <v>-0.30040177943608465</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>2.6805339331959981E-2</v>
       </c>
       <c r="I2">
@@ -427,7 +439,7 @@
       <c r="J2">
         <v>-0.21519436038667372</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="1">
         <v>-1.4456654687921642</v>
       </c>
       <c r="M2">
@@ -444,7 +456,7 @@
       <c r="C3">
         <v>0.72148617511520741</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>7.957552758269143E-2</v>
       </c>
       <c r="E3">
@@ -456,7 +468,7 @@
       <c r="G3">
         <v>-0.49799822341215233</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>3.9361382883573603E-2</v>
       </c>
       <c r="I3">
@@ -465,7 +477,7 @@
       <c r="J3">
         <v>-1.8992950483342149E-2</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="1">
         <v>-1.2228327343960821</v>
       </c>
       <c r="M3">
@@ -482,7 +494,7 @@
       <c r="C4">
         <v>-3.398617511520733E-2</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>4.7141928041580537E-2</v>
       </c>
       <c r="E4">
@@ -494,7 +506,7 @@
       <c r="G4">
         <v>-9.7464891028231429E-2</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>3.0990687182497773E-2</v>
       </c>
       <c r="I4">
@@ -503,7 +515,7 @@
       <c r="J4">
         <v>-0.21519436038667372</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="1">
         <v>-0.55433453120783582</v>
       </c>
       <c r="M4">
@@ -520,7 +532,7 @@
       <c r="C5">
         <v>-0.16359447004608293</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>-1.154744255662012E-2</v>
       </c>
       <c r="E5">
@@ -532,7 +544,7 @@
       <c r="G5">
         <v>-0.19359289080037237</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>-8.0725594225223522E-3</v>
       </c>
       <c r="I5">
@@ -541,7 +553,7 @@
       <c r="J5">
         <v>0.17720845941998942</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="1">
         <v>-0.10866906241567169</v>
       </c>
       <c r="M5">
@@ -558,7 +570,7 @@
       <c r="C6">
         <v>-0.34101382488479265</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>-1.3091899677625505E-2</v>
       </c>
       <c r="E6">
@@ -570,7 +582,7 @@
       <c r="G6">
         <v>-0.11882666875537379</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>-2.620906677485315E-2</v>
       </c>
       <c r="I6">
@@ -579,7 +591,7 @@
       <c r="J6">
         <v>0.11180798945221224</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="1">
         <v>0.11416367198041039</v>
       </c>
       <c r="M6">
@@ -596,7 +608,7 @@
       <c r="C7">
         <v>-7.4884792626728064E-2</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>-1.9269728161646633E-2</v>
       </c>
       <c r="E7">
@@ -608,7 +620,7 @@
       <c r="G7">
         <v>-7.0762668869303269E-2</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <v>-1.9233487023956709E-2</v>
       </c>
       <c r="I7">
@@ -617,7 +629,7 @@
       <c r="J7">
         <v>-1.8992950483342149E-2</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="1">
         <v>-0.10866906241567169</v>
       </c>
       <c r="M7">
@@ -634,7 +646,7 @@
       <c r="C8">
         <v>7.7188940092165953E-2</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>-3.8251569515937427E-3</v>
       </c>
       <c r="E8">
@@ -646,7 +658,7 @@
       <c r="G8">
         <v>-9.2124446596445725E-2</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <v>-1.7838371073777445E-2</v>
       </c>
       <c r="I8">
@@ -655,7 +667,7 @@
       <c r="J8">
         <v>-0.34599530032222808</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="1">
         <v>0.33699640637649247</v>
       </c>
       <c r="M8">
@@ -672,7 +684,7 @@
       <c r="C9">
         <v>0.1405529953917051</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>1.0074957137453764E-2</v>
       </c>
       <c r="E9">
@@ -684,7 +696,7 @@
       <c r="G9">
         <v>-4.4060446710375199E-2</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <v>-1.2257907273060267E-2</v>
       </c>
       <c r="I9">
@@ -693,7 +705,7 @@
       <c r="J9">
         <v>-0.21519436038667372</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="1">
         <v>-0.10866906241567169</v>
       </c>
       <c r="M9">
@@ -710,7 +722,7 @@
       <c r="C10">
         <v>0.22926267281105983</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>1.3163871379464261E-2</v>
       </c>
       <c r="E10">
@@ -722,7 +734,7 @@
       <c r="G10">
         <v>-8.1443557732874497E-2</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="1">
         <v>5.8786000792705323E-3</v>
       </c>
       <c r="I10">
@@ -731,7 +743,7 @@
       <c r="J10">
         <v>-0.28059483035445093</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="1">
         <v>-0.77716726560391791</v>
       </c>
       <c r="M10">
@@ -748,7 +760,7 @@
       <c r="C11">
         <v>0.11520737327188967</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>5.4415857744378833E-3</v>
       </c>
       <c r="E11">
@@ -760,7 +772,7 @@
       <c r="G11">
         <v>-2.8039113415018357E-2</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="1">
         <v>-5.2823275221638251E-3</v>
       </c>
       <c r="I11">
@@ -769,7 +781,7 @@
       <c r="J11">
         <v>-1.8992950483342149E-2</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="1">
         <v>-0.55433453120783582</v>
       </c>
       <c r="M11">
@@ -786,7 +798,7 @@
       <c r="C12">
         <v>5.1843317972350381E-2</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>2.3526715324273867E-3</v>
       </c>
       <c r="E12">
@@ -798,7 +810,7 @@
       <c r="G12">
         <v>-1.3368912560902898E-3</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="1">
         <v>-1.0862791322881003E-2</v>
       </c>
       <c r="I12">
@@ -807,7 +819,7 @@
       <c r="J12">
         <v>-0.21519436038667372</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="1">
         <v>0.33699640637649247</v>
       </c>
       <c r="M12">
@@ -824,7 +836,7 @@
       <c r="C13">
         <v>0.19124423963133638</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>-7.3624270958324645E-4</v>
       </c>
       <c r="E13">
@@ -836,7 +848,7 @@
       <c r="G13">
         <v>-0.129507557618945</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="1">
         <v>-2.7604182725032539E-2</v>
       </c>
       <c r="I13">
@@ -845,7 +857,7 @@
       <c r="J13">
         <v>-0.41139577029000529</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="1">
         <v>-1.2228327343960821</v>
       </c>
       <c r="M13">
@@ -862,7 +874,7 @@
       <c r="C14">
         <v>-4.0322580645161046E-3</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>-6.9140711936043755E-3</v>
       </c>
       <c r="E14">
@@ -874,7 +886,7 @@
       <c r="G14">
         <v>-6.0081780005732034E-2</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="1">
         <v>-1.7838371073777445E-2</v>
       </c>
       <c r="I14">
@@ -883,7 +895,7 @@
       <c r="J14">
         <v>-0.34599530032222808</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="1">
         <v>-0.10866906241567169</v>
       </c>
       <c r="M14">
@@ -900,7 +912,7 @@
       <c r="C15">
         <v>0.3179723502304147</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>1.7797242742480141E-2</v>
       </c>
       <c r="E15">
@@ -912,7 +924,7 @@
       <c r="G15">
         <v>-0.23097600182287167</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="1">
         <v>-1.6443255123598181E-2</v>
       </c>
       <c r="I15">
@@ -921,7 +933,7 @@
       <c r="J15">
         <v>-0.4767962402577825</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="1">
         <v>-2.5598291407725742</v>
       </c>
       <c r="M15">
@@ -938,7 +950,7 @@
       <c r="C16">
         <v>0.22926267281105983</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>2.3526715324273867E-3</v>
       </c>
       <c r="E16">
@@ -950,7 +962,7 @@
       <c r="G16">
         <v>-0.15620977977787309</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="1">
         <v>-2.0628602974136098E-2</v>
       </c>
       <c r="I16">
@@ -959,7 +971,7 @@
       <c r="J16">
         <v>-1</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="1">
         <v>-2.7826618751686563</v>
       </c>
       <c r="M16">
@@ -976,7 +988,7 @@
       <c r="C17">
         <v>0.24193548387096797</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>8.0821441142213879E-4</v>
       </c>
       <c r="E17">
@@ -988,7 +1000,7 @@
       <c r="G17">
         <v>-0.14552889091430185</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="1">
         <v>-3.4579762475928984E-2</v>
       </c>
       <c r="I17">
@@ -997,7 +1009,7 @@
       <c r="J17">
         <v>-0.86919906006444558</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="1">
         <v>-2.5598291407725742</v>
       </c>
       <c r="M17">
@@ -1014,7 +1026,7 @@
       <c r="C18">
         <v>0.39400921658986182</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>4.4053013799569905E-2</v>
       </c>
       <c r="E18">
@@ -1026,7 +1038,7 @@
       <c r="G18">
         <v>-0.10814577989180256</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="1">
         <v>-1.7838371073777445E-2</v>
       </c>
       <c r="I18">
@@ -1035,7 +1047,7 @@
       <c r="J18">
         <v>-0.86919906006444558</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="1">
         <v>-2.7826618751686563</v>
       </c>
       <c r="M18">
@@ -1052,7 +1064,7 @@
       <c r="C19">
         <v>0.43202764976958558</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>1.6252785621474895E-2</v>
       </c>
       <c r="E19">
@@ -1064,7 +1076,7 @@
       <c r="G19">
         <v>-0.21495466852751483</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="1">
         <v>-1.5048139173418918E-2</v>
       </c>
       <c r="I19">
@@ -1073,7 +1085,7 @@
       <c r="J19">
         <v>-0.86919906006444558</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="1">
         <v>-2.7826618751686563</v>
       </c>
       <c r="M19">
@@ -1090,7 +1102,7 @@
       <c r="C20">
         <v>0.19124423963133638</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>5.4415857744378833E-3</v>
       </c>
       <c r="E20">
@@ -1102,7 +1114,7 @@
       <c r="G20">
         <v>-9.7464891028231429E-2</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="1">
         <v>-1.2257907273060267E-2</v>
       </c>
       <c r="I20">
@@ -1111,7 +1123,7 @@
       <c r="J20">
         <v>-0.80379859009666843</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="1">
         <v>-2.7826618751686563</v>
       </c>
       <c r="M20">
@@ -1128,7 +1140,7 @@
       <c r="C21">
         <v>0.12788018433179724</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>-1.154744255662012E-2</v>
       </c>
       <c r="E21">
@@ -1140,7 +1152,7 @@
       <c r="G21">
         <v>-0.12416711318715951</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="1">
         <v>-2.0628602974136098E-2</v>
       </c>
       <c r="I21">
@@ -1149,7 +1161,7 @@
       <c r="J21">
         <v>-0.60759718019333686</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="1">
         <v>-1.8913309375843281</v>
       </c>
       <c r="M21">
@@ -1166,7 +1178,7 @@
       <c r="C22">
         <v>0.17857142857142883</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <v>8.530500016448516E-3</v>
       </c>
       <c r="E22">
@@ -1178,7 +1190,7 @@
       <c r="G22">
         <v>-0.17757155750501552</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="1">
         <v>-1.0862791322881003E-2</v>
       </c>
       <c r="I22">
@@ -1187,7 +1199,7 @@
       <c r="J22">
         <v>-0.60759718019333686</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="1">
         <v>-1.8913309375843281</v>
       </c>
       <c r="M22">
@@ -1204,7 +1216,7 @@
       <c r="C23">
         <v>8.9861751152073815E-2</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
         <v>5.4415857744378833E-3</v>
       </c>
       <c r="E23">
@@ -1216,7 +1228,7 @@
       <c r="G23">
         <v>-0.17223111307322991</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="1">
         <v>-1.5048139173418918E-2</v>
       </c>
       <c r="I23">
@@ -1225,7 +1237,7 @@
       <c r="J23">
         <v>-0.67299765016111401</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="1">
         <v>-1.8913309375843281</v>
       </c>
       <c r="M23">
@@ -1242,7 +1254,7 @@
       <c r="C24">
         <v>0.26728110599078353</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
         <v>1.3163871379464261E-2</v>
       </c>
       <c r="E24">
@@ -1254,7 +1266,7 @@
       <c r="G24">
         <v>-0.25767822398179974</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="1">
         <v>-3.8872115719845611E-3</v>
       </c>
       <c r="I24">
@@ -1263,7 +1275,7 @@
       <c r="J24">
         <v>-0.67299765016111401</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="1">
         <v>-1</v>
       </c>
       <c r="M24">
@@ -1280,7 +1292,7 @@
       <c r="C25">
         <v>0.38709677419354815</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
         <v>8.530500016448516E-3</v>
       </c>
       <c r="E25">
@@ -1292,7 +1304,7 @@
       <c r="G25">
         <v>-0.41255111250358251</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="1">
         <v>-3.1789530575570331E-2</v>
       </c>
       <c r="I25">
@@ -1301,7 +1313,7 @@
       <c r="J25">
         <v>-0.54219671022555971</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="1">
         <v>-1.8913309375843281</v>
       </c>
       <c r="M25">
@@ -1318,7 +1330,7 @@
       <c r="C26">
         <v>0.33064516129032268</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <v>-1.3091899677625505E-2</v>
       </c>
       <c r="E26">
@@ -1330,7 +1342,7 @@
       <c r="G26">
         <v>-0.33778489045858395</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="1">
         <v>-3.7369994376287512E-2</v>
       </c>
       <c r="I26">
@@ -1339,7 +1351,7 @@
       <c r="J26">
         <v>-0.86919906006444558</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="1">
         <v>-2.5598291407725742</v>
       </c>
       <c r="M26">
@@ -1356,7 +1368,7 @@
       <c r="C27">
         <v>0.44066820276497704</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="1">
         <v>2.0886156984490777E-2</v>
       </c>
       <c r="E27">
@@ -1368,7 +1380,7 @@
       <c r="G27">
         <v>-0.35380622375394077</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="1">
         <v>-1.5048139173418918E-2</v>
       </c>
       <c r="I27">
@@ -1377,7 +1389,7 @@
       <c r="J27">
         <v>-0.80379859009666843</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="1">
         <v>-2.7826618751686563</v>
       </c>
       <c r="M27">
@@ -1394,7 +1406,7 @@
       <c r="C28">
         <v>0.55875576036866381</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="1">
         <v>3.3241813952533034E-2</v>
       </c>
       <c r="E28">
@@ -1406,7 +1418,7 @@
       <c r="G28">
         <v>-0.43391289023072499</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="1">
         <v>-2.4920956218051735E-3</v>
       </c>
       <c r="I28">
@@ -1415,7 +1427,7 @@
       <c r="J28">
         <v>-0.67299765016111401</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="1">
         <v>-2.3369964063764921</v>
       </c>
       <c r="M28">
@@ -1432,7 +1444,7 @@
       <c r="C29">
         <v>0.50921658986175122</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="1">
         <v>4.2508556678564659E-2</v>
       </c>
       <c r="E29">
@@ -1444,7 +1456,7 @@
       <c r="G29">
         <v>-0.53538133443465163</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="1">
         <v>-1.2257907273060267E-2</v>
       </c>
       <c r="I29">
@@ -1453,7 +1465,7 @@
       <c r="J29">
         <v>-0.60759718019333686</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="1">
         <v>-1.4456654687921642</v>
       </c>
       <c r="M29">
@@ -1470,7 +1482,7 @@
       <c r="C30">
         <v>0.38133640552995385</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="1">
         <v>1.7797242742480141E-2</v>
       </c>
       <c r="E30">
@@ -1482,7 +1494,7 @@
       <c r="G30">
         <v>-0.41789155693536811</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="1">
         <v>-1.0862791322881003E-2</v>
       </c>
       <c r="I30">
@@ -1491,7 +1503,7 @@
       <c r="J30">
         <v>-0.60759718019333686</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="1">
         <v>-2.5598291407725742</v>
       </c>
       <c r="M30">
@@ -1508,7 +1520,7 @@
       <c r="C31">
         <v>0.4366359447004608</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="1">
         <v>2.2430614105496023E-2</v>
       </c>
       <c r="E31">
@@ -1520,7 +1532,7 @@
       <c r="G31">
         <v>-0.51936000113929481</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="1">
         <v>-1.7838371073777445E-2</v>
       </c>
       <c r="I31">
@@ -1529,7 +1541,7 @@
       <c r="J31">
         <v>-1</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="1">
         <v>-2.5598291407725742</v>
       </c>
       <c r="M31">
@@ -1546,7 +1558,7 @@
       <c r="C32">
         <v>0.66013824884792638</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="1">
         <v>5.0230842283591037E-2</v>
       </c>
       <c r="E32">
@@ -1558,7 +1570,7 @@
       <c r="G32">
         <v>-0.59412622318429342</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="1">
         <v>-1.9233487023956709E-2</v>
       </c>
       <c r="I32">
@@ -1567,7 +1579,7 @@
       <c r="J32">
         <v>-0.73839812012889128</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="1">
         <v>-2.3369964063764921</v>
       </c>
       <c r="M32">
@@ -1584,7 +1596,7 @@
       <c r="C33">
         <v>0.58525345622119807</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="1">
         <v>3.9419642436554166E-2</v>
       </c>
       <c r="E33">
@@ -1596,7 +1608,7 @@
       <c r="G33">
         <v>-0.55140266773000846</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="1">
         <v>-1.9233487023956709E-2</v>
       </c>
       <c r="I33">
@@ -1605,7 +1617,7 @@
       <c r="J33">
         <v>-0.41139577029000529</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="1">
         <v>-1.4456654687921642</v>
       </c>
       <c r="M33">
@@ -1622,7 +1634,7 @@
       <c r="C34">
         <v>0.11895161290322585</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="1">
         <v>-2.2806998305884944E-3</v>
       </c>
       <c r="E34">
@@ -1634,7 +1646,7 @@
       <c r="G34">
         <v>-0.41789155693536811</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="1">
         <v>-2.620906677485315E-2</v>
       </c>
       <c r="I34">
@@ -1643,7 +1655,7 @@
       <c r="J34">
         <v>-0.34599530032222808</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="1">
         <v>-2.3369964063764921</v>
       </c>
       <c r="M34">
@@ -1660,7 +1672,7 @@
       <c r="C35">
         <v>5.8467741935483868E-2</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="1">
         <v>8.530500016448516E-3</v>
       </c>
       <c r="E35">
@@ -1672,7 +1684,7 @@
       <c r="G35">
         <v>-0.3751680014810832</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="1">
         <v>-2.3418834874494626E-2</v>
       </c>
       <c r="I35">
@@ -1681,7 +1693,7 @@
       <c r="J35">
         <v>-0.80379859009666843</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="1">
         <v>-2.3369964063764921</v>
       </c>
       <c r="M35">
@@ -1698,7 +1710,7 @@
       <c r="C36">
         <v>0.12788018433179724</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="1">
         <v>1.1619414258459013E-2</v>
       </c>
       <c r="E36">
@@ -1710,7 +1722,7 @@
       <c r="G36">
         <v>-0.31108266829965586</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="1">
         <v>-2.0628602974136098E-2</v>
       </c>
       <c r="I36">
@@ -1719,7 +1731,7 @@
       <c r="J36">
         <v>-0.86919906006444558</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="1">
         <v>-2.3369964063764921</v>
       </c>
       <c r="M36">
@@ -1736,7 +1748,7 @@
       <c r="C37">
         <v>0.17770737327188921</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="1">
         <v>6.9860428954431307E-3</v>
       </c>
       <c r="E37">
@@ -1748,7 +1760,7 @@
       <c r="G37">
         <v>-0.23631644625465728</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="1">
         <v>-1.9233487023956709E-2</v>
       </c>
       <c r="I37">
@@ -1757,7 +1769,7 @@
       <c r="J37">
         <v>-0.4767962402577825</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="1">
         <v>-1.8913309375843281</v>
       </c>
       <c r="M37">
@@ -1774,7 +1786,7 @@
       <c r="C38">
         <v>0.11981566820276504</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="1">
         <v>-7.3624270958324645E-4</v>
       </c>
       <c r="E38">
@@ -1786,7 +1798,7 @@
       <c r="G38">
         <v>-7.0762668869303269E-2</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="1">
         <v>-2.4920956218051735E-3</v>
       </c>
       <c r="I38">
@@ -1795,7 +1807,7 @@
       <c r="J38">
         <v>-0.4767962402577825</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="1">
         <v>-1.4456654687921642</v>
       </c>
       <c r="M38">
@@ -1812,7 +1824,7 @@
       <c r="C39">
         <v>0.10599078341013823</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="1">
         <v>1.0074957137453764E-2</v>
       </c>
       <c r="E39">
@@ -1824,7 +1836,7 @@
       <c r="G39">
         <v>-1.2017780119661517E-2</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="1">
         <v>-2.4920956218051735E-3</v>
       </c>
       <c r="I39">
@@ -1833,7 +1845,7 @@
       <c r="J39">
         <v>-0.60759718019333686</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="1">
         <v>-2.7826618751686563</v>
       </c>
       <c r="M39">
@@ -1850,7 +1862,7 @@
       <c r="C40">
         <v>0.15725806451612892</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="1">
         <v>6.9860428954431307E-3</v>
       </c>
       <c r="E40">
@@ -1862,7 +1874,7 @@
       <c r="G40">
         <v>4.1386664198194617E-2</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="1">
         <v>4.4834841290912683E-3</v>
       </c>
       <c r="I40">
@@ -1871,7 +1883,7 @@
       <c r="J40">
         <v>-0.60759718019333686</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="1">
         <v>-2.7826618751686563</v>
       </c>
       <c r="M40">
@@ -1888,7 +1900,7 @@
       <c r="C41">
         <v>0.28427419354838729</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="1">
         <v>1.7797242742480141E-2</v>
       </c>
       <c r="E41">
@@ -1900,7 +1912,7 @@
       <c r="G41">
         <v>-2.8039113415018357E-2</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="1">
         <v>1.0063947929808447E-2</v>
       </c>
       <c r="I41">
@@ -1909,7 +1921,7 @@
       <c r="J41">
         <v>-0.67299765016111401</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="1">
         <v>-1.8913309375843281</v>
       </c>
       <c r="M41">
@@ -1926,7 +1938,7 @@
       <c r="C42">
         <v>0.27016129032258068</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="1">
         <v>2.551952834750652E-2</v>
       </c>
       <c r="E42">
@@ -1938,7 +1950,7 @@
       <c r="G42">
         <v>-4.9400891142160813E-2</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="1">
         <v>1.2854179830166974E-2</v>
       </c>
       <c r="I42">
@@ -1947,7 +1959,7 @@
       <c r="J42">
         <v>-0.4767962402577825</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="1">
         <v>-1.6684982031882463</v>
       </c>
       <c r="M42">
@@ -1964,7 +1976,7 @@
       <c r="C43">
         <v>0.39717741935483875</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="1">
         <v>2.2430614105496023E-2</v>
       </c>
       <c r="E43">
@@ -1976,7 +1988,7 @@
       <c r="G43">
         <v>-0.17757155750501552</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="1">
         <v>1.4249295780346238E-2</v>
       </c>
       <c r="I43">
@@ -1985,7 +1997,7 @@
       <c r="J43">
         <v>-0.34599530032222808</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="1">
         <v>-2.11416367198041</v>
       </c>
       <c r="M43">
@@ -2002,7 +2014,7 @@
       <c r="C44">
         <v>0.56653225806451624</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="1">
         <v>6.721987061464918E-2</v>
       </c>
       <c r="E44">
@@ -2014,7 +2026,7 @@
       <c r="G44">
         <v>-0.22029511295930043</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="1">
         <v>2.2619991481422068E-2</v>
       </c>
       <c r="I44">
@@ -2023,7 +2035,7 @@
       <c r="J44">
         <v>-0.28059483035445093</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="1">
         <v>-2.11416367198041</v>
       </c>
       <c r="M44">
@@ -2040,7 +2052,7 @@
       <c r="C45">
         <v>0.51008064516129026</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="1">
         <v>3.787518531554878E-2</v>
       </c>
       <c r="E45">
@@ -2052,7 +2064,7 @@
       <c r="G45">
         <v>-0.24699733511822849</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="1">
         <v>1.9829759581063415E-2</v>
       </c>
       <c r="I45">
@@ -2061,7 +2073,7 @@
       <c r="J45">
         <v>-0.28059483035445093</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="1">
         <v>-1.6684982031882463</v>
       </c>
       <c r="M45">
@@ -2078,7 +2090,7 @@
       <c r="C46">
         <v>0.15725806451612892</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="1">
         <v>2.0886156984490777E-2</v>
       </c>
       <c r="E46">
@@ -2090,7 +2102,7 @@
       <c r="G46">
         <v>-0.19893333523215798</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="1">
         <v>1.9829759581063415E-2</v>
       </c>
       <c r="I46">
@@ -2099,7 +2111,7 @@
       <c r="J46">
         <v>-0.86919906006444558</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="1">
         <v>-2.7826618751686563</v>
       </c>
       <c r="M46">
@@ -2116,7 +2128,7 @@
       <c r="C47">
         <v>0.33928571428571447</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="1">
         <v>2.397507122650127E-2</v>
       </c>
       <c r="E47">
@@ -2128,7 +2140,7 @@
       <c r="G47">
         <v>-0.14552889091430185</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="1">
         <v>1.8434643630884155E-2</v>
       </c>
       <c r="I47">
@@ -2137,7 +2149,7 @@
       <c r="J47">
         <v>-0.86919906006444558</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="1">
         <v>-2.3369964063764921</v>
       </c>
       <c r="M47">
@@ -2154,7 +2166,7 @@
       <c r="C48">
         <v>0.20276497695852516</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="1">
         <v>2.0886156984490777E-2</v>
       </c>
       <c r="E48">
@@ -2166,7 +2178,7 @@
       <c r="G48">
         <v>-0.17223111307322991</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="1">
         <v>1.4249295780346238E-2</v>
       </c>
       <c r="I48">
@@ -2175,7 +2187,7 @@
       <c r="J48">
         <v>-0.73839812012889128</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="1">
         <v>-2.3369964063764921</v>
       </c>
       <c r="M48">
@@ -2192,7 +2204,7 @@
       <c r="C49">
         <v>0.24539170506912453</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="1">
         <v>6.9860428954431307E-3</v>
       </c>
       <c r="E49">
@@ -2204,7 +2216,7 @@
       <c r="G49">
         <v>-0.32176355716322708</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="1">
         <v>4.4834841290912683E-3</v>
       </c>
       <c r="I49">
@@ -2213,7 +2225,7 @@
       <c r="J49">
         <v>-0.34599530032222808</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="1">
         <v>-1.8913309375843281</v>
       </c>
       <c r="M49">
@@ -2230,7 +2242,7 @@
       <c r="C50">
         <v>8.0645161290323498E-3</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="1">
         <v>8.0821441142213879E-4</v>
       </c>
       <c r="E50">
@@ -2242,7 +2254,7 @@
       <c r="G50">
         <v>-0.14552889091430185</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="1">
         <v>5.8786000792705323E-3</v>
       </c>
       <c r="I50">
@@ -2251,7 +2263,7 @@
       <c r="J50">
         <v>-0.28059483035445093</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="1">
         <v>-1.4456654687921642</v>
       </c>
       <c r="M50">
@@ -2268,7 +2280,7 @@
       <c r="C51">
         <v>-6.3364055299538593E-3</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="1">
         <v>-2.2806998305884944E-3</v>
       </c>
       <c r="E51">
@@ -2280,7 +2292,7 @@
       <c r="G51">
         <v>-9.2124446596445725E-2</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="1">
         <v>8.6688319796291834E-3</v>
       </c>
       <c r="I51">
@@ -2289,7 +2301,7 @@
       <c r="J51">
         <v>-0.60759718019333686</v>
       </c>
-      <c r="K51">
+      <c r="K51" s="1">
         <v>-1.6684982031882463</v>
       </c>
       <c r="M51">
@@ -2306,7 +2318,7 @@
       <c r="C52">
         <v>-0.11088709677419351</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="1">
         <v>-7.3624270958324645E-4</v>
       </c>
       <c r="E52">
@@ -2318,7 +2330,7 @@
       <c r="G52">
         <v>-3.8720002278589585E-2</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="1">
         <v>1.9829759581063415E-2</v>
       </c>
       <c r="I52">
@@ -2327,7 +2339,7 @@
       <c r="J52">
         <v>-0.86919906006444558</v>
       </c>
-      <c r="K52">
+      <c r="K52" s="1">
         <v>-1.8913309375843281</v>
       </c>
       <c r="M52">
@@ -2344,7 +2356,7 @@
       <c r="C53">
         <v>0.22407834101382493</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="1">
         <v>2.551952834750652E-2</v>
       </c>
       <c r="E53">
@@ -2356,7 +2368,7 @@
       <c r="G53">
         <v>-0.10280533546001694</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="1">
         <v>2.5410223381780596E-2</v>
       </c>
       <c r="I53">
@@ -2365,7 +2377,7 @@
       <c r="J53">
         <v>-0.67299765016111401</v>
       </c>
-      <c r="K53">
+      <c r="K53" s="1">
         <v>-2.3369964063764921</v>
       </c>
       <c r="M53">
@@ -2382,7 +2394,7 @@
       <c r="C54">
         <v>0.16647465437788023</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="1">
         <v>2.551952834750652E-2</v>
       </c>
       <c r="E54">
@@ -2394,7 +2406,7 @@
       <c r="G54">
         <v>-7.0762668869303269E-2</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="1">
         <v>2.5410223381780596E-2</v>
       </c>
       <c r="I54">
@@ -2403,7 +2415,7 @@
       <c r="J54">
         <v>-0.34599530032222808</v>
       </c>
-      <c r="K54">
+      <c r="K54" s="1">
         <v>-2.3369964063764921</v>
       </c>
       <c r="M54">
@@ -2420,7 +2432,7 @@
       <c r="C55">
         <v>3.6866359447004629E-2</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="1">
         <v>5.4415857744378833E-3</v>
       </c>
       <c r="E55">
@@ -2432,7 +2444,7 @@
       <c r="G55">
         <v>4.0035531756953237E-3</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="1">
         <v>1.2854179830166974E-2</v>
       </c>
       <c r="I55">
@@ -2441,7 +2453,7 @@
       <c r="J55">
         <v>-0.54219671022555971</v>
       </c>
-      <c r="K55">
+      <c r="K55" s="1">
         <v>-2.5598291407725742</v>
       </c>
       <c r="M55">
@@ -2458,7 +2470,7 @@
       <c r="C56">
         <v>0.1808755760368663</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="1">
         <v>5.4415857744378833E-3</v>
       </c>
       <c r="E56">
@@ -2470,7 +2482,7 @@
       <c r="G56">
         <v>3.0705775334623389E-2</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="1">
         <v>1.9829759581063415E-2</v>
       </c>
       <c r="I56">
@@ -2479,7 +2491,7 @@
       <c r="J56">
         <v>-0.21519436038667372</v>
       </c>
-      <c r="K56">
+      <c r="K56" s="1">
         <v>-1.8913309375843281</v>
       </c>
       <c r="M56">
@@ -2496,7 +2508,7 @@
       <c r="C57">
         <v>0.19959677419354838</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="1">
         <v>1.1619414258459013E-2</v>
       </c>
       <c r="E57">
@@ -2508,7 +2520,7 @@
       <c r="G57">
         <v>1.4684442039266551E-2</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="1">
         <v>1.9829759581063415E-2</v>
       </c>
       <c r="I57">
@@ -2517,7 +2529,7 @@
       <c r="J57">
         <v>-0.67299765016111401</v>
       </c>
-      <c r="K57">
+      <c r="K57" s="1">
         <v>-2.5598291407725742</v>
       </c>
       <c r="M57">
@@ -2534,7 +2546,7 @@
       <c r="C58">
         <v>0.12903225806451618</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="1">
         <v>1.1619414258459013E-2</v>
       </c>
       <c r="E58">
@@ -2546,7 +2558,7 @@
       <c r="G58">
         <v>7.3429330788908301E-2</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="1">
         <v>1.5644411730525627E-2</v>
       </c>
       <c r="I58">
@@ -2555,7 +2567,7 @@
       <c r="J58">
         <v>-0.67299765016111401</v>
       </c>
-      <c r="K58">
+      <c r="K58" s="1">
         <v>-1.6684982031882463</v>
       </c>
       <c r="M58">
@@ -2572,7 +2584,7 @@
       <c r="C59">
         <v>7.5748847926267515E-2</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="1">
         <v>-2.2806998305884944E-3</v>
       </c>
       <c r="E59">
@@ -2584,7 +2596,7 @@
       <c r="G59">
         <v>0.12149333067497882</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="1">
         <v>1.2854179830166974E-2</v>
       </c>
       <c r="I59">
@@ -2593,7 +2605,7 @@
       <c r="J59">
         <v>-0.60759718019333686</v>
       </c>
-      <c r="K59">
+      <c r="K59" s="1">
         <v>-1.8913309375843281</v>
       </c>
       <c r="M59">
@@ -2610,7 +2622,7 @@
       <c r="C60">
         <v>0.34101382488479254</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="1">
         <v>3.787518531554878E-2</v>
       </c>
       <c r="E60">
@@ -2622,7 +2634,7 @@
       <c r="G60">
         <v>3.0705775334623389E-2</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="1">
         <v>2.9595571232318509E-2</v>
       </c>
       <c r="I60">
@@ -2631,7 +2643,7 @@
       <c r="J60">
         <v>-0.4767962402577825</v>
       </c>
-      <c r="K60">
+      <c r="K60" s="1">
         <v>-1.6684982031882463</v>
       </c>
       <c r="M60">
@@ -2648,7 +2660,7 @@
       <c r="C61">
         <v>0.29608294930875567</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="1">
         <v>3.3241813952533034E-2</v>
       </c>
       <c r="E61">
@@ -2660,7 +2672,7 @@
       <c r="G61">
         <v>0.11081244181140759</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="1">
         <v>2.6805339331959981E-2</v>
       </c>
       <c r="I61">
@@ -2669,7 +2681,7 @@
       <c r="J61">
         <v>-0.54219671022555971</v>
       </c>
-      <c r="K61">
+      <c r="K61" s="1">
         <v>-1.2228327343960821</v>
       </c>
       <c r="M61">
@@ -2686,7 +2698,7 @@
       <c r="C62">
         <v>0.51641705069124411</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="1">
         <v>7.8031070461686183E-2</v>
       </c>
       <c r="E62">
@@ -2698,7 +2710,7 @@
       <c r="G62">
         <v>-4.9400891142160813E-2</v>
       </c>
-      <c r="H62">
+      <c r="H62" s="1">
         <v>4.6336962634470048E-2</v>
       </c>
       <c r="I62">
@@ -2707,7 +2719,7 @@
       <c r="J62">
         <v>-0.73839812012889128</v>
       </c>
-      <c r="K62">
+      <c r="K62" s="1">
         <v>-2.7826618751686563</v>
       </c>
       <c r="M62">
@@ -2724,7 +2736,7 @@
       <c r="C63">
         <v>0.43865207373271892</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="1">
         <v>5.6408670767612169E-2</v>
       </c>
       <c r="E63">
@@ -2736,7 +2748,7 @@
       <c r="G63">
         <v>-2.2698668983232743E-2</v>
       </c>
-      <c r="H63">
+      <c r="H63" s="1">
         <v>3.9361382883573603E-2</v>
       </c>
       <c r="I63">
@@ -2745,7 +2757,7 @@
       <c r="J63">
         <v>-0.73839812012889128</v>
       </c>
-      <c r="K63">
+      <c r="K63" s="1">
         <v>-1.4456654687921642</v>
       </c>
       <c r="M63">
@@ -2762,7 +2774,7 @@
       <c r="C64">
         <v>0.35138248847926262</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="1">
         <v>5.1775299404596284E-2</v>
       </c>
       <c r="E64">
@@ -2774,7 +2786,7 @@
       <c r="G64">
         <v>3.0705775334623389E-2</v>
       </c>
-      <c r="H64">
+      <c r="H64" s="1">
         <v>4.354673073411152E-2</v>
       </c>
       <c r="I64">
@@ -2783,7 +2795,7 @@
       <c r="J64">
         <v>-0.41139577029000529</v>
       </c>
-      <c r="K64">
+      <c r="K64" s="1">
         <v>-2.11416367198041</v>
       </c>
       <c r="M64">
@@ -2800,7 +2812,7 @@
       <c r="C65">
         <v>0.16417050691244248</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="1">
         <v>4.4053013799569905E-2</v>
       </c>
       <c r="E65">
@@ -2812,7 +2824,7 @@
       <c r="G65">
         <v>0.13751466397033565</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="1">
         <v>2.4015107431601332E-2</v>
       </c>
       <c r="I65">
@@ -2821,7 +2833,7 @@
       <c r="J65">
         <v>-0.54219671022555971</v>
       </c>
-      <c r="K65">
+      <c r="K65" s="1">
         <v>-1.6684982031882463</v>
       </c>
       <c r="M65">
@@ -2838,7 +2850,7 @@
       <c r="C66">
         <v>0.23041474654377891</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="1">
         <v>3.3241813952533034E-2</v>
       </c>
       <c r="E66">
@@ -2850,7 +2862,7 @@
       <c r="G66">
         <v>9.4791108516050757E-2</v>
       </c>
-      <c r="H66">
+      <c r="H66" s="1">
         <v>2.4015107431601332E-2</v>
       </c>
       <c r="I66">
@@ -2859,7 +2871,7 @@
       <c r="J66">
         <v>-0.34599530032222808</v>
       </c>
-      <c r="K66">
+      <c r="K66" s="1">
         <v>-1.2228327343960821</v>
       </c>
       <c r="M66">
@@ -2876,7 +2888,7 @@
       <c r="C67">
         <v>0.14314516129032262</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="1">
         <v>2.8608442589517152E-2</v>
       </c>
       <c r="E67">
@@ -2888,7 +2900,7 @@
       <c r="G67">
         <v>4.6727108629980231E-2</v>
       </c>
-      <c r="H67">
+      <c r="H67" s="1">
         <v>1.9829759581063415E-2</v>
       </c>
       <c r="I67">
@@ -2897,7 +2909,7 @@
       <c r="J67">
         <v>-0.86919906006444558</v>
       </c>
-      <c r="K67">
+      <c r="K67" s="1">
         <v>-2.3369964063764921</v>
       </c>
       <c r="M67">
@@ -2914,7 +2926,7 @@
       <c r="C68">
         <v>2.9377880184332798E-3</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="1">
         <v>2.397507122650127E-2</v>
       </c>
       <c r="E68">
@@ -2926,7 +2938,7 @@
       <c r="G68">
         <v>7.8769775220693908E-2</v>
       </c>
-      <c r="H68">
+      <c r="H68" s="1">
         <v>1.8434643630884155E-2</v>
       </c>
       <c r="I68">
@@ -2935,7 +2947,7 @@
       <c r="J68">
         <v>-0.67299765016111401</v>
       </c>
-      <c r="K68">
+      <c r="K68" s="1">
         <v>-2.7826618751686563</v>
       </c>
       <c r="M68">
@@ -2952,7 +2964,7 @@
       <c r="C69">
         <v>2.3041474654377961E-2</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="1">
         <v>2.0886156984490777E-2</v>
       </c>
       <c r="E69">
@@ -2964,7 +2976,7 @@
       <c r="G69">
         <v>0.13217421953855005</v>
       </c>
-      <c r="H69">
+      <c r="H69" s="1">
         <v>1.7039527680704891E-2</v>
       </c>
       <c r="I69">
@@ -2973,7 +2985,7 @@
       <c r="J69">
         <v>-0.34599530032222808</v>
       </c>
-      <c r="K69">
+      <c r="K69" s="1">
         <v>-1.8913309375843281</v>
       </c>
       <c r="M69">
@@ -2990,7 +3002,7 @@
       <c r="C70">
         <v>4.6658986175115186E-2</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="1">
         <v>2.7063985468511905E-2</v>
       </c>
       <c r="E70">
@@ -3002,7 +3014,7 @@
       <c r="G70">
         <v>8.4110219652479529E-2</v>
       </c>
-      <c r="H70">
+      <c r="H70" s="1">
         <v>1.8434643630884155E-2</v>
       </c>
       <c r="I70">
@@ -3011,7 +3023,7 @@
       <c r="J70">
         <v>-0.4767962402577825</v>
       </c>
-      <c r="K70">
+      <c r="K70" s="1">
         <v>-0.77716726560391791</v>
       </c>
       <c r="M70">
@@ -3028,7 +3040,7 @@
       <c r="C71">
         <v>8.2949308755760412E-2</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="1">
         <v>3.0152899710522402E-2</v>
       </c>
       <c r="E71">
@@ -3040,7 +3052,7 @@
       <c r="G71">
         <v>5.2067553061765845E-2</v>
       </c>
-      <c r="H71">
+      <c r="H71" s="1">
         <v>1.9829759581063415E-2</v>
       </c>
       <c r="I71">
@@ -3049,7 +3061,7 @@
       <c r="J71">
         <v>-0.73839812012889128</v>
       </c>
-      <c r="K71">
+      <c r="K71" s="1">
         <v>-1.8913309375843281</v>
       </c>
       <c r="M71">
@@ -3066,7 +3078,7 @@
       <c r="C72">
         <v>0.22782258064516112</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="1">
         <v>3.0152899710522402E-2</v>
       </c>
       <c r="E72">
@@ -3078,7 +3090,7 @@
       <c r="G72">
         <v>4.1386664198194617E-2</v>
       </c>
-      <c r="H72">
+      <c r="H72" s="1">
         <v>1.9829759581063415E-2</v>
       </c>
       <c r="I72">
@@ -3087,7 +3099,7 @@
       <c r="J72">
         <v>-0.67299765016111401</v>
       </c>
-      <c r="K72">
+      <c r="K72" s="1">
         <v>-2.5598291407725742</v>
       </c>
       <c r="M72">
@@ -3104,7 +3116,7 @@
       <c r="C73">
         <v>0.18548387096774194</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="1">
         <v>2.551952834750652E-2</v>
       </c>
       <c r="E73">
@@ -3116,7 +3128,7 @@
       <c r="G73">
         <v>7.8769775220693908E-2</v>
       </c>
-      <c r="H73">
+      <c r="H73" s="1">
         <v>2.5410223381780596E-2</v>
       </c>
       <c r="I73">
@@ -3125,7 +3137,7 @@
       <c r="J73">
         <v>-1</v>
       </c>
-      <c r="K73">
+      <c r="K73" s="1">
         <v>-2.7826618751686563</v>
       </c>
       <c r="M73">
@@ -3142,7 +3154,7 @@
       <c r="C74">
         <v>0.25806451612903225</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="1">
         <v>3.478627107353828E-2</v>
       </c>
       <c r="E74">
@@ -3154,7 +3166,7 @@
       <c r="G74">
         <v>8.9450664084265136E-2</v>
       </c>
-      <c r="H74">
+      <c r="H74" s="1">
         <v>2.4015107431601332E-2</v>
       </c>
       <c r="I74">
@@ -3163,7 +3175,7 @@
       <c r="J74">
         <v>-0.93459953003222285</v>
       </c>
-      <c r="K74">
+      <c r="K74" s="1">
         <v>-2.5598291407725742</v>
       </c>
       <c r="M74">
@@ -3180,7 +3192,7 @@
       <c r="C75">
         <v>0.16647465437788023</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="1">
         <v>3.787518531554878E-2</v>
       </c>
       <c r="E75">
@@ -3192,7 +3204,7 @@
       <c r="G75">
         <v>0.12683377510676444</v>
       </c>
-      <c r="H75">
+      <c r="H75" s="1">
         <v>2.8200455282139245E-2</v>
       </c>
       <c r="I75">
@@ -3201,7 +3213,7 @@
       <c r="J75">
         <v>-0.80379859009666843</v>
       </c>
-      <c r="K75">
+      <c r="K75" s="1">
         <v>-2.11416367198041</v>
       </c>
       <c r="M75">
@@ -3218,7 +3230,7 @@
       <c r="C76">
         <v>0.15264976958525328</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="1">
         <v>2.7063985468511905E-2</v>
       </c>
       <c r="E76">
@@ -3230,7 +3242,7 @@
       <c r="G76">
         <v>0.10547199737962198</v>
       </c>
-      <c r="H76">
+      <c r="H76" s="1">
         <v>3.3780919082856423E-2</v>
       </c>
       <c r="I76">
@@ -3239,7 +3251,7 @@
       <c r="J76">
         <v>-0.86919906006444558</v>
       </c>
-      <c r="K76">
+      <c r="K76" s="1">
         <v>-2.7826618751686563</v>
       </c>
       <c r="M76">
@@ -3256,7 +3268,7 @@
       <c r="C77">
         <v>9.9654377880184511E-2</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="1">
         <v>2.0886156984490777E-2</v>
       </c>
       <c r="E77">
@@ -3268,7 +3280,7 @@
       <c r="G77">
         <v>8.9450664084265136E-2</v>
       </c>
-      <c r="H77">
+      <c r="H77" s="1">
         <v>3.0990687182497773E-2</v>
       </c>
       <c r="I77">
@@ -3277,7 +3289,7 @@
       <c r="J77">
         <v>-0.86919906006444558</v>
       </c>
-      <c r="K77">
+      <c r="K77" s="1">
         <v>-3.0054946095647384</v>
       </c>
       <c r="M77">
@@ -3294,7 +3306,7 @@
       <c r="C78">
         <v>8.6405529953916968E-2</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="1">
         <v>8.530500016448516E-3</v>
       </c>
       <c r="E78">
@@ -3306,7 +3318,7 @@
       <c r="G78">
         <v>0.11081244181140759</v>
       </c>
-      <c r="H78">
+      <c r="H78" s="1">
         <v>2.2619991481422068E-2</v>
       </c>
       <c r="I78">
@@ -3315,7 +3327,7 @@
       <c r="J78">
         <v>-0.73839812012889128</v>
       </c>
-      <c r="K78">
+      <c r="K78" s="1">
         <v>-2.7826618751686563</v>
       </c>
       <c r="M78">
@@ -3332,7 +3344,7 @@
       <c r="C79">
         <v>3.6866359447004629E-2</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="1">
         <v>1.1619414258459013E-2</v>
       </c>
       <c r="E79">
@@ -3344,7 +3356,7 @@
       <c r="G79">
         <v>0.12149333067497882</v>
       </c>
-      <c r="H79">
+      <c r="H79" s="1">
         <v>2.4015107431601332E-2</v>
       </c>
       <c r="I79">
@@ -3353,7 +3365,7 @@
       <c r="J79">
         <v>-0.60759718019333686</v>
       </c>
-      <c r="K79">
+      <c r="K79" s="1">
         <v>-2.7826618751686563</v>
       </c>
       <c r="M79">
@@ -3370,7 +3382,7 @@
       <c r="C80">
         <v>0.19239631336405535</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="1">
         <v>2.2430614105496023E-2</v>
       </c>
       <c r="E80">
@@ -3382,7 +3394,7 @@
       <c r="G80">
         <v>-1.3368912560902898E-3</v>
       </c>
-      <c r="H80">
+      <c r="H80" s="1">
         <v>3.0990687182497773E-2</v>
       </c>
       <c r="I80">
@@ -3391,7 +3403,7 @@
       <c r="J80">
         <v>-0.67299765016111401</v>
       </c>
-      <c r="K80">
+      <c r="K80" s="1">
         <v>-1.8913309375843281</v>
       </c>
       <c r="M80">
@@ -3408,7 +3420,7 @@
       <c r="C81">
         <v>0.19239631336405519</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="1">
         <v>2.7063985468511905E-2</v>
       </c>
       <c r="E81">
@@ -3420,7 +3432,7 @@
       <c r="G81">
         <v>4.6727108629980231E-2</v>
       </c>
-      <c r="H81">
+      <c r="H81" s="1">
         <v>3.3780919082856423E-2</v>
       </c>
       <c r="I81">
@@ -3429,7 +3441,7 @@
       <c r="J81">
         <v>-0.73839812012889128</v>
       </c>
-      <c r="K81">
+      <c r="K81" s="1">
         <v>-2.11416367198041</v>
       </c>
       <c r="M81">
@@ -3446,7 +3458,7 @@
       <c r="C82">
         <v>0.17857142857142883</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="1">
         <v>4.2508556678564659E-2</v>
       </c>
       <c r="E82">
@@ -3458,7 +3470,7 @@
       <c r="G82">
         <v>0.18023821942462057</v>
       </c>
-      <c r="H82">
+      <c r="H82" s="1">
         <v>3.9361382883573603E-2</v>
       </c>
       <c r="I82">
@@ -3467,7 +3479,7 @@
       <c r="J82">
         <v>-0.73839812012889128</v>
       </c>
-      <c r="K82">
+      <c r="K82" s="1">
         <v>-3.0054946095647384</v>
       </c>
       <c r="M82">
@@ -3484,7 +3496,7 @@
       <c r="C83">
         <v>0.19124423963133638</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="1">
         <v>3.787518531554878E-2</v>
       </c>
       <c r="E83">
@@ -3496,7 +3508,7 @@
       <c r="G83">
         <v>0.20159999715176302</v>
       </c>
-      <c r="H83">
+      <c r="H83" s="1">
         <v>3.9361382883573603E-2</v>
       </c>
       <c r="I83">
@@ -3505,7 +3517,7 @@
       <c r="J83">
         <v>-0.4767962402577825</v>
       </c>
-      <c r="K83">
+      <c r="K83" s="1">
         <v>-1.6684982031882463</v>
       </c>
       <c r="M83">
@@ -3522,7 +3534,7 @@
       <c r="C84">
         <v>0.19124423963133638</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="1">
         <v>4.8686385162585791E-2</v>
       </c>
       <c r="E84">
@@ -3534,7 +3546,7 @@
       <c r="G84">
         <v>0.11615288624319321</v>
       </c>
-      <c r="H84">
+      <c r="H84" s="1">
         <v>4.4941846684290784E-2</v>
       </c>
       <c r="I84">
@@ -3543,7 +3555,7 @@
       <c r="J84">
         <v>-0.86919906006444558</v>
       </c>
-      <c r="K84">
+      <c r="K84" s="1">
         <v>-3.0054946095647384</v>
       </c>
       <c r="M84">
@@ -3560,7 +3572,7 @@
       <c r="C85">
         <v>0.23127880184331795</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="1">
         <v>4.7141928041580537E-2</v>
       </c>
       <c r="E85">
@@ -3572,7 +3584,7 @@
       <c r="G85">
         <v>0.12683377510676444</v>
       </c>
-      <c r="H85">
+      <c r="H85" s="1">
         <v>4.4941846684290784E-2</v>
       </c>
       <c r="I85">
@@ -3581,7 +3593,7 @@
       <c r="J85">
         <v>-0.93459953003222285</v>
       </c>
-      <c r="K85">
+      <c r="K85" s="1">
         <v>-3.0054946095647384</v>
       </c>
       <c r="M85">
@@ -3598,7 +3610,7 @@
       <c r="C86">
         <v>0.20391705069124424</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="1">
         <v>4.0964099557559412E-2</v>
       </c>
       <c r="E86">
@@ -3610,7 +3622,7 @@
       <c r="G86">
         <v>0.10547199737962198</v>
       </c>
-      <c r="H86">
+      <c r="H86" s="1">
         <v>3.9361382883573603E-2</v>
       </c>
       <c r="I86">
@@ -3619,7 +3631,7 @@
       <c r="J86">
         <v>-0.4767962402577825</v>
       </c>
-      <c r="K86">
+      <c r="K86" s="1">
         <v>-1.8913309375843281</v>
       </c>
       <c r="M86">
@@ -3636,7 +3648,7 @@
       <c r="C87">
         <v>0.2053571428571431</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="1">
         <v>3.1697356831527648E-2</v>
       </c>
       <c r="E87">
@@ -3648,7 +3660,7 @@
       <c r="G87">
         <v>0.1481955528339069</v>
       </c>
-      <c r="H87">
+      <c r="H87" s="1">
         <v>3.9361382883573603E-2</v>
       </c>
       <c r="I87">
@@ -3657,7 +3669,7 @@
       <c r="J87">
         <v>-0.14979389041889654</v>
       </c>
-      <c r="K87">
+      <c r="K87" s="1">
         <v>-1.4456654687921642</v>
       </c>
       <c r="M87">
@@ -3674,7 +3686,7 @@
       <c r="C88">
         <v>0.49049539170506912</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="1">
         <v>3.0152899710522402E-2</v>
       </c>
       <c r="E88">
@@ -3686,7 +3698,7 @@
       <c r="G88">
         <v>9.4791108516050757E-2</v>
       </c>
-      <c r="H88">
+      <c r="H88" s="1">
         <v>5.0522310485007958E-2</v>
       </c>
       <c r="I88">
@@ -3695,7 +3707,7 @@
       <c r="J88">
         <v>-0.34599530032222808</v>
       </c>
-      <c r="K88">
+      <c r="K88" s="1">
         <v>-2.3369964063764921</v>
       </c>
       <c r="M88">
@@ -3712,7 +3724,7 @@
       <c r="C89">
         <v>0.29608294930875567</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="1">
         <v>3.9419642436554166E-2</v>
       </c>
       <c r="E89">
@@ -3724,7 +3736,7 @@
       <c r="G89">
         <v>0.10013155294783636</v>
       </c>
-      <c r="H89">
+      <c r="H89" s="1">
         <v>4.4941846684290784E-2</v>
       </c>
       <c r="I89">
@@ -3733,7 +3745,7 @@
       <c r="J89">
         <v>-0.67299765016111401</v>
       </c>
-      <c r="K89">
+      <c r="K89" s="1">
         <v>-2.11416367198041</v>
       </c>
       <c r="M89">
@@ -3750,7 +3762,7 @@
       <c r="C90">
         <v>0.3179723502304147</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="1">
         <v>3.6330728194543527E-2</v>
       </c>
       <c r="E90">
@@ -3762,7 +3774,7 @@
       <c r="G90">
         <v>0.11615288624319321</v>
       </c>
-      <c r="H90">
+      <c r="H90" s="1">
         <v>3.796626693339434E-2</v>
       </c>
       <c r="I90">
@@ -3771,7 +3783,7 @@
       <c r="J90">
         <v>-0.14979389041889654</v>
       </c>
-      <c r="K90">
+      <c r="K90" s="1">
         <v>-1.2228327343960821</v>
       </c>
       <c r="M90">
@@ -3788,7 +3800,7 @@
       <c r="C91">
         <v>0.39976958525345646</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="1">
         <v>3.3241813952533034E-2</v>
       </c>
       <c r="E91">
@@ -3800,7 +3812,7 @@
       <c r="G91">
         <v>0.12683377510676444</v>
       </c>
-      <c r="H91">
+      <c r="H91" s="1">
         <v>4.7732078584649312E-2</v>
       </c>
       <c r="I91">
@@ -3809,7 +3821,7 @@
       <c r="J91">
         <v>0.11180798945221224</v>
       </c>
-      <c r="K91">
+      <c r="K91" s="1">
         <v>-1.8913309375843281</v>
       </c>
       <c r="M91">
@@ -3826,7 +3838,7 @@
       <c r="C92">
         <v>0.45449308755760381</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="1">
         <v>2.7063985468511905E-2</v>
       </c>
       <c r="E92">
@@ -3838,7 +3850,7 @@
       <c r="G92">
         <v>0.26568533033319036</v>
       </c>
-      <c r="H92">
+      <c r="H92" s="1">
         <v>4.0756498833752867E-2</v>
       </c>
       <c r="I92">
@@ -3847,7 +3859,7 @@
       <c r="J92">
         <v>-0.34599530032222808</v>
       </c>
-      <c r="K92">
+      <c r="K92" s="1">
         <v>-1.6684982031882463</v>
       </c>
       <c r="M92">
@@ -3864,7 +3876,7 @@
       <c r="C93">
         <v>-9.2741935483870969E-2</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="1">
         <v>4.2508556678564659E-2</v>
       </c>
       <c r="E93">
@@ -3876,7 +3888,7 @@
       <c r="G93">
         <v>-1.2017780119661517E-2</v>
       </c>
-      <c r="H93">
+      <c r="H93" s="1">
         <v>4.6336962634470048E-2</v>
       </c>
       <c r="I93">
@@ -3885,7 +3897,7 @@
       <c r="J93">
         <v>-0.34599530032222808</v>
       </c>
-      <c r="K93">
+      <c r="K93" s="1">
         <v>-1.2228327343960821</v>
       </c>
       <c r="M93">
@@ -3902,7 +3914,7 @@
       <c r="C94">
         <v>4.550691244239638E-2</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="1">
         <v>8.8842270308723062E-2</v>
       </c>
       <c r="E94">
@@ -3914,7 +3926,7 @@
       <c r="G94">
         <v>-0.1615502242096587</v>
       </c>
-      <c r="H94">
+      <c r="H94" s="1">
         <v>5.0522310485007958E-2</v>
       </c>
       <c r="I94">
@@ -3923,7 +3935,7 @@
       <c r="J94">
         <v>-0.34599530032222808</v>
       </c>
-      <c r="K94">
+      <c r="K94" s="1">
         <v>-2.3369964063764921</v>
       </c>
       <c r="M94">
@@ -3940,7 +3952,7 @@
       <c r="C95">
         <v>2.3041474654377542E-3</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="1">
         <v>8.2664441824701937E-2</v>
       </c>
       <c r="E95">
@@ -3952,7 +3964,7 @@
       <c r="G95">
         <v>-0.14552889091430185</v>
       </c>
-      <c r="H95">
+      <c r="H95" s="1">
         <v>5.0522310485007958E-2</v>
       </c>
       <c r="I95">
@@ -3961,7 +3973,7 @@
       <c r="J95">
         <v>-0.4767962402577825</v>
       </c>
-      <c r="K95">
+      <c r="K95" s="1">
         <v>-2.5598291407725742</v>
       </c>
       <c r="M95">
@@ -3978,7 +3990,7 @@
       <c r="C96">
         <v>9.677419354838708E-2</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="1">
         <v>6.4130956372638548E-2</v>
       </c>
       <c r="E96">
@@ -3990,7 +4002,7 @@
       <c r="G96">
         <v>-0.16689066864144431</v>
       </c>
-      <c r="H96">
+      <c r="H96" s="1">
         <v>4.354673073411152E-2</v>
       </c>
       <c r="I96">
@@ -3999,7 +4011,7 @@
       <c r="J96">
         <v>-0.54219671022555971</v>
       </c>
-      <c r="K96">
+      <c r="K96" s="1">
         <v>-1.4456654687921642</v>
       </c>
       <c r="M96">
@@ -4016,7 +4028,7 @@
       <c r="C97">
         <v>0.16964285714285715</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="1">
         <v>5.7953127888617416E-2</v>
       </c>
       <c r="E97">
@@ -4028,7 +4040,7 @@
       <c r="G97">
         <v>-0.20427377966394361</v>
       </c>
-      <c r="H97">
+      <c r="H97" s="1">
         <v>4.2151614783932131E-2</v>
       </c>
       <c r="I97">
@@ -4037,7 +4049,7 @@
       <c r="J97">
         <v>-0.54219671022555971</v>
       </c>
-      <c r="K97">
+      <c r="K97" s="1">
         <v>-0.55433453120783582</v>
       </c>
       <c r="M97">
@@ -4054,7 +4066,7 @@
       <c r="C98">
         <v>0.12903225806451618</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="1">
         <v>4.0964099557559412E-2</v>
       </c>
       <c r="E98">
@@ -4066,7 +4078,7 @@
       <c r="G98">
         <v>-2.8039113415018357E-2</v>
       </c>
-      <c r="H98">
+      <c r="H98" s="1">
         <v>3.9361382883573603E-2</v>
       </c>
       <c r="I98">
@@ -4075,7 +4087,7 @@
       <c r="J98">
         <v>-0.21519436038667372</v>
       </c>
-      <c r="K98">
+      <c r="K98" s="1">
         <v>-1.6684982031882463</v>
       </c>
       <c r="M98">
@@ -4092,7 +4104,7 @@
       <c r="C99">
         <v>5.4147465437787992E-2</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="1">
         <v>5.1775299404596284E-2</v>
       </c>
       <c r="E99">
@@ -4104,7 +4116,7 @@
       <c r="G99">
         <v>-0.1615502242096587</v>
       </c>
-      <c r="H99">
+      <c r="H99" s="1">
         <v>4.2151614783932131E-2</v>
       </c>
       <c r="I99">
@@ -4113,7 +4125,7 @@
       <c r="J99">
         <v>-0.60759718019333686</v>
       </c>
-      <c r="K99">
+      <c r="K99" s="1">
         <v>-2.5598291407725742</v>
       </c>
       <c r="M99">
@@ -4130,7 +4142,7 @@
       <c r="C100">
         <v>1.0944700460829506E-2</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="1">
         <v>4.4053013799569905E-2</v>
       </c>
       <c r="E100">
@@ -4142,7 +4154,7 @@
       <c r="G100">
         <v>-0.22563555739108607</v>
       </c>
-      <c r="H100">
+      <c r="H100" s="1">
         <v>3.5176035033035687E-2</v>
       </c>
       <c r="I100">
@@ -4151,7 +4163,7 @@
       <c r="J100">
         <v>-0.4767962402577825</v>
       </c>
-      <c r="K100">
+      <c r="K100" s="1">
         <v>-2.5598291407725742</v>
       </c>
       <c r="M100">
@@ -4168,7 +4180,7 @@
       <c r="C101">
         <v>-8.4101382488479218E-2</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="1">
         <v>3.1697356831527648E-2</v>
       </c>
       <c r="E101">
@@ -4180,7 +4192,7 @@
       <c r="G101">
         <v>-0.19893333523215798</v>
       </c>
-      <c r="H101">
+      <c r="H101" s="1">
         <v>3.3780919082856423E-2</v>
       </c>
       <c r="I101">
@@ -4189,7 +4201,7 @@
       <c r="J101">
         <v>-0.21519436038667372</v>
       </c>
-      <c r="K101">
+      <c r="K101" s="1">
         <v>-0.55433453120783582</v>
       </c>
       <c r="M101">
@@ -4206,7 +4218,7 @@
       <c r="C102">
         <v>6.451612903225809E-2</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="1">
         <v>3.478627107353828E-2</v>
       </c>
       <c r="E102">
@@ -4218,7 +4230,7 @@
       <c r="G102">
         <v>-0.23631644625465728</v>
       </c>
-      <c r="H102">
+      <c r="H102" s="1">
         <v>2.9595571232318509E-2</v>
       </c>
       <c r="I102">
@@ -4227,7 +4239,7 @@
       <c r="J102">
         <v>-0.34599530032222808</v>
       </c>
-      <c r="K102">
+      <c r="K102" s="1">
         <v>-1.6684982031882463</v>
       </c>
       <c r="M102">
@@ -4244,7 +4256,7 @@
       <c r="C103">
         <v>-0.16474654377880188</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="1">
         <v>4.2508556678564659E-2</v>
       </c>
       <c r="E103">
@@ -4256,7 +4268,7 @@
       <c r="G103">
         <v>-0.24165689068644289</v>
       </c>
-      <c r="H103">
+      <c r="H103" s="1">
         <v>3.796626693339434E-2</v>
       </c>
       <c r="I103">
@@ -4265,7 +4277,7 @@
       <c r="J103">
         <v>-0.54219671022555971</v>
       </c>
-      <c r="K103">
+      <c r="K103" s="1">
         <v>-1.8913309375843281</v>
       </c>
       <c r="M103">
@@ -4282,7 +4294,7 @@
       <c r="C104">
         <v>-0.73790322580645162</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="1">
         <v>-5.1703327702757533E-2</v>
       </c>
       <c r="E104">
@@ -4294,7 +4306,7 @@
       <c r="G104">
         <v>-3.3379557846803971E-2</v>
       </c>
-      <c r="H104">
+      <c r="H104" s="1">
         <v>-9.4676753727017393E-3</v>
       </c>
       <c r="I104">
@@ -4303,7 +4315,7 @@
       <c r="J104">
         <v>1.2236159789044243</v>
       </c>
-      <c r="K104">
+      <c r="K104" s="1">
         <v>3.2338219535255597</v>
       </c>
       <c r="M104">
@@ -4320,7 +4332,7 @@
       <c r="C105">
         <v>-0.75806451612903214</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="1">
         <v>5.4864213646606916E-2</v>
       </c>
       <c r="E105">
@@ -4332,7 +4344,7 @@
       <c r="G105">
         <v>0.25500444146961915</v>
       </c>
-      <c r="H105">
+      <c r="H105" s="1">
         <v>1.1459063879987711E-2</v>
       </c>
       <c r="I105">
@@ -4341,7 +4353,7 @@
       <c r="J105">
         <v>1.1582155089366473</v>
       </c>
-      <c r="K105">
+      <c r="K105" s="1">
         <v>3.6794874223177239</v>
       </c>
       <c r="M105">
@@ -4358,7 +4370,7 @@
       <c r="C106">
         <v>-0.63709677419354849</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="1">
         <v>4.4053013799569905E-2</v>
       </c>
       <c r="E106">
@@ -4370,7 +4382,7 @@
       <c r="G106">
         <v>0.29238755249211845</v>
       </c>
-      <c r="H106">
+      <c r="H106" s="1">
         <v>1.5644411730525627E-2</v>
       </c>
       <c r="I106">
@@ -4379,7 +4391,7 @@
       <c r="J106">
         <v>1.027414569001093</v>
       </c>
-      <c r="K106">
+      <c r="K106" s="1">
         <v>2.5653237503373134</v>
       </c>
       <c r="M106">
@@ -4396,7 +4408,7 @@
       <c r="C107">
         <v>-0.76670506912442393</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="1">
         <v>-2.2806998305884944E-3</v>
       </c>
       <c r="E107">
@@ -4408,7 +4420,7 @@
       <c r="G107">
         <v>0.32977066351461776</v>
       </c>
-      <c r="H107">
+      <c r="H107" s="1">
         <v>2.5410223381780596E-2</v>
       </c>
       <c r="I107">
@@ -4417,7 +4429,7 @@
       <c r="J107">
         <v>0.89661362906553854</v>
       </c>
-      <c r="K107">
+      <c r="K107" s="1">
         <v>2.7881564847333955</v>
       </c>
       <c r="M107">
@@ -4434,7 +4446,7 @@
       <c r="C108">
         <v>-0.45276497695852536</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="1">
         <v>5.4415857744378833E-3</v>
       </c>
       <c r="E108">
@@ -4446,7 +4458,7 @@
       <c r="G108">
         <v>4.1386664198194617E-2</v>
       </c>
-      <c r="H108">
+      <c r="H108" s="1">
         <v>2.5410223381780596E-2</v>
       </c>
       <c r="I108">
@@ -4455,7 +4467,7 @@
       <c r="J108">
         <v>0.89661362906553854</v>
       </c>
-      <c r="K108">
+      <c r="K108" s="1">
         <v>2.7881564847333955</v>
       </c>
       <c r="M108">
@@ -4472,7 +4484,7 @@
       <c r="C109">
         <v>-0.35483870967741932</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="1">
         <v>-6.9140711936043755E-3</v>
       </c>
       <c r="E109">
@@ -4484,7 +4496,7 @@
       <c r="G109">
         <v>0.11081244181140759</v>
       </c>
-      <c r="H109">
+      <c r="H109" s="1">
         <v>8.6688319796291834E-3</v>
       </c>
       <c r="I109">
@@ -4493,7 +4505,7 @@
       <c r="J109">
         <v>1.09281503896887</v>
       </c>
-      <c r="K109">
+      <c r="K109" s="1">
         <v>3.0109892191294776</v>
       </c>
       <c r="M109">
@@ -4510,7 +4522,7 @@
       <c r="C110">
         <v>-0.43087557603686633</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="1">
         <v>-1.6180813919636002E-2</v>
       </c>
       <c r="E110">
@@ -4522,7 +4534,7 @@
       <c r="G110">
         <v>0.16101261947019224</v>
       </c>
-      <c r="H110">
+      <c r="H110" s="1">
         <v>1.0063947929808447E-2</v>
       </c>
       <c r="I110">
@@ -4531,7 +4543,7 @@
       <c r="J110">
         <v>1.1582155089366473</v>
       </c>
-      <c r="K110">
+      <c r="K110" s="1">
         <v>3.4566546879216418</v>
       </c>
       <c r="M110">
@@ -4548,7 +4560,7 @@
       <c r="C111">
         <v>-0.48559907834101379</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="1">
         <v>-1.9269728161646633E-2</v>
       </c>
       <c r="E111">
@@ -4560,7 +4572,7 @@
       <c r="G111">
         <v>0.20159999715176302</v>
       </c>
-      <c r="H111">
+      <c r="H111" s="1">
         <v>4.4834841290912683E-3</v>
       </c>
       <c r="I111">
@@ -4569,7 +4581,7 @@
       <c r="J111">
         <v>1.027414569001093</v>
       </c>
-      <c r="K111">
+      <c r="K111" s="1">
         <v>3.6794874223177239</v>
       </c>
       <c r="M111">
@@ -4586,7 +4598,7 @@
       <c r="C112">
         <v>-0.33035714285714279</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="1">
         <v>-2.235864240365713E-2</v>
       </c>
       <c r="E112">
@@ -4598,7 +4610,7 @@
       <c r="G112">
         <v>0.30306844135568967</v>
       </c>
-      <c r="H112">
+      <c r="H112" s="1">
         <v>1.0063947929808447E-2</v>
       </c>
       <c r="I112">
@@ -4607,7 +4619,7 @@
       <c r="J112">
         <v>0.83121315909776128</v>
       </c>
-      <c r="K112">
+      <c r="K112" s="1">
         <v>3.2338219535255597</v>
       </c>
       <c r="M112">
@@ -4624,7 +4636,7 @@
       <c r="C113">
         <v>-0.13594470046082946</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="1">
         <v>5.7953127888617416E-2</v>
       </c>
       <c r="E113">
@@ -4636,7 +4648,7 @@
       <c r="G113">
         <v>0.23364266374247669</v>
       </c>
-      <c r="H113">
+      <c r="H113" s="1">
         <v>1.5644411730525627E-2</v>
       </c>
       <c r="I113">
@@ -4645,7 +4657,7 @@
       <c r="J113">
         <v>0.56961127922665256</v>
       </c>
-      <c r="K113">
+      <c r="K113" s="1">
         <v>3.2338219535255597</v>
       </c>
       <c r="M113">
@@ -4662,7 +4674,7 @@
       <c r="C114">
         <v>-0.11866359447004608</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="1">
         <v>-2.2806998305884944E-3</v>
       </c>
       <c r="E114">
@@ -4674,7 +4686,7 @@
       <c r="G114">
         <v>0.18023821942462057</v>
       </c>
-      <c r="H114">
+      <c r="H114" s="1">
         <v>1.6932522287326174E-3</v>
       </c>
       <c r="I114">
@@ -4683,7 +4695,7 @@
       <c r="J114">
         <v>0.96201409903331569</v>
       </c>
-      <c r="K114">
+      <c r="K114" s="1">
         <v>3.2338219535255597</v>
       </c>
       <c r="M114">
@@ -4700,7 +4712,7 @@
       <c r="C115">
         <v>-0.75806451612903214</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="1">
         <v>-1.9269728161646633E-2</v>
       </c>
       <c r="E115">
@@ -4712,7 +4724,7 @@
       <c r="G115">
         <v>7.3429330788908301E-2</v>
       </c>
-      <c r="H115">
+      <c r="H115" s="1">
         <v>2.9813627855335373E-4</v>
       </c>
       <c r="I115">
@@ -4721,7 +4733,7 @@
       <c r="J115">
         <v>1.027414569001093</v>
       </c>
-      <c r="K115">
+      <c r="K115" s="1">
         <v>3.6794874223177239</v>
       </c>
       <c r="M115">
@@ -4738,7 +4750,7 @@
       <c r="C116">
         <v>-0.72638248847926257</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="1">
         <v>7.8031070461686183E-2</v>
       </c>
       <c r="E116">
@@ -4750,7 +4762,7 @@
       <c r="G116">
         <v>-1.735822455144713E-2</v>
       </c>
-      <c r="H116">
+      <c r="H116" s="1">
         <v>-2.4920956218051735E-3</v>
       </c>
       <c r="I116">
@@ -4759,7 +4771,7 @@
       <c r="J116">
         <v>0.83121315909776128</v>
       </c>
-      <c r="K116">
+      <c r="K116" s="1">
         <v>3.6794874223177239</v>
       </c>
       <c r="M116">
@@ -4776,7 +4788,7 @@
       <c r="C117">
         <v>-0.59447004608294929</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="1">
         <v>6.4130956372638548E-2</v>
       </c>
       <c r="E117">
@@ -4788,7 +4800,7 @@
       <c r="G117">
         <v>9.3439976074809368E-3</v>
       </c>
-      <c r="H117">
+      <c r="H117" s="1">
         <v>-9.4676753727017393E-3</v>
       </c>
       <c r="I117">
@@ -4797,7 +4809,7 @@
       <c r="J117">
         <v>0.83121315909776128</v>
       </c>
-      <c r="K117">
+      <c r="K117" s="1">
         <v>3.2338219535255597</v>
       </c>
       <c r="M117">
@@ -4814,7 +4826,7 @@
       <c r="C118">
         <v>-0.41676267281105989</v>
       </c>
-      <c r="D118">
+      <c r="D118" s="1">
         <v>-3.9347670734715269E-2</v>
       </c>
       <c r="E118">
@@ -4826,7 +4838,7 @@
       <c r="G118">
         <v>0.11081244181140759</v>
       </c>
-      <c r="H118">
+      <c r="H118" s="1">
         <v>1.2854179830166974E-2</v>
       </c>
       <c r="I118">
@@ -4835,7 +4847,7 @@
       <c r="J118">
         <v>0.76581268912998413</v>
       </c>
-      <c r="K118">
+      <c r="K118" s="1">
         <v>2.7881564847333955</v>
       </c>
       <c r="M118">
@@ -4852,7 +4864,7 @@
       <c r="C119">
         <v>-9.2741935483870969E-2</v>
       </c>
-      <c r="D119">
+      <c r="D119" s="1">
         <v>-1.9269728161646633E-2</v>
       </c>
       <c r="E119">
@@ -4864,7 +4876,7 @@
       <c r="G119">
         <v>4.1386664198194617E-2</v>
       </c>
-      <c r="H119">
+      <c r="H119" s="1">
         <v>1.2854179830166974E-2</v>
       </c>
       <c r="I119">
@@ -4873,7 +4885,7 @@
       <c r="J119">
         <v>1.1582155089366473</v>
       </c>
-      <c r="K119">
+      <c r="K119" s="1">
         <v>3.0109892191294776</v>
       </c>
       <c r="M119">
@@ -4890,7 +4902,7 @@
       <c r="C120">
         <v>-0.11290322580645164</v>
       </c>
-      <c r="D120">
+      <c r="D120" s="1">
         <v>-3.162538512968889E-2</v>
       </c>
       <c r="E120">
@@ -4902,7 +4914,7 @@
       <c r="G120">
         <v>5.7407997493551459E-2</v>
       </c>
-      <c r="H120">
+      <c r="H120" s="1">
         <v>-2.4920956218051735E-3</v>
       </c>
       <c r="I120">
@@ -4911,7 +4923,7 @@
       <c r="J120">
         <v>1.1582155089366473</v>
       </c>
-      <c r="K120">
+      <c r="K120" s="1">
         <v>3.0109892191294776</v>
       </c>
       <c r="M120">
@@ -4928,7 +4940,7 @@
       <c r="C121">
         <v>-0.11290322580645164</v>
       </c>
-      <c r="D121">
+      <c r="D121" s="1">
         <v>-3.0080928008683509E-2</v>
       </c>
       <c r="E121">
@@ -4940,7 +4952,7 @@
       <c r="G121">
         <v>3.0705775334623389E-2</v>
       </c>
-      <c r="H121">
+      <c r="H121" s="1">
         <v>2.9813627855335373E-4</v>
       </c>
       <c r="I121">
@@ -4949,7 +4961,7 @@
       <c r="J121">
         <v>1.09281503896887</v>
       </c>
-      <c r="K121">
+      <c r="K121" s="1">
         <v>2.5653237503373134</v>
       </c>
       <c r="M121">
@@ -4966,7 +4978,7 @@
       <c r="C122">
         <v>-4.0034562211981553E-2</v>
       </c>
-      <c r="D122">
+      <c r="D122" s="1">
         <v>-7.3624270958324645E-4</v>
       </c>
       <c r="E122">
@@ -4978,7 +4990,7 @@
       <c r="G122">
         <v>-0.10814577989180256</v>
       </c>
-      <c r="H122">
+      <c r="H122" s="1">
         <v>1.4249295780346238E-2</v>
       </c>
       <c r="I122">
@@ -4987,7 +4999,7 @@
       <c r="J122">
         <v>1.027414569001093</v>
       </c>
-      <c r="K122">
+      <c r="K122" s="1">
         <v>3.0109892191294776</v>
       </c>
       <c r="M122">
@@ -5004,7 +5016,7 @@
       <c r="C123">
         <v>0.12903225806451618</v>
       </c>
-      <c r="D123">
+      <c r="D123" s="1">
         <v>5.4415857744378833E-3</v>
       </c>
       <c r="E123">
@@ -5016,7 +5028,7 @@
       <c r="G123">
         <v>-0.15620977977787309</v>
       </c>
-      <c r="H123">
+      <c r="H123" s="1">
         <v>2.4015107431601332E-2</v>
       </c>
       <c r="I123">
@@ -5025,7 +5037,7 @@
       <c r="J123">
         <v>1.09281503896887</v>
       </c>
-      <c r="K123">
+      <c r="K123" s="1">
         <v>3.4566546879216418</v>
       </c>
       <c r="M123">
@@ -5042,7 +5054,7 @@
       <c r="C124">
         <v>-1.2096774193548314E-2</v>
       </c>
-      <c r="D124">
+      <c r="D124" s="1">
         <v>-2.8536470887678259E-2</v>
       </c>
       <c r="E124">
@@ -5054,7 +5066,7 @@
       <c r="G124">
         <v>-6.5422224437517648E-2</v>
       </c>
-      <c r="H124">
+      <c r="H124" s="1">
         <v>1.6932522287326174E-3</v>
       </c>
       <c r="I124">
@@ -5063,7 +5075,7 @@
       <c r="J124">
         <v>0.96201409903331569</v>
       </c>
-      <c r="K124">
+      <c r="K124" s="1">
         <v>3.4566546879216418</v>
       </c>
       <c r="M124">
@@ -5080,7 +5092,7 @@
       <c r="C125">
         <v>1.8145161290322682E-2</v>
       </c>
-      <c r="D125">
+      <c r="D125" s="1">
         <v>-3.0080928008683509E-2</v>
       </c>
       <c r="E125">
@@ -5092,7 +5104,7 @@
       <c r="G125">
         <v>-3.8720002278589585E-2</v>
       </c>
-      <c r="H125">
+      <c r="H125" s="1">
         <v>3.0883681789120048E-3</v>
       </c>
       <c r="I125">
@@ -5101,7 +5113,7 @@
       <c r="J125">
         <v>1.027414569001093</v>
       </c>
-      <c r="K125">
+      <c r="K125" s="1">
         <v>3.0109892191294776</v>
       </c>
       <c r="M125">
@@ -5118,7 +5130,7 @@
       <c r="C126">
         <v>-0.27275345622119807</v>
       </c>
-      <c r="D126">
+      <c r="D126" s="1">
         <v>-2.5447556645667765E-2</v>
       </c>
       <c r="E126">
@@ -5130,7 +5142,7 @@
       <c r="G126">
         <v>-7.6103113301088876E-2</v>
       </c>
-      <c r="H126">
+      <c r="H126" s="1">
         <v>1.6932522287326174E-3</v>
       </c>
       <c r="I126">
@@ -5139,7 +5151,7 @@
       <c r="J126">
         <v>1.027414569001093</v>
       </c>
-      <c r="K126">
+      <c r="K126" s="1">
         <v>3.0109892191294776</v>
       </c>
       <c r="M126">
@@ -5156,7 +5168,7 @@
       <c r="C127">
         <v>-4.6082949308755084E-3</v>
       </c>
-      <c r="D127">
+      <c r="D127" s="1">
         <v>3.0152899710522402E-2</v>
       </c>
       <c r="E127">
@@ -5168,7 +5180,7 @@
       <c r="G127">
         <v>-2.8039113415018357E-2</v>
       </c>
-      <c r="H127">
+      <c r="H127" s="1">
         <v>1.7039527680704891E-2</v>
       </c>
       <c r="I127">
@@ -5177,7 +5189,7 @@
       <c r="J127">
         <v>1.09281503896887</v>
       </c>
-      <c r="K127">
+      <c r="K127" s="1">
         <v>3.9023201567138059</v>
       </c>
       <c r="M127">
@@ -5194,7 +5206,7 @@
       <c r="C128">
         <v>-1.1520737327188911E-2</v>
       </c>
-      <c r="D128">
+      <c r="D128" s="1">
         <v>4.4053013799569905E-2</v>
       </c>
       <c r="E128">
@@ -5206,7 +5218,7 @@
       <c r="G128">
         <v>-6.0081780005732034E-2</v>
       </c>
-      <c r="H128">
+      <c r="H128" s="1">
         <v>1.8434643630884155E-2</v>
       </c>
       <c r="I128">
@@ -5215,7 +5227,7 @@
       <c r="J128">
         <v>0.96201409903331569</v>
       </c>
-      <c r="K128">
+      <c r="K128" s="1">
         <v>3.9023201567138059</v>
       </c>
       <c r="M128">
@@ -5232,7 +5244,7 @@
       <c r="C129">
         <v>-0.11866359447004608</v>
       </c>
-      <c r="D129">
+      <c r="D129" s="1">
         <v>2.2430614105496023E-2</v>
       </c>
       <c r="E129">
@@ -5244,7 +5256,7 @@
       <c r="G129">
         <v>-1.2017780119661517E-2</v>
       </c>
-      <c r="H129">
+      <c r="H129" s="1">
         <v>-1.6443255123598181E-2</v>
       </c>
       <c r="I129">
@@ -5253,7 +5265,7 @@
       <c r="J129">
         <v>1.09281503896887</v>
       </c>
-      <c r="K129">
+      <c r="K129" s="1">
         <v>4.125152891109888</v>
       </c>
       <c r="M129">
@@ -5270,7 +5282,7 @@
       <c r="C130">
         <v>-0.11866359447004608</v>
       </c>
-      <c r="D130">
+      <c r="D130" s="1">
         <v>2.8608442589517152E-2</v>
       </c>
       <c r="E130">
@@ -5282,7 +5294,7 @@
       <c r="G130">
         <v>-4.9400891142160813E-2</v>
       </c>
-      <c r="H130">
+      <c r="H130" s="1">
         <v>8.6688319796291834E-3</v>
       </c>
       <c r="I130">
@@ -5291,7 +5303,7 @@
       <c r="J130">
         <v>0.89661362906553854</v>
       </c>
-      <c r="K130">
+      <c r="K130" s="1">
         <v>4.125152891109888</v>
       </c>
       <c r="M130">
@@ -5308,7 +5320,7 @@
       <c r="C131">
         <v>-1.1520737327188071E-3</v>
       </c>
-      <c r="D131">
+      <c r="D131" s="1">
         <v>5.9497585009622801E-2</v>
       </c>
       <c r="E131">
@@ -5320,7 +5332,7 @@
       <c r="G131">
         <v>-0.13484800205073064</v>
       </c>
-      <c r="H131">
+      <c r="H131" s="1">
         <v>3.2385803132677159E-2</v>
       </c>
       <c r="I131">
@@ -5329,7 +5341,7 @@
       <c r="J131">
         <v>1.4198173888077559</v>
       </c>
-      <c r="K131">
+      <c r="K131" s="1">
         <v>4.125152891109888</v>
       </c>
       <c r="M131">
@@ -5346,7 +5358,7 @@
       <c r="C132">
         <v>-8.9285714285714274E-2</v>
       </c>
-      <c r="D132">
+      <c r="D132" s="1">
         <v>5.7953127888617416E-2</v>
       </c>
       <c r="E132">
@@ -5358,7 +5370,7 @@
       <c r="G132">
         <v>-4.4060446710375199E-2</v>
       </c>
-      <c r="H132">
+      <c r="H132" s="1">
         <v>1.7039527680704891E-2</v>
       </c>
       <c r="I132">
@@ -5367,7 +5379,7 @@
       <c r="J132">
         <v>1.4198173888077559</v>
       </c>
-      <c r="K132">
+      <c r="K132" s="1">
         <v>3.9023201567138059</v>
       </c>
       <c r="M132">
@@ -5384,7 +5396,7 @@
       <c r="C133">
         <v>-4.9539170506912346E-2</v>
       </c>
-      <c r="D133">
+      <c r="D133" s="1">
         <v>5.6408670767612169E-2</v>
       </c>
       <c r="E133">
@@ -5396,7 +5408,7 @@
       <c r="G133">
         <v>-9.2124446596445725E-2</v>
       </c>
-      <c r="H133">
+      <c r="H133" s="1">
         <v>2.6805339331959981E-2</v>
       </c>
       <c r="I133">
@@ -5405,7 +5417,7 @@
       <c r="J133">
         <v>1.2890164488722016</v>
       </c>
-      <c r="K133">
+      <c r="K133" s="1">
         <v>3.9023201567138059</v>
       </c>
       <c r="M133">
@@ -5422,7 +5434,7 @@
       <c r="C134">
         <v>-9.907834101382483E-2</v>
       </c>
-      <c r="D134">
+      <c r="D134" s="1">
         <v>6.5675413493643933E-2</v>
       </c>
       <c r="E134">
@@ -5434,7 +5446,7 @@
       <c r="G134">
         <v>-2.8039113415018357E-2</v>
       </c>
-      <c r="H134">
+      <c r="H134" s="1">
         <v>3.796626693339434E-2</v>
       </c>
       <c r="I134">
@@ -5443,7 +5455,7 @@
       <c r="J134">
         <v>0.83121315909776128</v>
       </c>
-      <c r="K134">
+      <c r="K134" s="1">
         <v>3.9023201567138059</v>
       </c>
       <c r="M134">
@@ -5460,7 +5472,7 @@
       <c r="C135">
         <v>1.6993087557603734E-2</v>
       </c>
-      <c r="D135">
+      <c r="D135" s="1">
         <v>6.721987061464918E-2</v>
       </c>
       <c r="E135">
@@ -5472,7 +5484,7 @@
       <c r="G135">
         <v>-2.2698668983232743E-2</v>
       </c>
-      <c r="H135">
+      <c r="H135" s="1">
         <v>2.4015107431601332E-2</v>
       </c>
       <c r="I135">
@@ -5481,7 +5493,7 @@
       <c r="J135">
         <v>1.027414569001093</v>
       </c>
-      <c r="K135">
+      <c r="K135" s="1">
         <v>3.6794874223177239</v>
       </c>
       <c r="M135">
@@ -5498,7 +5510,7 @@
       <c r="C136">
         <v>0.12154377880184339</v>
       </c>
-      <c r="D136">
+      <c r="D136" s="1">
         <v>7.8031070461686183E-2</v>
       </c>
       <c r="E136">
@@ -5510,7 +5522,7 @@
       <c r="G136">
         <v>-1.735822455144713E-2</v>
       </c>
-      <c r="H136">
+      <c r="H136" s="1">
         <v>2.6805339331959981E-2</v>
       </c>
       <c r="I136">
@@ -5519,7 +5531,7 @@
       <c r="J136">
         <v>1.09281503896887</v>
       </c>
-      <c r="K136">
+      <c r="K136" s="1">
         <v>3.4566546879216418</v>
       </c>
       <c r="M136">
@@ -5536,7 +5548,7 @@
       <c r="C137">
         <v>-0.44700460829493088</v>
       </c>
-      <c r="D137">
+      <c r="D137" s="1">
         <v>7.3397699098670305E-2</v>
       </c>
       <c r="E137">
@@ -5548,7 +5560,7 @@
       <c r="G137">
         <v>0.20159999715176302</v>
       </c>
-      <c r="H137">
+      <c r="H137" s="1">
         <v>3.0990687182497773E-2</v>
       </c>
       <c r="I137">
@@ -5557,7 +5569,7 @@
       <c r="J137">
         <v>0.89661362906553854</v>
       </c>
-      <c r="K137">
+      <c r="K137" s="1">
         <v>3.9023201567138059</v>
       </c>
       <c r="M137">
@@ -5574,7 +5586,7 @@
       <c r="C138">
         <v>-5.3571428571428589E-2</v>
       </c>
-      <c r="D138">
+      <c r="D138" s="1">
         <v>-7.3624270958324645E-4</v>
       </c>
       <c r="E138">
@@ -5586,7 +5598,7 @@
       <c r="G138">
         <v>-6.6773356878759033E-3</v>
       </c>
-      <c r="H138">
+      <c r="H138" s="1">
         <v>2.6805339331959981E-2</v>
       </c>
       <c r="I138">
@@ -5595,7 +5607,7 @@
       <c r="J138">
         <v>0.83121315909776128</v>
       </c>
-      <c r="K138">
+      <c r="K138" s="1">
         <v>3.9023201567138059</v>
       </c>
       <c r="M138">
@@ -5612,7 +5624,7 @@
       <c r="C139">
         <v>-9.677419354838708E-2</v>
       </c>
-      <c r="D139">
+      <c r="D139" s="1">
         <v>-2.0814185282651883E-2</v>
       </c>
       <c r="E139">
@@ -5624,7 +5636,7 @@
       <c r="G139">
         <v>8.4110219652479529E-2</v>
       </c>
-      <c r="H139">
+      <c r="H139" s="1">
         <v>-1.0862791322881003E-2</v>
       </c>
       <c r="I139">
@@ -5633,7 +5645,7 @@
       <c r="J139">
         <v>1.09281503896887</v>
       </c>
-      <c r="K139">
+      <c r="K139" s="1">
         <v>3.9023201567138059</v>
       </c>
       <c r="M139">
@@ -5650,7 +5662,7 @@
       <c r="C140">
         <v>-5.2419354838709645E-2</v>
       </c>
-      <c r="D140">
+      <c r="D140" s="1">
         <v>5.4415857744378833E-3</v>
       </c>
       <c r="E140">
@@ -5662,7 +5674,7 @@
       <c r="G140">
         <v>3.0705775334623389E-2</v>
       </c>
-      <c r="H140">
+      <c r="H140" s="1">
         <v>-1.2257907273060267E-2</v>
       </c>
       <c r="I140">
@@ -5671,7 +5683,7 @@
       <c r="J140">
         <v>1.1582155089366473</v>
       </c>
-      <c r="K140">
+      <c r="K140" s="1">
         <v>4.3479856255059701</v>
       </c>
       <c r="M140">
@@ -5688,7 +5700,7 @@
       <c r="C141">
         <v>-1.2096774193548314E-2</v>
       </c>
-      <c r="D141">
+      <c r="D141" s="1">
         <v>8.0821441142213879E-4</v>
       </c>
       <c r="E141">
@@ -5700,7 +5712,7 @@
       <c r="G141">
         <v>-0.10280533546001694</v>
       </c>
-      <c r="H141">
+      <c r="H141" s="1">
         <v>-8.0725594225223522E-3</v>
       </c>
       <c r="I141">
@@ -5709,7 +5721,7 @@
       <c r="J141">
         <v>1.027414569001093</v>
       </c>
-      <c r="K141">
+      <c r="K141" s="1">
         <v>4.125152891109888</v>
       </c>
       <c r="M141">
@@ -5726,7 +5738,7 @@
       <c r="C142">
         <v>1.8145161290322682E-2</v>
       </c>
-      <c r="D142">
+      <c r="D142" s="1">
         <v>-6.9140711936043755E-3</v>
       </c>
       <c r="E142">
@@ -5738,7 +5750,7 @@
       <c r="G142">
         <v>-5.4741335573946427E-2</v>
       </c>
-      <c r="H142">
+      <c r="H142" s="1">
         <v>-2.4920956218051735E-3</v>
       </c>
       <c r="I142">
@@ -5747,7 +5759,7 @@
       <c r="J142">
         <v>1.027414569001093</v>
       </c>
-      <c r="K142">
+      <c r="K142" s="1">
         <v>3.9023201567138059</v>
       </c>
       <c r="M142">
@@ -5764,7 +5776,7 @@
       <c r="C143">
         <v>-2.2177419354838645E-2</v>
       </c>
-      <c r="D143">
+      <c r="D143" s="1">
         <v>1.3163871379464261E-2</v>
       </c>
       <c r="E143">
@@ -5776,7 +5788,7 @@
       <c r="G143">
         <v>3.0705775334623389E-2</v>
       </c>
-      <c r="H143">
+      <c r="H143" s="1">
         <v>1.8434643630884155E-2</v>
       </c>
       <c r="I143">
@@ -5785,7 +5797,7 @@
       <c r="J143">
         <v>1.1582155089366473</v>
       </c>
-      <c r="K143">
+      <c r="K143" s="1">
         <v>4.3479856255059701</v>
       </c>
       <c r="M143">
@@ -5802,7 +5814,7 @@
       <c r="C144">
         <v>0.10656682027649778</v>
       </c>
-      <c r="D144">
+      <c r="D144" s="1">
         <v>2.8608442589517152E-2</v>
       </c>
       <c r="E144">
@@ -5814,7 +5826,7 @@
       <c r="G144">
         <v>-9.2124446596445725E-2</v>
       </c>
-      <c r="H144">
+      <c r="H144" s="1">
         <v>1.4249295780346238E-2</v>
       </c>
       <c r="I144">
@@ -5823,7 +5835,7 @@
       <c r="J144">
         <v>1.2236159789044243</v>
       </c>
-      <c r="K144">
+      <c r="K144" s="1">
         <v>4.3479856255059701</v>
       </c>
       <c r="M144">
@@ -5840,7 +5852,7 @@
       <c r="C145">
         <v>-4.0322580645161185E-2</v>
       </c>
-      <c r="D145">
+      <c r="D145" s="1">
         <v>2.551952834750652E-2</v>
       </c>
       <c r="E145">
@@ -5852,7 +5864,7 @@
       <c r="G145">
         <v>9.3439976074809368E-3</v>
       </c>
-      <c r="H145">
+      <c r="H145" s="1">
         <v>1.6932522287326174E-3</v>
       </c>
       <c r="I145">
@@ -5861,7 +5873,7 @@
       <c r="J145">
         <v>1.2890164488722016</v>
       </c>
-      <c r="K145">
+      <c r="K145" s="1">
         <v>4.5708183599020522</v>
       </c>
       <c r="M145">
@@ -5878,7 +5890,7 @@
       <c r="C146">
         <v>-7.8052995391704988E-2</v>
       </c>
-      <c r="D146">
+      <c r="D146" s="1">
         <v>3.0152899710522402E-2</v>
       </c>
       <c r="E146">
@@ -5890,7 +5902,7 @@
       <c r="G146">
         <v>-4.9400891142160813E-2</v>
       </c>
-      <c r="H146">
+      <c r="H146" s="1">
         <v>3.0883681789120048E-3</v>
       </c>
       <c r="I146">
@@ -5899,7 +5911,7 @@
       <c r="J146">
         <v>1.2236159789044243</v>
       </c>
-      <c r="K146">
+      <c r="K146" s="1">
         <v>4.7936510942981343</v>
       </c>
       <c r="M146">
@@ -5916,7 +5928,7 @@
       <c r="C147">
         <v>-0.22580645161290328</v>
       </c>
-      <c r="D147">
+      <c r="D147" s="1">
         <v>2.0886156984490777E-2</v>
       </c>
       <c r="E147">
@@ -5928,7 +5940,7 @@
       <c r="G147">
         <v>7.3429330788908301E-2</v>
       </c>
-      <c r="H147">
+      <c r="H147" s="1">
         <v>1.4249295780346238E-2</v>
       </c>
       <c r="I147">
@@ -5937,7 +5949,7 @@
       <c r="J147">
         <v>1.2890164488722016</v>
       </c>
-      <c r="K147">
+      <c r="K147" s="1">
         <v>5.0164838286942164</v>
       </c>
       <c r="M147">
@@ -5954,7 +5966,7 @@
       <c r="C148">
         <v>-0.17338709677419348</v>
       </c>
-      <c r="D148">
+      <c r="D148" s="1">
         <v>-1.9269728161646633E-2</v>
       </c>
       <c r="E148">
@@ -5966,7 +5978,7 @@
       <c r="G148">
         <v>5.7407997493551459E-2</v>
       </c>
-      <c r="H148">
+      <c r="H148" s="1">
         <v>-2.4920956218051735E-3</v>
       </c>
       <c r="I148">
@@ -5975,7 +5987,7 @@
       <c r="J148">
         <v>1.2890164488722016</v>
       </c>
-      <c r="K148">
+      <c r="K148" s="1">
         <v>4.5708183599020522</v>
       </c>
       <c r="M148">
@@ -5992,7 +6004,7 @@
       <c r="C149">
         <v>-8.7557603686635913E-2</v>
       </c>
-      <c r="D149">
+      <c r="D149" s="1">
         <v>2.3526715324273867E-3</v>
       </c>
       <c r="E149">
@@ -6004,7 +6016,7 @@
       <c r="G149">
         <v>-8.1443557732874497E-2</v>
       </c>
-      <c r="H149">
+      <c r="H149" s="1">
         <v>-1.0862791322881003E-2</v>
       </c>
       <c r="I149">
@@ -6013,7 +6025,7 @@
       <c r="J149">
         <v>1.09281503896887</v>
       </c>
-      <c r="K149">
+      <c r="K149" s="1">
         <v>4.3479856255059701</v>
       </c>
       <c r="M149">
@@ -6030,7 +6042,7 @@
       <c r="C150">
         <v>-0.22580645161290328</v>
       </c>
-      <c r="D150">
+      <c r="D150" s="1">
         <v>6.9860428954431307E-3</v>
       </c>
       <c r="E150">
@@ -6042,7 +6054,7 @@
       <c r="G150">
         <v>3.0705775334623389E-2</v>
       </c>
-      <c r="H150">
+      <c r="H150" s="1">
         <v>-3.1789530575570331E-2</v>
       </c>
       <c r="I150">
@@ -6051,7 +6063,7 @@
       <c r="J150">
         <v>1.09281503896887</v>
       </c>
-      <c r="K150">
+      <c r="K150" s="1">
         <v>4.5708183599020522</v>
       </c>
       <c r="M150">
@@ -6068,7 +6080,7 @@
       <c r="C151">
         <v>-0.21370967741935482</v>
       </c>
-      <c r="D151">
+      <c r="D151" s="1">
         <v>2.2430614105496023E-2</v>
       </c>
       <c r="E151">
@@ -6080,7 +6092,7 @@
       <c r="G151">
         <v>-3.8720002278589585E-2</v>
       </c>
-      <c r="H151">
+      <c r="H151" s="1">
         <v>-1.5048139173418918E-2</v>
       </c>
       <c r="I151">
@@ -6089,7 +6101,7 @@
       <c r="J151">
         <v>1.2236159789044243</v>
       </c>
-      <c r="K151">
+      <c r="K151" s="1">
         <v>5.2393165630902985</v>
       </c>
       <c r="M151">
@@ -6106,7 +6118,7 @@
       <c r="C152">
         <v>-0.25662442396313367</v>
       </c>
-      <c r="D152">
+      <c r="D152" s="1">
         <v>1.7797242742480141E-2</v>
       </c>
       <c r="E152">
@@ -6118,7 +6130,7 @@
       <c r="G152">
         <v>-0.11882666875537379</v>
       </c>
-      <c r="H152">
+      <c r="H152" s="1">
         <v>1.6932522287326174E-3</v>
       </c>
       <c r="I152">
@@ -6127,7 +6139,7 @@
       <c r="J152">
         <v>1.1582155089366473</v>
       </c>
-      <c r="K152">
+      <c r="K152" s="1">
         <v>4.5708183599020522</v>
       </c>
       <c r="M152">
@@ -6144,7 +6156,7 @@
       <c r="C153">
         <v>-9.2741935483870969E-2</v>
       </c>
-      <c r="D153">
+      <c r="D153" s="1">
         <v>1.4708328500469646E-2</v>
       </c>
       <c r="E153">
@@ -6156,7 +6168,7 @@
       <c r="G153">
         <v>-0.32710400159501268</v>
       </c>
-      <c r="H153">
+      <c r="H153" s="1">
         <v>2.4015107431601332E-2</v>
       </c>
       <c r="I153">
@@ -6165,7 +6177,7 @@
       <c r="J153">
         <v>0.76581268912998413</v>
       </c>
-      <c r="K153">
+      <c r="K153" s="1">
         <v>4.3479856255059701</v>
       </c>
       <c r="M153">
@@ -6182,7 +6194,7 @@
       <c r="C154">
         <v>-0.31566820276497692</v>
       </c>
-      <c r="D154">
+      <c r="D154" s="1">
         <v>2.3526715324273867E-3</v>
       </c>
       <c r="E154">
@@ -6194,7 +6206,7 @@
       <c r="G154">
         <v>-0.20961422409572922</v>
       </c>
-      <c r="H154">
+      <c r="H154" s="1">
         <v>-9.4676753727017393E-3</v>
       </c>
       <c r="I154">
@@ -6203,7 +6215,7 @@
       <c r="J154">
         <v>1.09281503896887</v>
       </c>
-      <c r="K154">
+      <c r="K154" s="1">
         <v>4.3479856255059701</v>
       </c>
       <c r="M154">
@@ -6220,7 +6232,7 @@
       <c r="C155">
         <v>-0.17338709677419348</v>
       </c>
-      <c r="D155">
+      <c r="D155" s="1">
         <v>-1.154744255662012E-2</v>
       </c>
       <c r="E155">
@@ -6232,7 +6244,7 @@
       <c r="G155">
         <v>-0.25233777955001413</v>
       </c>
-      <c r="H155">
+      <c r="H155" s="1">
         <v>-1.2257907273060267E-2</v>
       </c>
       <c r="I155">
@@ -6241,7 +6253,7 @@
       <c r="J155">
         <v>0.96201409903331569</v>
       </c>
-      <c r="K155">
+      <c r="K155" s="1">
         <v>4.125152891109888</v>
       </c>
       <c r="M155">
@@ -6258,7 +6270,7 @@
       <c r="C156">
         <v>-0.17338709677419348</v>
       </c>
-      <c r="D156">
+      <c r="D156" s="1">
         <v>2.3526715324273867E-3</v>
       </c>
       <c r="E156">
@@ -6270,7 +6282,7 @@
       <c r="G156">
         <v>-7.6103113301088876E-2</v>
       </c>
-      <c r="H156">
+      <c r="H156" s="1">
         <v>-2.3418834874494626E-2</v>
       </c>
       <c r="I156">
@@ -6279,7 +6291,7 @@
       <c r="J156">
         <v>0.96201409903331569</v>
       </c>
-      <c r="K156">
+      <c r="K156" s="1">
         <v>4.125152891109888</v>
       </c>
       <c r="M156">
@@ -6296,7 +6308,7 @@
       <c r="C157">
         <v>-7.8341013824884759E-2</v>
       </c>
-      <c r="D157">
+      <c r="D157" s="1">
         <v>-1.154744255662012E-2</v>
       </c>
       <c r="E157">
@@ -6308,7 +6320,7 @@
       <c r="G157">
         <v>0.23898310817426233</v>
       </c>
-      <c r="H157">
+      <c r="H157" s="1">
         <v>-3.4579762475928984E-2</v>
       </c>
       <c r="I157">
@@ -6317,7 +6329,7 @@
       <c r="J157">
         <v>1.027414569001093</v>
       </c>
-      <c r="K157">
+      <c r="K157" s="1">
         <v>3.4566546879216418</v>
       </c>
       <c r="M157">
@@ -6334,7 +6346,7 @@
       <c r="C158">
         <v>-0.64573732718894006</v>
       </c>
-      <c r="D158">
+      <c r="D158" s="1">
         <v>-2.390309952466238E-2</v>
       </c>
       <c r="E158">
@@ -6346,7 +6358,7 @@
       <c r="G158">
         <v>-1.2017780119661517E-2</v>
       </c>
-      <c r="H158">
+      <c r="H158" s="1">
         <v>-8.0725594225223522E-3</v>
       </c>
       <c r="I158">
@@ -6355,7 +6367,7 @@
       <c r="J158">
         <v>0.96201409903331569</v>
       </c>
-      <c r="K158">
+      <c r="K158" s="1">
         <v>3.6794874223177239</v>
       </c>
       <c r="M158">
@@ -6372,7 +6384,7 @@
       <c r="C159">
         <v>-8.7557603686635913E-2</v>
       </c>
-      <c r="D159">
+      <c r="D159" s="1">
         <v>-1.9269728161646633E-2</v>
       </c>
       <c r="E159">
@@ -6384,7 +6396,7 @@
       <c r="G159">
         <v>-1.2017780119661517E-2</v>
       </c>
-      <c r="H159">
+      <c r="H159" s="1">
         <v>-3.8872115719845611E-3</v>
       </c>
       <c r="I159">
@@ -6393,7 +6405,7 @@
       <c r="J159">
         <v>1.1582155089366473</v>
       </c>
-      <c r="K159">
+      <c r="K159" s="1">
         <v>3.9023201567138059</v>
       </c>
       <c r="M159">
@@ -6410,7 +6422,7 @@
       <c r="C160">
         <v>0</v>
       </c>
-      <c r="D160">
+      <c r="D160" s="1">
         <v>-2.6992013766673012E-2</v>
       </c>
       <c r="E160">
@@ -6422,7 +6434,7 @@
       <c r="G160">
         <v>-6.0081780005732034E-2</v>
       </c>
-      <c r="H160">
+      <c r="H160" s="1">
         <v>1.1459063879987711E-2</v>
       </c>
       <c r="I160">
@@ -6431,7 +6443,7 @@
       <c r="J160">
         <v>0.89661362906553854</v>
       </c>
-      <c r="K160">
+      <c r="K160" s="1">
         <v>3.6794874223177239</v>
       </c>
       <c r="M160">
@@ -6448,7 +6460,7 @@
       <c r="C161">
         <v>-2.2177419354838645E-2</v>
       </c>
-      <c r="D161">
+      <c r="D161" s="1">
         <v>-4.2436584976725769E-2</v>
       </c>
       <c r="E161">
@@ -6460,7 +6472,7 @@
       <c r="G161">
         <v>3.0705775334623389E-2</v>
       </c>
-      <c r="H161">
+      <c r="H161" s="1">
         <v>-1.7838371073777445E-2</v>
       </c>
       <c r="I161">
@@ -6469,7 +6481,7 @@
       <c r="J161">
         <v>1.09281503896887</v>
       </c>
-      <c r="K161">
+      <c r="K161" s="1">
         <v>3.6794874223177239</v>
       </c>
       <c r="M161">
@@ -6486,7 +6498,7 @@
       <c r="C162">
         <v>6.8548387096774202E-2</v>
       </c>
-      <c r="D162">
+      <c r="D162" s="1">
         <v>-3.9347670734715269E-2</v>
       </c>
       <c r="E162">
@@ -6498,7 +6510,7 @@
       <c r="G162">
         <v>-6.6773356878759033E-3</v>
       </c>
-      <c r="H162">
+      <c r="H162" s="1">
         <v>-2.3418834874494626E-2</v>
       </c>
       <c r="I162">
@@ -6507,7 +6519,7 @@
       <c r="J162">
         <v>1.09281503896887</v>
       </c>
-      <c r="K162">
+      <c r="K162" s="1">
         <v>3.9023201567138059</v>
       </c>
       <c r="M162">
@@ -6524,7 +6536,7 @@
       <c r="C163">
         <v>-0.1445852534562212</v>
       </c>
-      <c r="D163">
+      <c r="D163" s="1">
         <v>-3.3169842250694144E-2</v>
       </c>
       <c r="E163">
@@ -6536,7 +6548,7 @@
       <c r="G163">
         <v>0.1535359972656925</v>
       </c>
-      <c r="H163">
+      <c r="H163" s="1">
         <v>-1.0862791322881003E-2</v>
       </c>
       <c r="I163">
@@ -6545,7 +6557,7 @@
       <c r="J163">
         <v>1.09281503896887</v>
       </c>
-      <c r="K163">
+      <c r="K163" s="1">
         <v>3.9023201567138059</v>
       </c>
       <c r="M163">
@@ -6562,7 +6574,7 @@
       <c r="C164">
         <v>4.838709677419354E-2</v>
       </c>
-      <c r="D164">
+      <c r="D164" s="1">
         <v>-3.6258756492704637E-2</v>
       </c>
       <c r="E164">
@@ -6574,7 +6586,7 @@
       <c r="G164">
         <v>9.4791108516050757E-2</v>
       </c>
-      <c r="H164">
+      <c r="H164" s="1">
         <v>-1.0862791322881003E-2</v>
       </c>
       <c r="I164">
@@ -6583,7 +6595,7 @@
       <c r="J164">
         <v>0.96201409903331569</v>
       </c>
-      <c r="K164">
+      <c r="K164" s="1">
         <v>3.6794874223177239</v>
       </c>
       <c r="M164">
@@ -6600,7 +6612,7 @@
       <c r="C165">
         <v>7.862903225806453E-2</v>
       </c>
-      <c r="D165">
+      <c r="D165" s="1">
         <v>-4.2436584976725769E-2</v>
       </c>
       <c r="E165">
@@ -6612,7 +6624,7 @@
       <c r="G165">
         <v>8.4110219652479529E-2</v>
       </c>
-      <c r="H165">
+      <c r="H165" s="1">
         <v>-5.2823275221638251E-3</v>
       </c>
       <c r="I165">
@@ -6621,7 +6633,7 @@
       <c r="J165">
         <v>0.96201409903331569</v>
       </c>
-      <c r="K165">
+      <c r="K165" s="1">
         <v>3.6794874223177239</v>
       </c>
       <c r="M165">
@@ -6638,7 +6650,7 @@
       <c r="C166">
         <v>0.32718894009216598</v>
       </c>
-      <c r="D166">
+      <c r="D166" s="1">
         <v>-5.0158870581752148E-2</v>
       </c>
       <c r="E166">
@@ -6650,7 +6662,7 @@
       <c r="G166">
         <v>0.23898310817426233</v>
       </c>
-      <c r="H166">
+      <c r="H166" s="1">
         <v>-3.8872115719845611E-3</v>
       </c>
       <c r="I166">
@@ -6659,7 +6671,7 @@
       <c r="J166">
         <v>1.027414569001093</v>
       </c>
-      <c r="K166">
+      <c r="K166" s="1">
         <v>3.2338219535255597</v>
       </c>
       <c r="M166">
@@ -6676,7 +6688,7 @@
       <c r="C167">
         <v>-0.20535714285714282</v>
       </c>
-      <c r="D167">
+      <c r="D167" s="1">
         <v>-5.7881156186778658E-2</v>
       </c>
       <c r="E167">
@@ -6688,7 +6700,7 @@
       <c r="G167">
         <v>5.7407997493551459E-2</v>
       </c>
-      <c r="H167">
+      <c r="H167" s="1">
         <v>-8.0725594225223522E-3</v>
       </c>
       <c r="I167">
@@ -6697,7 +6709,7 @@
       <c r="J167">
         <v>1.1582155089366473</v>
       </c>
-      <c r="K167">
+      <c r="K167" s="1">
         <v>3.4566546879216418</v>
       </c>
       <c r="M167">
@@ -6714,7 +6726,7 @@
       <c r="C168">
         <v>-4.1474654377880137E-2</v>
       </c>
-      <c r="D168">
+      <c r="D168" s="1">
         <v>-4.8614413460746894E-2</v>
       </c>
       <c r="E168">
@@ -6726,7 +6738,7 @@
       <c r="G168">
         <v>4.1386664198194617E-2</v>
       </c>
-      <c r="H168">
+      <c r="H168" s="1">
         <v>-2.0628602974136098E-2</v>
       </c>
       <c r="I168">
@@ -6735,7 +6747,7 @@
       <c r="J168">
         <v>1.027414569001093</v>
       </c>
-      <c r="K168">
+      <c r="K168" s="1">
         <v>3.4566546879216418</v>
       </c>
       <c r="M168">
@@ -6752,7 +6764,7 @@
       <c r="C169">
         <v>5.8467741935483868E-2</v>
       </c>
-      <c r="D169">
+      <c r="D169" s="1">
         <v>-3.4714299371699391E-2</v>
       </c>
       <c r="E169">
@@ -6764,7 +6776,7 @@
       <c r="G169">
         <v>5.7407997493551459E-2</v>
       </c>
-      <c r="H169">
+      <c r="H169" s="1">
         <v>1.8434643630884155E-2</v>
       </c>
       <c r="I169">
@@ -6773,7 +6785,7 @@
       <c r="J169">
         <v>0.76581268912998413</v>
       </c>
-      <c r="K169">
+      <c r="K169" s="1">
         <v>3.2338219535255597</v>
       </c>
       <c r="M169">
@@ -6790,7 +6802,7 @@
       <c r="C170">
         <v>7.8341013824884759E-2</v>
       </c>
-      <c r="D170">
+      <c r="D170" s="1">
         <v>-4.8614413460746894E-2</v>
       </c>
       <c r="E170">
@@ -6802,7 +6814,7 @@
       <c r="G170">
         <v>4.6727108629980231E-2</v>
       </c>
-      <c r="H170">
+      <c r="H170" s="1">
         <v>-1.6443255123598181E-2</v>
       </c>
       <c r="I170">
@@ -6811,7 +6823,7 @@
       <c r="J170">
         <v>0.76581268912998413</v>
       </c>
-      <c r="K170">
+      <c r="K170" s="1">
         <v>3.2338219535255597</v>
       </c>
       <c r="M170">
@@ -6828,7 +6840,7 @@
       <c r="C171">
         <v>6.5668202764977049E-2</v>
       </c>
-      <c r="D171">
+      <c r="D171" s="1">
         <v>-5.0158870581752148E-2</v>
       </c>
       <c r="E171">
@@ -6840,7 +6852,7 @@
       <c r="G171">
         <v>2.5365330902837779E-2</v>
       </c>
-      <c r="H171">
+      <c r="H171" s="1">
         <v>-2.2023718924315362E-2</v>
       </c>
       <c r="I171">
@@ -6849,7 +6861,7 @@
       <c r="J171">
         <v>0.83121315909776128</v>
       </c>
-      <c r="K171">
+      <c r="K171" s="1">
         <v>3.0109892191294776</v>
       </c>
       <c r="M171">
@@ -6866,7 +6878,7 @@
       <c r="C172">
         <v>0.10944700460829493</v>
       </c>
-      <c r="D172">
+      <c r="D172" s="1">
         <v>-5.324778482376278E-2</v>
       </c>
       <c r="E172">
@@ -6878,7 +6890,7 @@
       <c r="G172">
         <v>4.0035531756953237E-3</v>
       </c>
-      <c r="H172">
+      <c r="H172" s="1">
         <v>-1.5048139173418918E-2</v>
       </c>
       <c r="I172">
@@ -6887,7 +6899,7 @@
       <c r="J172">
         <v>0.96201409903331569</v>
       </c>
-      <c r="K172">
+      <c r="K172" s="1">
         <v>3.0109892191294776</v>
       </c>
       <c r="M172">
@@ -6904,7 +6916,7 @@
       <c r="C173">
         <v>-2.2177419354838645E-2</v>
       </c>
-      <c r="D173">
+      <c r="D173" s="1">
         <v>-5.9425613307783905E-2</v>
       </c>
       <c r="E173">
@@ -6916,7 +6928,7 @@
       <c r="G173">
         <v>7.3429330788908301E-2</v>
       </c>
-      <c r="H173">
+      <c r="H173" s="1">
         <v>-3.0394414625391067E-2</v>
       </c>
       <c r="I173">
@@ -6925,7 +6937,7 @@
       <c r="J173">
         <v>0.96201409903331569</v>
       </c>
-      <c r="K173">
+      <c r="K173" s="1">
         <v>2.7881564847333955</v>
       </c>
       <c r="M173">
@@ -6942,7 +6954,7 @@
       <c r="C174">
         <v>-4.6082949308755084E-3</v>
       </c>
-      <c r="D174">
+      <c r="D174" s="1">
         <v>-5.324778482376278E-2</v>
       </c>
       <c r="E174">
@@ -6954,7 +6966,7 @@
       <c r="G174">
         <v>5.2067553061765845E-2</v>
       </c>
-      <c r="H174">
+      <c r="H174" s="1">
         <v>-2.7604182725032539E-2</v>
       </c>
       <c r="I174">
@@ -6963,7 +6975,7 @@
       <c r="J174">
         <v>0.96201409903331569</v>
       </c>
-      <c r="K174">
+      <c r="K174" s="1">
         <v>3.4566546879216418</v>
       </c>
       <c r="M174">
@@ -6980,7 +6992,7 @@
       <c r="C175">
         <v>1.6129032258064557E-2</v>
       </c>
-      <c r="D175">
+      <c r="D175" s="1">
         <v>-6.405898467079979E-2</v>
       </c>
       <c r="E175">
@@ -6992,7 +7004,7 @@
       <c r="G175">
         <v>0.11615288624319321</v>
       </c>
-      <c r="H175">
+      <c r="H175" s="1">
         <v>-1.5048139173418918E-2</v>
       </c>
       <c r="I175">
@@ -7001,7 +7013,7 @@
       <c r="J175">
         <v>0.89661362906553854</v>
       </c>
-      <c r="K175">
+      <c r="K175" s="1">
         <v>3.0109892191294776</v>
       </c>
       <c r="M175">
@@ -7018,7 +7030,7 @@
       <c r="C176">
         <v>7.8341013824884759E-2</v>
       </c>
-      <c r="D176">
+      <c r="D176" s="1">
         <v>-5.4792241944768026E-2</v>
       </c>
       <c r="E176">
@@ -7030,7 +7042,7 @@
       <c r="G176">
         <v>0.14285510840212126</v>
       </c>
-      <c r="H176">
+      <c r="H176" s="1">
         <v>-1.5048139173418918E-2</v>
       </c>
       <c r="I176">
@@ -7039,7 +7051,7 @@
       <c r="J176">
         <v>0.63501174919442971</v>
       </c>
-      <c r="K176">
+      <c r="K176" s="1">
         <v>3.2338219535255597</v>
       </c>
       <c r="M176">
@@ -7056,7 +7068,7 @@
       <c r="C177">
         <v>-3.0241935483870996E-2</v>
       </c>
-      <c r="D177">
+      <c r="D177" s="1">
         <v>-4.3981042097731016E-2</v>
       </c>
       <c r="E177">
@@ -7068,7 +7080,7 @@
       <c r="G177">
         <v>0.13217421953855005</v>
       </c>
-      <c r="H177">
+      <c r="H177" s="1">
         <v>-2.4813950824673886E-2</v>
       </c>
       <c r="I177">
@@ -7077,7 +7089,7 @@
       <c r="J177">
         <v>0.63501174919442971</v>
       </c>
-      <c r="K177">
+      <c r="K177" s="1">
         <v>3.2338219535255597</v>
       </c>
       <c r="M177">
@@ -7094,7 +7106,7 @@
       <c r="C178">
         <v>1.7281105990783507E-3</v>
       </c>
-      <c r="D178">
+      <c r="D178" s="1">
         <v>-3.4714299371699391E-2</v>
       </c>
       <c r="E178">
@@ -7106,7 +7118,7 @@
       <c r="G178">
         <v>0.13751466397033565</v>
       </c>
-      <c r="H178">
+      <c r="H178" s="1">
         <v>1.0063947929808447E-2</v>
       </c>
       <c r="I178">
@@ -7115,7 +7127,7 @@
       <c r="J178">
         <v>0.96201409903331569</v>
       </c>
-      <c r="K178">
+      <c r="K178" s="1">
         <v>3.0109892191294776</v>
       </c>
       <c r="M178">
@@ -7132,7 +7144,7 @@
       <c r="C179">
         <v>4.7235023041474727E-2</v>
       </c>
-      <c r="D179">
+      <c r="D179" s="1">
         <v>-3.7803213613709884E-2</v>
       </c>
       <c r="E179">
@@ -7144,7 +7156,7 @@
       <c r="G179">
         <v>7.3429330788908301E-2</v>
       </c>
-      <c r="H179">
+      <c r="H179" s="1">
         <v>-3.8872115719845611E-3</v>
       </c>
       <c r="I179">
@@ -7153,7 +7165,7 @@
       <c r="J179">
         <v>0.89661362906553854</v>
       </c>
-      <c r="K179">
+      <c r="K179" s="1">
         <v>3.2338219535255597</v>
       </c>
       <c r="M179">
@@ -7170,7 +7182,7 @@
       <c r="C180">
         <v>-2.0737327188940068E-2</v>
       </c>
-      <c r="D180">
+      <c r="D180" s="1">
         <v>-1.4636356798630753E-2</v>
       </c>
       <c r="E180">
@@ -7182,7 +7194,7 @@
       <c r="G180">
         <v>-6.6773356878759033E-3</v>
       </c>
-      <c r="H180">
+      <c r="H180" s="1">
         <v>7.2737160294497963E-3</v>
       </c>
       <c r="I180">
@@ -7191,7 +7203,7 @@
       <c r="J180">
         <v>0.70041221916220697</v>
       </c>
-      <c r="K180">
+      <c r="K180" s="1">
         <v>2.7881564847333955</v>
       </c>
       <c r="M180">
@@ -7208,7 +7220,7 @@
       <c r="C181">
         <v>0.16129032258064516</v>
       </c>
-      <c r="D181">
+      <c r="D181" s="1">
         <v>-2.0814185282651883E-2</v>
       </c>
       <c r="E181">
@@ -7220,7 +7232,7 @@
       <c r="G181">
         <v>-8.1443557732874497E-2</v>
       </c>
-      <c r="H181">
+      <c r="H181" s="1">
         <v>7.2737160294497963E-3</v>
       </c>
       <c r="I181">
@@ -7229,7 +7241,7 @@
       <c r="J181">
         <v>0.63501174919442971</v>
       </c>
-      <c r="K181">
+      <c r="K181" s="1">
         <v>2.3424910159412313</v>
       </c>
       <c r="M181">
@@ -7246,7 +7258,7 @@
       <c r="C182">
         <v>-4.6082949308755783E-2</v>
       </c>
-      <c r="D182">
+      <c r="D182" s="1">
         <v>-3.7803213613709884E-2</v>
       </c>
       <c r="E182">
@@ -7258,7 +7270,7 @@
       <c r="G182">
         <v>9.3439976074809368E-3</v>
       </c>
-      <c r="H182">
+      <c r="H182" s="1">
         <v>-1.3653023223239531E-2</v>
       </c>
       <c r="I182">
@@ -7267,7 +7279,7 @@
       <c r="J182">
         <v>0.83121315909776128</v>
       </c>
-      <c r="K182">
+      <c r="K182" s="1">
         <v>2.3424910159412313</v>
       </c>
       <c r="M182">
@@ -7284,7 +7296,7 @@
       <c r="C183">
         <v>-0.12903225806451604</v>
       </c>
-      <c r="D183">
+      <c r="D183" s="1">
         <v>-3.3169842250694144E-2</v>
       </c>
       <c r="E183">
@@ -7296,7 +7308,7 @@
       <c r="G183">
         <v>-8.1443557732874497E-2</v>
       </c>
-      <c r="H183">
+      <c r="H183" s="1">
         <v>-2.8999298675211803E-2</v>
       </c>
       <c r="I183">
@@ -7305,7 +7317,7 @@
       <c r="J183">
         <v>0.89661362906553854</v>
       </c>
-      <c r="K183">
+      <c r="K183" s="1">
         <v>3.2338219535255597</v>
       </c>
       <c r="M183">
@@ -7322,7 +7334,7 @@
       <c r="C184">
         <v>4.4354838709677435E-2</v>
       </c>
-      <c r="D184">
+      <c r="D184" s="1">
         <v>-3.0080928008683509E-2</v>
       </c>
       <c r="E184">
@@ -7334,7 +7346,7 @@
       <c r="G184">
         <v>-1.735822455144713E-2</v>
       </c>
-      <c r="H184">
+      <c r="H184" s="1">
         <v>-1.7838371073777445E-2</v>
       </c>
       <c r="I184">
@@ -7343,7 +7355,7 @@
       <c r="J184">
         <v>0.83121315909776128</v>
       </c>
-      <c r="K184">
+      <c r="K184" s="1">
         <v>3.4566546879216418</v>
       </c>
       <c r="M184">
@@ -7360,7 +7372,7 @@
       <c r="C185">
         <v>6.5668202764977049E-2</v>
       </c>
-      <c r="D185">
+      <c r="D185" s="1">
         <v>-2.5447556645667765E-2</v>
       </c>
       <c r="E185">
@@ -7372,7 +7384,7 @@
       <c r="G185">
         <v>1.4684442039266551E-2</v>
       </c>
-      <c r="H185">
+      <c r="H185" s="1">
         <v>-1.0969796716259099E-3</v>
       </c>
       <c r="I185">
@@ -7381,7 +7393,7 @@
       <c r="J185">
         <v>0.63501174919442971</v>
       </c>
-      <c r="K185">
+      <c r="K185" s="1">
         <v>3.0109892191294776</v>
       </c>
       <c r="M185">
@@ -7398,7 +7410,7 @@
       <c r="C186">
         <v>0.16359447004608293</v>
       </c>
-      <c r="D186">
+      <c r="D186" s="1">
         <v>-2.6992013766673012E-2</v>
       </c>
       <c r="E186">
@@ -7410,7 +7422,7 @@
       <c r="G186">
         <v>1.4684442039266551E-2</v>
       </c>
-      <c r="H186">
+      <c r="H186" s="1">
         <v>1.6932522287326174E-3</v>
       </c>
       <c r="I186">
@@ -7419,7 +7431,7 @@
       <c r="J186">
         <v>0.43881033929109819</v>
       </c>
-      <c r="K186">
+      <c r="K186" s="1">
         <v>2.1196582815451492</v>
       </c>
       <c r="M186">
@@ -7436,7 +7448,7 @@
       <c r="C187">
         <v>0.29032258064516137</v>
       </c>
-      <c r="D187">
+      <c r="D187" s="1">
         <v>-6.9140711936043755E-3</v>
       </c>
       <c r="E187">
@@ -7448,7 +7460,7 @@
       <c r="G187">
         <v>1.4684442039266551E-2</v>
       </c>
-      <c r="H187">
+      <c r="H187" s="1">
         <v>1.9829759581063415E-2</v>
       </c>
       <c r="I187">
@@ -7457,7 +7469,7 @@
       <c r="J187">
         <v>0.5042108092588754</v>
       </c>
-      <c r="K187">
+      <c r="K187" s="1">
         <v>1.451160078356903</v>
       </c>
       <c r="M187">
@@ -7474,7 +7486,7 @@
       <c r="C188">
         <v>0.25806451612903225</v>
       </c>
-      <c r="D188">
+      <c r="D188" s="1">
         <v>-1.6180813919636002E-2</v>
       </c>
       <c r="E188">
@@ -7486,7 +7498,7 @@
       <c r="G188">
         <v>-2.8039113415018357E-2</v>
       </c>
-      <c r="H188">
+      <c r="H188" s="1">
         <v>1.2854179830166974E-2</v>
       </c>
       <c r="I188">
@@ -7495,7 +7507,7 @@
       <c r="J188">
         <v>0.70041221916220697</v>
       </c>
-      <c r="K188">
+      <c r="K188" s="1">
         <v>2.1196582815451492</v>
       </c>
       <c r="M188">
@@ -7512,7 +7524,7 @@
       <c r="C189">
         <v>8.698156682027651E-2</v>
       </c>
-      <c r="D189">
+      <c r="D189" s="1">
         <v>-1.0002985435614871E-2</v>
       </c>
       <c r="E189">
@@ -7524,7 +7536,7 @@
       <c r="G189">
         <v>9.3439976074809368E-3</v>
       </c>
-      <c r="H189">
+      <c r="H189" s="1">
         <v>4.4834841290912683E-3</v>
       </c>
       <c r="I189">
@@ -7533,7 +7545,7 @@
       <c r="J189">
         <v>0.70041221916220697</v>
       </c>
-      <c r="K189">
+      <c r="K189" s="1">
         <v>2.3424910159412313</v>
       </c>
       <c r="M189">
@@ -7550,7 +7562,7 @@
       <c r="C190">
         <v>0.16013824884792635</v>
       </c>
-      <c r="D190">
+      <c r="D190" s="1">
         <v>-3.7803213613709884E-2</v>
       </c>
       <c r="E190">
@@ -7562,7 +7574,7 @@
       <c r="G190">
         <v>8.4110219652479529E-2</v>
       </c>
-      <c r="H190">
+      <c r="H190" s="1">
         <v>-2.4920956218051735E-3</v>
       </c>
       <c r="I190">
@@ -7571,7 +7583,7 @@
       <c r="J190">
         <v>0.70041221916220697</v>
       </c>
-      <c r="K190">
+      <c r="K190" s="1">
         <v>2.1196582815451492</v>
       </c>
       <c r="M190">
@@ -7588,7 +7600,7 @@
       <c r="C191">
         <v>-9.4182027649769545E-2</v>
       </c>
-      <c r="D191">
+      <c r="D191" s="1">
         <v>-4.3981042097731016E-2</v>
       </c>
       <c r="E191">
@@ -7600,7 +7612,7 @@
       <c r="G191">
         <v>-1.2017780119661517E-2</v>
       </c>
-      <c r="H191">
+      <c r="H191" s="1">
         <v>-2.4920956218051735E-3</v>
       </c>
       <c r="I191">
@@ -7609,7 +7621,7 @@
       <c r="J191">
         <v>0.76581268912998413</v>
       </c>
-      <c r="K191">
+      <c r="K191" s="1">
         <v>2.1196582815451492</v>
       </c>
       <c r="M191">
@@ -7626,7 +7638,7 @@
       <c r="C192">
         <v>-0.23617511520737322</v>
       </c>
-      <c r="D192">
+      <c r="D192" s="1">
         <v>-3.0080928008683509E-2</v>
       </c>
       <c r="E192">
@@ -7638,7 +7650,7 @@
       <c r="G192">
         <v>0.12683377510676444</v>
       </c>
-      <c r="H192">
+      <c r="H192" s="1">
         <v>-1.2257907273060267E-2</v>
       </c>
       <c r="I192">
@@ -7647,7 +7659,7 @@
       <c r="J192">
         <v>0.83121315909776128</v>
       </c>
-      <c r="K192">
+      <c r="K192" s="1">
         <v>3.0109892191294776</v>
       </c>
       <c r="M192">
@@ -7664,7 +7676,7 @@
       <c r="C193">
         <v>9.4470046082949316E-2</v>
       </c>
-      <c r="D193">
+      <c r="D193" s="1">
         <v>-4.3981042097731016E-2</v>
       </c>
       <c r="E193">
@@ -7676,7 +7688,7 @@
       <c r="G193">
         <v>-3.8720002278589585E-2</v>
       </c>
-      <c r="H193">
+      <c r="H193" s="1">
         <v>-1.6443255123598181E-2</v>
       </c>
       <c r="I193">
@@ -7685,7 +7697,7 @@
       <c r="J193">
         <v>0.63501174919442971</v>
       </c>
-      <c r="K193">
+      <c r="K193" s="1">
         <v>2.5653237503373134</v>
       </c>
       <c r="M193">
@@ -7702,7 +7714,7 @@
       <c r="C194">
         <v>0.12730414746543783</v>
       </c>
-      <c r="D194">
+      <c r="D194" s="1">
         <v>-3.6258756492704637E-2</v>
       </c>
       <c r="E194">
@@ -7714,7 +7726,7 @@
       <c r="G194">
         <v>4.0035531756953237E-3</v>
       </c>
-      <c r="H194">
+      <c r="H194" s="1">
         <v>-9.4676753727017393E-3</v>
       </c>
       <c r="I194">
@@ -7723,7 +7735,7 @@
       <c r="J194">
         <v>0.76581268912998413</v>
       </c>
-      <c r="K194">
+      <c r="K194" s="1">
         <v>2.3424910159412313</v>
       </c>
       <c r="M194">
@@ -7740,7 +7752,7 @@
       <c r="C195">
         <v>1.0944700460829506E-2</v>
       </c>
-      <c r="D195">
+      <c r="D195" s="1">
         <v>-3.3169842250694144E-2</v>
       </c>
       <c r="E195">
@@ -7752,7 +7764,7 @@
       <c r="G195">
         <v>2.5365330902837779E-2</v>
       </c>
-      <c r="H195">
+      <c r="H195" s="1">
         <v>-9.4676753727017393E-3</v>
       </c>
       <c r="I195">
@@ -7761,7 +7773,7 @@
       <c r="J195">
         <v>0.89661362906553854</v>
       </c>
-      <c r="K195">
+      <c r="K195" s="1">
         <v>1.8968255471490671</v>
       </c>
       <c r="M195">
@@ -7778,7 +7790,7 @@
       <c r="C196">
         <v>0.16013824884792635</v>
       </c>
-      <c r="D196">
+      <c r="D196" s="1">
         <v>-3.162538512968889E-2</v>
       </c>
       <c r="E196">
@@ -7790,7 +7802,7 @@
       <c r="G196">
         <v>-4.9400891142160813E-2</v>
       </c>
-      <c r="H196">
+      <c r="H196" s="1">
         <v>-1.0969796716259099E-3</v>
       </c>
       <c r="I196">
@@ -7799,7 +7811,7 @@
       <c r="J196">
         <v>0.89661362906553854</v>
       </c>
-      <c r="K196">
+      <c r="K196" s="1">
         <v>3.0109892191294776</v>
       </c>
       <c r="M196">
@@ -7816,7 +7828,7 @@
       <c r="C197">
         <v>8.698156682027651E-2</v>
       </c>
-      <c r="D197">
+      <c r="D197" s="1">
         <v>-1.0002985435614871E-2</v>
       </c>
       <c r="E197">
@@ -7828,7 +7840,7 @@
       <c r="G197">
         <v>-1.2017780119661517E-2</v>
       </c>
-      <c r="H197">
+      <c r="H197" s="1">
         <v>4.4834841290912683E-3</v>
       </c>
       <c r="I197">
@@ -7837,7 +7849,7 @@
       <c r="J197">
         <v>0.70041221916220697</v>
       </c>
-      <c r="K197">
+      <c r="K197" s="1">
         <v>3.0109892191294776</v>
       </c>
       <c r="M197">
@@ -7854,7 +7866,7 @@
       <c r="C198">
         <v>0.14026497695852533</v>
       </c>
-      <c r="D198">
+      <c r="D198" s="1">
         <v>-2.390309952466238E-2</v>
       </c>
       <c r="E198">
@@ -7866,7 +7878,7 @@
       <c r="G198">
         <v>-8.6784002164660104E-2</v>
       </c>
-      <c r="H198">
+      <c r="H198" s="1">
         <v>1.6932522287326174E-3</v>
       </c>
       <c r="I198">
@@ -7875,7 +7887,7 @@
       <c r="J198">
         <v>0.83121315909776128</v>
       </c>
-      <c r="K198">
+      <c r="K198" s="1">
         <v>3.0109892191294776</v>
       </c>
       <c r="M198">
@@ -7892,7 +7904,7 @@
       <c r="C199">
         <v>5.990783410138259E-2</v>
       </c>
-      <c r="D199">
+      <c r="D199" s="1">
         <v>-5.1703327702757533E-2</v>
       </c>
       <c r="E199">
@@ -7904,7 +7916,7 @@
       <c r="G199">
         <v>-1.2017780119661517E-2</v>
       </c>
-      <c r="H199">
+      <c r="H199" s="1">
         <v>-2.620906677485315E-2</v>
       </c>
       <c r="I199">
@@ -7913,7 +7925,7 @@
       <c r="J199">
         <v>0.83121315909776128</v>
       </c>
-      <c r="K199">
+      <c r="K199" s="1">
         <v>2.7881564847333955</v>
       </c>
       <c r="M199">
@@ -7930,7 +7942,7 @@
       <c r="C200">
         <v>0.17943548387096786</v>
       </c>
-      <c r="D200">
+      <c r="D200" s="1">
         <v>-5.0158870581752148E-2</v>
       </c>
       <c r="E200">
@@ -7942,7 +7954,7 @@
       <c r="G200">
         <v>-7.6103113301088876E-2</v>
       </c>
-      <c r="H200">
+      <c r="H200" s="1">
         <v>-6.6774434723430882E-3</v>
       </c>
       <c r="I200">
@@ -7951,7 +7963,7 @@
       <c r="J200">
         <v>0.76581268912998413</v>
       </c>
-      <c r="K200">
+      <c r="K200" s="1">
         <v>2.3424910159412313</v>
       </c>
       <c r="M200">
@@ -7968,7 +7980,7 @@
       <c r="C201">
         <v>0.23559907834101382</v>
       </c>
-      <c r="D201">
+      <c r="D201" s="1">
         <v>-3.4714299371699391E-2</v>
       </c>
       <c r="E201">
@@ -7980,7 +7992,7 @@
       <c r="G201">
         <v>-0.12416711318715951</v>
       </c>
-      <c r="H201">
+      <c r="H201" s="1">
         <v>-3.8872115719845611E-3</v>
       </c>
       <c r="I201">
@@ -7989,7 +8001,7 @@
       <c r="J201">
         <v>0.83121315909776128</v>
       </c>
-      <c r="K201">
+      <c r="K201" s="1">
         <v>1.6739928127529848</v>
       </c>
       <c r="M201">
@@ -8006,7 +8018,7 @@
       <c r="C202">
         <v>0.23271889400921666</v>
       </c>
-      <c r="D202">
+      <c r="D202" s="1">
         <v>-5.1703327702757533E-2</v>
       </c>
       <c r="E202">
@@ -8018,7 +8030,7 @@
       <c r="G202">
         <v>-6.6773356878759033E-3</v>
       </c>
-      <c r="H202">
+      <c r="H202" s="1">
         <v>-2.0628602974136098E-2</v>
       </c>
       <c r="I202">
@@ -8027,7 +8039,7 @@
       <c r="J202">
         <v>0.89661362906553854</v>
       </c>
-      <c r="K202">
+      <c r="K202" s="1">
         <v>2.5653237503373134</v>
       </c>
       <c r="M202">
@@ -8044,7 +8056,7 @@
       <c r="C203">
         <v>2.3041474654377542E-3</v>
       </c>
-      <c r="D203">
+      <c r="D203" s="1">
         <v>-5.1703327702757533E-2</v>
       </c>
       <c r="E203">
@@ -8056,7 +8068,7 @@
       <c r="G203">
         <v>2.5365330902837779E-2</v>
       </c>
-      <c r="H203">
+      <c r="H203" s="1">
         <v>-1.9233487023956709E-2</v>
       </c>
       <c r="I203">
@@ -8065,7 +8077,7 @@
       <c r="J203">
         <v>0.76581268912998413</v>
       </c>
-      <c r="K203">
+      <c r="K203" s="1">
         <v>2.5653237503373134</v>
       </c>
       <c r="M203">
@@ -8082,7 +8094,7 @@
       <c r="C204">
         <v>0.14573732718894014</v>
       </c>
-      <c r="D204">
+      <c r="D204" s="1">
         <v>-5.0158870581752148E-2</v>
       </c>
       <c r="E204">
@@ -8094,7 +8106,7 @@
       <c r="G204">
         <v>-3.8720002278589585E-2</v>
       </c>
-      <c r="H204">
+      <c r="H204" s="1">
         <v>-2.2023718924315362E-2</v>
       </c>
       <c r="I204">
@@ -8103,7 +8115,7 @@
       <c r="J204">
         <v>0.63501174919442971</v>
       </c>
-      <c r="K204">
+      <c r="K204" s="1">
         <v>2.5653237503373134</v>
       </c>
       <c r="M204">
@@ -8120,7 +8132,7 @@
       <c r="C205">
         <v>-9.7062211981566851E-2</v>
       </c>
-      <c r="D205">
+      <c r="D205" s="1">
         <v>-5.9425613307783905E-2</v>
       </c>
       <c r="E205">
@@ -8132,7 +8144,7 @@
       <c r="G205">
         <v>4.6727108629980231E-2</v>
       </c>
-      <c r="H205">
+      <c r="H205" s="1">
         <v>-2.4813950824673886E-2</v>
       </c>
       <c r="I205">
@@ -8141,7 +8153,7 @@
       <c r="J205">
         <v>0.63501174919442971</v>
       </c>
-      <c r="K205">
+      <c r="K205" s="1">
         <v>3.0109892191294776</v>
       </c>
       <c r="M205">
@@ -8158,7 +8170,7 @@
       <c r="C206">
         <v>9.8790322580645198E-2</v>
       </c>
-      <c r="D206">
+      <c r="D206" s="1">
         <v>-5.7881156186778658E-2</v>
       </c>
       <c r="E206">
@@ -8170,7 +8182,7 @@
       <c r="G206">
         <v>8.9450664084265136E-2</v>
       </c>
-      <c r="H206">
+      <c r="H206" s="1">
         <v>-1.0862791322881003E-2</v>
       </c>
       <c r="I206">
@@ -8179,7 +8191,7 @@
       <c r="J206">
         <v>0.30800939935554378</v>
       </c>
-      <c r="K206">
+      <c r="K206" s="1">
         <v>1.2283273439608209</v>
       </c>
       <c r="M206">
@@ -8196,7 +8208,7 @@
       <c r="C207">
         <v>-0.17569124423963123</v>
       </c>
-      <c r="D207">
+      <c r="D207" s="1">
         <v>-2.0814185282651883E-2</v>
       </c>
       <c r="E207">
@@ -8208,7 +8220,7 @@
       <c r="G207">
         <v>9.4791108516050757E-2</v>
       </c>
-      <c r="H207">
+      <c r="H207" s="1">
         <v>1.2854179830166974E-2</v>
       </c>
       <c r="I207">
@@ -8217,7 +8229,7 @@
       <c r="J207">
         <v>0.76581268912998413</v>
       </c>
-      <c r="K207">
+      <c r="K207" s="1">
         <v>1.451160078356903</v>
       </c>
       <c r="M207">
@@ -8234,7 +8246,7 @@
       <c r="C208">
         <v>0.10887096774193553</v>
       </c>
-      <c r="D208">
+      <c r="D208" s="1">
         <v>-1.7725271040641248E-2</v>
       </c>
       <c r="E208">
@@ -8246,7 +8258,7 @@
       <c r="G208">
         <v>0.10013155294783636</v>
       </c>
-      <c r="H208">
+      <c r="H208" s="1">
         <v>2.1224875531242804E-2</v>
       </c>
       <c r="I208">
@@ -8255,7 +8267,7 @@
       <c r="J208">
         <v>0.83121315909776128</v>
       </c>
-      <c r="K208">
+      <c r="K208" s="1">
         <v>2.3424910159412313</v>
       </c>
       <c r="M208">
@@ -8272,7 +8284,7 @@
       <c r="C209">
         <v>1.8433179723502315E-2</v>
       </c>
-      <c r="D209">
+      <c r="D209" s="1">
         <v>-3.8251569515937427E-3</v>
       </c>
       <c r="E209">
@@ -8284,7 +8296,7 @@
       <c r="G209">
         <v>0.10547199737962198</v>
       </c>
-      <c r="H209">
+      <c r="H209" s="1">
         <v>1.9829759581063415E-2</v>
       </c>
       <c r="I209">
@@ -8293,7 +8305,7 @@
       <c r="J209">
         <v>0.76581268912998413</v>
       </c>
-      <c r="K209">
+      <c r="K209" s="1">
         <v>2.5653237503373134</v>
       </c>
       <c r="M209">
@@ -8310,7 +8322,7 @@
       <c r="C210">
         <v>0.24423963133640558</v>
       </c>
-      <c r="D210">
+      <c r="D210" s="1">
         <v>-3.9347670734715269E-2</v>
       </c>
       <c r="E210">
@@ -8322,7 +8334,7 @@
       <c r="G210">
         <v>3.6046219766409003E-2</v>
       </c>
-      <c r="H210">
+      <c r="H210" s="1">
         <v>5.8786000792705323E-3</v>
       </c>
       <c r="I210">
@@ -8331,7 +8343,7 @@
       <c r="J210">
         <v>0.83121315909776128</v>
       </c>
-      <c r="K210">
+      <c r="K210" s="1">
         <v>2.1196582815451492</v>
       </c>
       <c r="M210">
@@ -8348,7 +8360,7 @@
       <c r="C211">
         <v>0.16129032258064516</v>
       </c>
-      <c r="D211">
+      <c r="D211" s="1">
         <v>-6.869235603381553E-2</v>
       </c>
       <c r="E211">
@@ -8360,7 +8372,7 @@
       <c r="G211">
         <v>-3.8720002278589585E-2</v>
       </c>
-      <c r="H211">
+      <c r="H211" s="1">
         <v>-8.0725594225223522E-3</v>
       </c>
       <c r="I211">
@@ -8369,7 +8381,7 @@
       <c r="J211">
         <v>0.83121315909776128</v>
       </c>
-      <c r="K211">
+      <c r="K211" s="1">
         <v>2.7881564847333955</v>
       </c>
       <c r="M211">
@@ -8386,7 +8398,7 @@
       <c r="C212">
         <v>0.18951612903225803</v>
       </c>
-      <c r="D212">
+      <c r="D212" s="1">
         <v>2.3526715324273867E-3</v>
       </c>
       <c r="E212">
@@ -8398,7 +8410,7 @@
       <c r="G212">
         <v>-5.4741335573946427E-2</v>
       </c>
-      <c r="H212">
+      <c r="H212" s="1">
         <v>-2.4813950824673886E-2</v>
       </c>
       <c r="I212">
@@ -8407,7 +8419,7 @@
       <c r="J212">
         <v>0.63501174919442971</v>
       </c>
-      <c r="K212">
+      <c r="K212" s="1">
         <v>1.8968255471490671</v>
       </c>
       <c r="M212">
@@ -8424,7 +8436,7 @@
       <c r="C213">
         <v>0.17165898617511527</v>
       </c>
-      <c r="D213">
+      <c r="D213" s="1">
         <v>-5.6336699065773273E-2</v>
       </c>
       <c r="E213">
@@ -8436,7 +8448,7 @@
       <c r="G213">
         <v>-2.8039113415018357E-2</v>
       </c>
-      <c r="H213">
+      <c r="H213" s="1">
         <v>-8.0725594225223522E-3</v>
       </c>
       <c r="I213">
@@ -8445,7 +8457,7 @@
       <c r="J213">
         <v>0.37340986932332099</v>
       </c>
-      <c r="K213">
+      <c r="K213" s="1">
         <v>0.7826618751686566</v>
       </c>
       <c r="M213">
@@ -8462,7 +8474,7 @@
       <c r="C214">
         <v>7.8341013824884759E-2</v>
       </c>
-      <c r="D214">
+      <c r="D214" s="1">
         <v>-5.324778482376278E-2</v>
       </c>
       <c r="E214">
@@ -8474,7 +8486,7 @@
       <c r="G214">
         <v>4.1386664198194617E-2</v>
       </c>
-      <c r="H214">
+      <c r="H214" s="1">
         <v>-2.3418834874494626E-2</v>
       </c>
       <c r="I214">
@@ -8483,7 +8495,7 @@
       <c r="J214">
         <v>0.5042108092588754</v>
       </c>
-      <c r="K214">
+      <c r="K214" s="1">
         <v>0.33699640637649247</v>
       </c>
       <c r="M214">
@@ -8500,7 +8512,7 @@
       <c r="C215">
         <v>1.6129032258064557E-2</v>
       </c>
-      <c r="D215">
+      <c r="D215" s="1">
         <v>-5.4792241944768026E-2</v>
       </c>
       <c r="E215">
@@ -8512,7 +8524,7 @@
       <c r="G215">
         <v>-1.735822455144713E-2</v>
       </c>
-      <c r="H215">
+      <c r="H215" s="1">
         <v>-8.0725594225223522E-3</v>
       </c>
       <c r="I215">
@@ -8521,7 +8533,7 @@
       <c r="J215">
         <v>0.11180798945221224</v>
       </c>
-      <c r="K215">
+      <c r="K215" s="1">
         <v>0.55982914077257451</v>
       </c>
       <c r="M215">
@@ -8538,7 +8550,7 @@
       <c r="C216">
         <v>-4.0898617511520734E-2</v>
       </c>
-      <c r="D216">
+      <c r="D216" s="1">
         <v>-5.7881156186778658E-2</v>
       </c>
       <c r="E216">
@@ -8550,7 +8562,7 @@
       <c r="G216">
         <v>1.4684442039266551E-2</v>
       </c>
-      <c r="H216">
+      <c r="H216" s="1">
         <v>-3.1789530575570331E-2</v>
       </c>
       <c r="I216">
@@ -8559,7 +8571,7 @@
       <c r="J216">
         <v>0.24260892938776663</v>
       </c>
-      <c r="K216">
+      <c r="K216" s="1">
         <v>0.7826618751686566</v>
       </c>
       <c r="M216">
@@ -8576,7 +8588,7 @@
       <c r="C217">
         <v>-8.3525345622119815E-2</v>
       </c>
-      <c r="D217">
+      <c r="D217" s="1">
         <v>-6.2514527549794405E-2</v>
       </c>
       <c r="E217">
@@ -8588,7 +8600,7 @@
       <c r="G217">
         <v>2.0024886471052165E-2</v>
       </c>
-      <c r="H217">
+      <c r="H217" s="1">
         <v>-3.4579762475928984E-2</v>
       </c>
       <c r="I217">
@@ -8597,7 +8609,7 @@
       <c r="J217">
         <v>0.43881033929109819</v>
       </c>
-      <c r="K217">
+      <c r="K217" s="1">
         <v>0.7826618751686566</v>
       </c>
       <c r="M217">
@@ -8614,7 +8626,7 @@
       <c r="C218">
         <v>-6.6820276497695855E-2</v>
       </c>
-      <c r="D218">
+      <c r="D218" s="1">
         <v>-2.390309952466238E-2</v>
       </c>
       <c r="E218">
@@ -8626,7 +8638,7 @@
       <c r="G218">
         <v>-4.9400891142160813E-2</v>
       </c>
-      <c r="H218">
+      <c r="H218" s="1">
         <v>-2.3418834874494626E-2</v>
       </c>
       <c r="I218">
@@ -8635,7 +8647,7 @@
       <c r="J218">
         <v>0.70041221916220697</v>
       </c>
-      <c r="K218">
+      <c r="K218" s="1">
         <v>1.2283273439608209</v>
       </c>
       <c r="M218">
@@ -8652,7 +8664,7 @@
       <c r="C219">
         <v>-6.6820276497695855E-2</v>
       </c>
-      <c r="D219">
+      <c r="D219" s="1">
         <v>-1.9269728161646633E-2</v>
       </c>
       <c r="E219">
@@ -8664,7 +8676,7 @@
       <c r="G219">
         <v>-0.13484800205073064</v>
       </c>
-      <c r="H219">
+      <c r="H219" s="1">
         <v>-5.2823275221638251E-3</v>
       </c>
       <c r="I219">
@@ -8673,7 +8685,7 @@
       <c r="J219">
         <v>0.76581268912998413</v>
       </c>
-      <c r="K219">
+      <c r="K219" s="1">
         <v>1.8968255471490671</v>
       </c>
       <c r="M219">
@@ -8690,7 +8702,7 @@
       <c r="C220">
         <v>-6.9700460829493008E-2</v>
       </c>
-      <c r="D220">
+      <c r="D220" s="1">
         <v>-4.7069956339741648E-2</v>
       </c>
       <c r="E220">
@@ -8702,7 +8714,7 @@
       <c r="G220">
         <v>6.2748441925337073E-2</v>
       </c>
-      <c r="H220">
+      <c r="H220" s="1">
         <v>8.6688319796291834E-3</v>
       </c>
       <c r="I220">
@@ -8711,7 +8723,7 @@
       <c r="J220">
         <v>0.70041221916220697</v>
       </c>
-      <c r="K220">
+      <c r="K220" s="1">
         <v>1.451160078356903</v>
       </c>
       <c r="M220">
@@ -8728,7 +8740,7 @@
       <c r="C221">
         <v>5.5011520737327166E-2</v>
       </c>
-      <c r="D221">
+      <c r="D221" s="1">
         <v>-4.0892127855720516E-2</v>
       </c>
       <c r="E221">
@@ -8740,7 +8752,7 @@
       <c r="G221">
         <v>5.7407997493551459E-2</v>
       </c>
-      <c r="H221">
+      <c r="H221" s="1">
         <v>-2.4920956218051735E-3</v>
       </c>
       <c r="I221">
@@ -8749,7 +8761,7 @@
       <c r="J221">
         <v>0.76581268912998413</v>
       </c>
-      <c r="K221">
+      <c r="K221" s="1">
         <v>1.6739928127529848</v>
       </c>
       <c r="M221">
@@ -8766,7 +8778,7 @@
       <c r="C222">
         <v>4.7235023041474727E-2</v>
       </c>
-      <c r="D222">
+      <c r="D222" s="1">
         <v>-2.6992013766673012E-2</v>
       </c>
       <c r="E222">
@@ -8778,7 +8790,7 @@
       <c r="G222">
         <v>-6.5422224437517648E-2</v>
       </c>
-      <c r="H222">
+      <c r="H222" s="1">
         <v>7.2737160294497963E-3</v>
       </c>
       <c r="I222">
@@ -8787,7 +8799,7 @@
       <c r="J222">
         <v>0.83121315909776128</v>
       </c>
-      <c r="K222">
+      <c r="K222" s="1">
         <v>1.8968255471490671</v>
       </c>
       <c r="M222">
@@ -8804,7 +8816,7 @@
       <c r="C223">
         <v>0.12903225806451618</v>
       </c>
-      <c r="D223">
+      <c r="D223" s="1">
         <v>5.4415857744378833E-3</v>
       </c>
       <c r="E223">
@@ -8816,7 +8828,7 @@
       <c r="G223">
         <v>-7.6103113301088876E-2</v>
       </c>
-      <c r="H223">
+      <c r="H223" s="1">
         <v>1.6932522287326174E-3</v>
       </c>
       <c r="I223">
@@ -8825,7 +8837,7 @@
       <c r="J223">
         <v>0.5042108092588754</v>
       </c>
-      <c r="K223">
+      <c r="K223" s="1">
         <v>1.8968255471490671</v>
       </c>
       <c r="M223">
@@ -8842,7 +8854,7 @@
       <c r="C224">
         <v>-4.6082949308755084E-3</v>
       </c>
-      <c r="D224">
+      <c r="D224" s="1">
         <v>2.3526715324273867E-3</v>
       </c>
       <c r="E224">
@@ -8854,7 +8866,7 @@
       <c r="G224">
         <v>-0.14552889091430185</v>
       </c>
-      <c r="H224">
+      <c r="H224" s="1">
         <v>-1.9233487023956709E-2</v>
       </c>
       <c r="I224">
@@ -8863,7 +8875,7 @@
       <c r="J224">
         <v>0.70041221916220697</v>
       </c>
-      <c r="K224">
+      <c r="K224" s="1">
         <v>2.1196582815451492</v>
       </c>
       <c r="M224">
@@ -8880,7 +8892,7 @@
       <c r="C225">
         <v>-0.15380184331797236</v>
       </c>
-      <c r="D225">
+      <c r="D225" s="1">
         <v>-8.4585283146096247E-3</v>
       </c>
       <c r="E225">
@@ -8892,7 +8904,7 @@
       <c r="G225">
         <v>-0.29506133500429904</v>
       </c>
-      <c r="H225">
+      <c r="H225" s="1">
         <v>3.0883681789120048E-3</v>
       </c>
       <c r="I225">
@@ -8901,7 +8913,7 @@
       <c r="J225">
         <v>0.70041221916220697</v>
       </c>
-      <c r="K225">
+      <c r="K225" s="1">
         <v>1.6739928127529848</v>
       </c>
       <c r="M225">
@@ -8918,7 +8930,7 @@
       <c r="C226">
         <v>-0.13306451612903231</v>
       </c>
-      <c r="D226">
+      <c r="D226" s="1">
         <v>-4.0892127855720516E-2</v>
       </c>
       <c r="E226">
@@ -8930,7 +8942,7 @@
       <c r="G226">
         <v>-2.2698668983232743E-2</v>
       </c>
-      <c r="H226">
+      <c r="H226" s="1">
         <v>-3.318464652574972E-2</v>
       </c>
       <c r="I226">
@@ -8939,7 +8951,7 @@
       <c r="J226">
         <v>-0.14979389041889654</v>
       </c>
-      <c r="K226">
+      <c r="K226" s="1">
         <v>-0.55433453120783582</v>
       </c>
       <c r="M226">
@@ -8956,7 +8968,7 @@
       <c r="C227">
         <v>-2.5345622119815576E-2</v>
       </c>
-      <c r="D227">
+      <c r="D227" s="1">
         <v>-4.7069956339741648E-2</v>
       </c>
       <c r="E227">
@@ -8968,7 +8980,7 @@
       <c r="G227">
         <v>-2.2698668983232743E-2</v>
       </c>
-      <c r="H227">
+      <c r="H227" s="1">
         <v>-3.318464652574972E-2</v>
       </c>
       <c r="I227">
@@ -8977,7 +8989,7 @@
       <c r="J227">
         <v>-0.21519436038667372</v>
       </c>
-      <c r="K227">
+      <c r="K227" s="1">
         <v>-0.33150179681175379</v>
       </c>
       <c r="M227">
@@ -8994,7 +9006,7 @@
       <c r="C228">
         <v>-0.65869815668202769</v>
       </c>
-      <c r="D228">
+      <c r="D228" s="1">
         <v>-3.9347670734715269E-2</v>
       </c>
       <c r="E228">
@@ -9006,7 +9018,7 @@
       <c r="G228">
         <v>0.10547199737962198</v>
       </c>
-      <c r="H228">
+      <c r="H228" s="1">
         <v>-1.2257907273060267E-2</v>
       </c>
       <c r="I228">
@@ -9015,7 +9027,7 @@
       <c r="J228">
         <v>-0.21519436038667372</v>
       </c>
-      <c r="K228">
+      <c r="K228" s="1">
         <v>-0.33150179681175379</v>
       </c>
       <c r="M228">
@@ -9032,7 +9044,7 @@
       <c r="C229">
         <v>-0.35887096774193544</v>
       </c>
-      <c r="D229">
+      <c r="D229" s="1">
         <v>-3.9347670734715269E-2</v>
       </c>
       <c r="E229">
@@ -9044,7 +9056,7 @@
       <c r="G229">
         <v>-6.0081780005732034E-2</v>
       </c>
-      <c r="H229">
+      <c r="H229" s="1">
         <v>-2.8999298675211803E-2</v>
       </c>
       <c r="I229">
@@ -9053,7 +9065,7 @@
       <c r="J229">
         <v>-0.21519436038667372</v>
       </c>
-      <c r="K229">
+      <c r="K229" s="1">
         <v>0.55982914077257451</v>
       </c>
       <c r="M229">
@@ -9070,7 +9082,7 @@
       <c r="C230">
         <v>-0.12096774193548385</v>
       </c>
-      <c r="D230">
+      <c r="D230" s="1">
         <v>-2.390309952466238E-2</v>
       </c>
       <c r="E230">
@@ -9082,7 +9094,7 @@
       <c r="G230">
         <v>-6.0081780005732034E-2</v>
       </c>
-      <c r="H230">
+      <c r="H230" s="1">
         <v>-3.4579762475928984E-2</v>
       </c>
       <c r="I230">
@@ -9091,7 +9103,7 @@
       <c r="J230">
         <v>-0.28059483035445093</v>
       </c>
-      <c r="K230">
+      <c r="K230" s="1">
         <v>0.55982914077257451</v>
       </c>
       <c r="M230">
@@ -9108,7 +9120,7 @@
       <c r="C231">
         <v>-0.28859447004608285</v>
       </c>
-      <c r="D231">
+      <c r="D231" s="1">
         <v>-1.9269728161646633E-2</v>
       </c>
       <c r="E231">
@@ -9120,7 +9132,7 @@
       <c r="G231">
         <v>-0.36448711261751199</v>
       </c>
-      <c r="H231">
+      <c r="H231" s="1">
         <v>-2.7604182725032539E-2</v>
       </c>
       <c r="I231">
@@ -9129,7 +9141,7 @@
       <c r="J231">
         <v>-8.4393420451119333E-2</v>
       </c>
-      <c r="K231">
+      <c r="K231" s="1">
         <v>0.55982914077257451</v>
       </c>
       <c r="M231">
@@ -9146,7 +9158,7 @@
       <c r="C232">
         <v>-0.26612903225806445</v>
       </c>
-      <c r="D232">
+      <c r="D232" s="1">
         <v>-3.6258756492704637E-2</v>
       </c>
       <c r="E232">
@@ -9158,7 +9170,7 @@
       <c r="G232">
         <v>-4.9400891142160813E-2</v>
       </c>
-      <c r="H232">
+      <c r="H232" s="1">
         <v>-1.9233487023956709E-2</v>
       </c>
       <c r="I232">
@@ -9167,7 +9179,7 @@
       <c r="J232">
         <v>-1.8992950483342149E-2</v>
       </c>
-      <c r="K232">
+      <c r="K232" s="1">
         <v>0.7826618751686566</v>
       </c>
       <c r="M232">
@@ -9184,7 +9196,7 @@
       <c r="C233">
         <v>-0.12903225806451604</v>
       </c>
-      <c r="D233">
+      <c r="D233" s="1">
         <v>-3.9347670734715269E-2</v>
       </c>
       <c r="E233">
@@ -9196,7 +9208,7 @@
       <c r="G233">
         <v>0.12683377510676444</v>
       </c>
-      <c r="H233">
+      <c r="H233" s="1">
         <v>-2.0628602974136098E-2</v>
       </c>
       <c r="I233">
@@ -9205,7 +9217,7 @@
       <c r="J233">
         <v>-0.21519436038667372</v>
       </c>
-      <c r="K233">
+      <c r="K233" s="1">
         <v>1.0054946095647388</v>
       </c>
       <c r="M233">
@@ -9222,7 +9234,7 @@
       <c r="C234">
         <v>-4.9539170506912346E-2</v>
       </c>
-      <c r="D234">
+      <c r="D234" s="1">
         <v>-5.0158870581752148E-2</v>
       </c>
       <c r="E234">
@@ -9234,7 +9246,7 @@
       <c r="G234">
         <v>0.25500444146961915</v>
       </c>
-      <c r="H234">
+      <c r="H234" s="1">
         <v>-1.0862791322881003E-2</v>
       </c>
       <c r="I234">
@@ -9243,7 +9255,7 @@
       <c r="J234">
         <v>-0.21519436038667372</v>
       </c>
-      <c r="K234">
+      <c r="K234" s="1">
         <v>-0.10866906241567169</v>
       </c>
       <c r="M234">
@@ -9260,7 +9272,7 @@
       <c r="C235">
         <v>-0.18634792626728111</v>
       </c>
-      <c r="D235">
+      <c r="D235" s="1">
         <v>-2.235864240365713E-2</v>
       </c>
       <c r="E235">
@@ -9272,7 +9284,7 @@
       <c r="G235">
         <v>8.9450664084265136E-2</v>
       </c>
-      <c r="H235">
+      <c r="H235" s="1">
         <v>-5.2823275221638251E-3</v>
       </c>
       <c r="I235">
@@ -9281,7 +9293,7 @@
       <c r="J235">
         <v>-0.34599530032222808</v>
       </c>
-      <c r="K235">
+      <c r="K235" s="1">
         <v>-0.55433453120783582</v>
       </c>
       <c r="M235">
@@ -9298,7 +9310,7 @@
       <c r="C236">
         <v>-0.35483870967741932</v>
       </c>
-      <c r="D236">
+      <c r="D236" s="1">
         <v>-2.390309952466238E-2</v>
       </c>
       <c r="E236">
@@ -9310,7 +9322,7 @@
       <c r="G236">
         <v>0.10013155294783636</v>
       </c>
-      <c r="H236">
+      <c r="H236" s="1">
         <v>-2.4920956218051735E-3</v>
       </c>
       <c r="I236">
@@ -9319,7 +9331,7 @@
       <c r="J236">
         <v>-0.21519436038667372</v>
       </c>
-      <c r="K236">
+      <c r="K236" s="1">
         <v>-0.10866906241567169</v>
       </c>
       <c r="M236">
@@ -9336,7 +9348,7 @@
       <c r="C237">
         <v>-0.30875576036866353</v>
       </c>
-      <c r="D237">
+      <c r="D237" s="1">
         <v>-3.7803213613709884E-2</v>
       </c>
       <c r="E237">
@@ -9348,7 +9360,7 @@
       <c r="G237">
         <v>7.3429330788908301E-2</v>
       </c>
-      <c r="H237">
+      <c r="H237" s="1">
         <v>-2.4920956218051735E-3</v>
       </c>
       <c r="I237">
@@ -9357,7 +9369,7 @@
       <c r="J237">
         <v>-0.28059483035445093</v>
       </c>
-      <c r="K237">
+      <c r="K237" s="1">
         <v>0.33699640637649247</v>
       </c>
       <c r="M237">
@@ -9374,7 +9386,7 @@
       <c r="C238">
         <v>-0.27361751152073738</v>
       </c>
-      <c r="D238">
+      <c r="D238" s="1">
         <v>-3.0080928008683509E-2</v>
       </c>
       <c r="E238">
@@ -9386,7 +9398,7 @@
       <c r="G238">
         <v>2.0024886471052165E-2</v>
       </c>
-      <c r="H238">
+      <c r="H238" s="1">
         <v>-3.8872115719845611E-3</v>
       </c>
       <c r="I238">
@@ -9395,7 +9407,7 @@
       <c r="J238">
         <v>-0.34599530032222808</v>
       </c>
-      <c r="K238">
+      <c r="K238" s="1">
         <v>0.33699640637649247</v>
       </c>
       <c r="M238">
@@ -9412,7 +9424,7 @@
       <c r="C239">
         <v>-0.34101382488479265</v>
       </c>
-      <c r="D239">
+      <c r="D239" s="1">
         <v>-3.0080928008683509E-2</v>
       </c>
       <c r="E239">
@@ -9424,7 +9436,7 @@
       <c r="G239">
         <v>4.1386664198194617E-2</v>
       </c>
-      <c r="H239">
+      <c r="H239" s="1">
         <v>-3.8872115719845611E-3</v>
       </c>
       <c r="I239">
@@ -9433,7 +9445,7 @@
       <c r="J239">
         <v>-0.4767962402577825</v>
       </c>
-      <c r="K239">
+      <c r="K239" s="1">
         <v>-0.33150179681175379</v>
       </c>
       <c r="M239">
@@ -9450,7 +9462,7 @@
       <c r="C240">
         <v>-0.29435483870967732</v>
       </c>
-      <c r="D240">
+      <c r="D240" s="1">
         <v>-3.9347670734715269E-2</v>
       </c>
       <c r="E240">
@@ -9462,7 +9474,7 @@
       <c r="G240">
         <v>7.8769775220693908E-2</v>
       </c>
-      <c r="H240">
+      <c r="H240" s="1">
         <v>-9.4676753727017393E-3</v>
       </c>
       <c r="I240">
@@ -9471,7 +9483,7 @@
       <c r="J240">
         <v>-0.67299765016111401</v>
       </c>
-      <c r="K240">
+      <c r="K240" s="1">
         <v>-1.4456654687921642</v>
       </c>
       <c r="M240">
@@ -9488,7 +9500,7 @@
       <c r="C241">
         <v>-0.206221198156682</v>
       </c>
-      <c r="D241">
+      <c r="D241" s="1">
         <v>-3.9347670734715269E-2</v>
       </c>
       <c r="E241">
@@ -9500,7 +9512,7 @@
       <c r="G241">
         <v>7.3429330788908301E-2</v>
       </c>
-      <c r="H241">
+      <c r="H241" s="1">
         <v>-1.3653023223239531E-2</v>
       </c>
       <c r="I241">
@@ -9509,7 +9521,7 @@
       <c r="J241">
         <v>-0.86919906006444558</v>
       </c>
-      <c r="K241">
+      <c r="K241" s="1">
         <v>-2.11416367198041</v>
       </c>
       <c r="M241">
@@ -9526,7 +9538,7 @@
       <c r="C242">
         <v>-0.32027649769585242</v>
       </c>
-      <c r="D242">
+      <c r="D242" s="1">
         <v>-2.8536470887678259E-2</v>
       </c>
       <c r="E242">
@@ -9538,7 +9550,7 @@
       <c r="G242">
         <v>0.11081244181140759</v>
       </c>
-      <c r="H242">
+      <c r="H242" s="1">
         <v>-1.5048139173418918E-2</v>
       </c>
       <c r="I242">
@@ -9547,7 +9559,7 @@
       <c r="J242">
         <v>-1</v>
       </c>
-      <c r="K242">
+      <c r="K242" s="1">
         <v>-3.0054946095647384</v>
       </c>
       <c r="M242">
@@ -9564,7 +9576,7 @@
       <c r="C243">
         <v>-0.37211981566820274</v>
       </c>
-      <c r="D243">
+      <c r="D243" s="1">
         <v>-3.4714299371699391E-2</v>
       </c>
       <c r="E243">
@@ -9576,7 +9588,7 @@
       <c r="G243">
         <v>0.25500444146961915</v>
       </c>
-      <c r="H243">
+      <c r="H243" s="1">
         <v>-1.2257907273060267E-2</v>
       </c>
       <c r="I243">
@@ -9585,7 +9597,7 @@
       <c r="J243">
         <v>-1.1308009399355545</v>
       </c>
-      <c r="K243">
+      <c r="K243" s="1">
         <v>-3.6739928127529846</v>
       </c>
       <c r="M243">
@@ -9602,7 +9614,7 @@
       <c r="C244">
         <v>-0.46428571428571425</v>
       </c>
-      <c r="D244">
+      <c r="D244" s="1">
         <v>-2.5447556645667765E-2</v>
       </c>
       <c r="E244">
@@ -9614,7 +9626,7 @@
       <c r="G244">
         <v>0.27636621919676163</v>
       </c>
-      <c r="H244">
+      <c r="H244" s="1">
         <v>-1.5048139173418918E-2</v>
       </c>
       <c r="I244">
@@ -9623,7 +9635,7 @@
       <c r="J244">
         <v>-0.60759718019333686</v>
       </c>
-      <c r="K244">
+      <c r="K244" s="1">
         <v>-2.11416367198041</v>
       </c>
       <c r="M244">
@@ -9640,7 +9652,7 @@
       <c r="C245">
         <v>-0.3894009216589861</v>
       </c>
-      <c r="D245">
+      <c r="D245" s="1">
         <v>-2.5447556645667765E-2</v>
       </c>
       <c r="E245">
@@ -9652,7 +9664,7 @@
       <c r="G245">
         <v>0.3938559966960451</v>
       </c>
-      <c r="H245">
+      <c r="H245" s="1">
         <v>-3.4579762475928984E-2</v>
       </c>
       <c r="I245">
@@ -9661,7 +9673,7 @@
       <c r="J245">
         <v>-0.60759718019333686</v>
       </c>
-      <c r="K245">
+      <c r="K245" s="1">
         <v>-1.8913309375843281</v>
       </c>
       <c r="M245">
@@ -9678,7 +9690,7 @@
       <c r="C246">
         <v>-0.4009216589861751</v>
       </c>
-      <c r="D246">
+      <c r="D246" s="1">
         <v>-1.3091899677625505E-2</v>
       </c>
       <c r="E246">
@@ -9690,7 +9702,7 @@
       <c r="G246">
         <v>0.32443021908283215</v>
       </c>
-      <c r="H246">
+      <c r="H246" s="1">
         <v>-1.0969796716259099E-3</v>
       </c>
       <c r="I246">
@@ -9699,7 +9711,7 @@
       <c r="J246">
         <v>-0.54219671022555971</v>
       </c>
-      <c r="K246">
+      <c r="K246" s="1">
         <v>-0.33150179681175379</v>
       </c>
       <c r="M246">
@@ -9716,7 +9728,7 @@
       <c r="C247">
         <v>-0.44124423963133635</v>
       </c>
-      <c r="D247">
+      <c r="D247" s="1">
         <v>-1.7725271040641248E-2</v>
       </c>
       <c r="E247">
@@ -9728,7 +9740,7 @@
       <c r="G247">
         <v>0.20159999715176302</v>
       </c>
-      <c r="H247">
+      <c r="H247" s="1">
         <v>-5.2823275221638251E-3</v>
       </c>
       <c r="I247">
@@ -9737,7 +9749,7 @@
       <c r="J247">
         <v>-0.34599530032222808</v>
       </c>
-      <c r="K247">
+      <c r="K247" s="1">
         <v>-0.77716726560391791</v>
       </c>
       <c r="M247">
@@ -9754,7 +9766,7 @@
       <c r="C248">
         <v>-0.3706797235023041</v>
       </c>
-      <c r="D248">
+      <c r="D248" s="1">
         <v>-2.235864240365713E-2</v>
       </c>
       <c r="E248">
@@ -9766,7 +9778,7 @@
       <c r="G248">
         <v>0.33511110794640336</v>
       </c>
-      <c r="H248">
+      <c r="H248" s="1">
         <v>2.9813627855335373E-4</v>
       </c>
       <c r="I248">
@@ -9775,7 +9787,7 @@
       <c r="J248">
         <v>-0.73839812012889128</v>
       </c>
-      <c r="K248">
+      <c r="K248" s="1">
         <v>-1.8913309375843281</v>
       </c>
       <c r="M248">
@@ -9792,7 +9804,7 @@
       <c r="C249">
         <v>-0.41244239631336399</v>
       </c>
-      <c r="D249">
+      <c r="D249" s="1">
         <v>-3.7803213613709884E-2</v>
       </c>
       <c r="E249">
@@ -9804,7 +9816,7 @@
       <c r="G249">
         <v>0.30840888578747527</v>
       </c>
-      <c r="H249">
+      <c r="H249" s="1">
         <v>-2.0628602974136098E-2</v>
       </c>
       <c r="I249">
@@ -9813,7 +9825,7 @@
       <c r="J249">
         <v>-0.60759718019333686</v>
       </c>
-      <c r="K249">
+      <c r="K249" s="1">
         <v>-1.4456654687921642</v>
       </c>
       <c r="M249">
@@ -9830,7 +9842,7 @@
       <c r="C250">
         <v>-0.6301843317972351</v>
       </c>
-      <c r="D250">
+      <c r="D250" s="1">
         <v>-2.8536470887678259E-2</v>
       </c>
       <c r="E250">
@@ -9842,7 +9854,7 @@
       <c r="G250">
         <v>0.44726044101390122</v>
       </c>
-      <c r="H250">
+      <c r="H250" s="1">
         <v>-1.9233487023956709E-2</v>
       </c>
       <c r="I250">
@@ -9851,7 +9863,7 @@
       <c r="J250">
         <v>-0.60759718019333686</v>
       </c>
-      <c r="K250">
+      <c r="K250" s="1">
         <v>-1.8913309375843281</v>
       </c>
       <c r="M250">
@@ -9868,7 +9880,7 @@
       <c r="C251">
         <v>-0.23387096774193547</v>
       </c>
-      <c r="D251">
+      <c r="D251" s="1">
         <v>-3.0080928008683509E-2</v>
       </c>
       <c r="E251">
@@ -9880,7 +9892,7 @@
       <c r="G251">
         <v>0.57009066294497035</v>
       </c>
-      <c r="H251">
+      <c r="H251" s="1">
         <v>7.1449049737697293E-2</v>
       </c>
       <c r="I251">
@@ -9889,7 +9901,7 @@
       <c r="J251">
         <v>-0.4767962402577825</v>
       </c>
-      <c r="K251">
+      <c r="K251" s="1">
         <v>-1</v>
       </c>
       <c r="M251">
@@ -9906,7 +9918,7 @@
       <c r="C252">
         <v>-0.35973502304147459</v>
       </c>
-      <c r="D252">
+      <c r="D252" s="1">
         <v>-4.0892127855720516E-2</v>
       </c>
       <c r="E252">
@@ -9918,7 +9930,7 @@
       <c r="G252">
         <v>0.29772799692390406</v>
       </c>
-      <c r="H252">
+      <c r="H252" s="1">
         <v>-1.5048139173418918E-2</v>
       </c>
       <c r="I252">
@@ -9927,7 +9939,7 @@
       <c r="J252">
         <v>-0.4767962402577825</v>
       </c>
-      <c r="K252">
+      <c r="K252" s="1">
         <v>-1</v>
       </c>
       <c r="M252">
@@ -9944,7 +9956,7 @@
       <c r="C253">
         <v>-0.37615207373271886</v>
       </c>
-      <c r="D253">
+      <c r="D253" s="1">
         <v>-4.7069956339741648E-2</v>
       </c>
       <c r="E253">
@@ -9956,7 +9968,7 @@
       <c r="G253">
         <v>0.3938559966960451</v>
       </c>
-      <c r="H253">
+      <c r="H253" s="1">
         <v>-2.4920956218051735E-3</v>
       </c>
       <c r="I253">
@@ -9965,7 +9977,7 @@
       <c r="J253">
         <v>-0.34599530032222808</v>
       </c>
-      <c r="K253">
+      <c r="K253" s="1">
         <v>-0.55433453120783582</v>
       </c>
       <c r="M253">
@@ -9982,7 +9994,7 @@
       <c r="C254">
         <v>-0.52304147465437789</v>
       </c>
-      <c r="D254">
+      <c r="D254" s="1">
         <v>-4.7069956339741648E-2</v>
       </c>
       <c r="E254">
@@ -9994,7 +10006,7 @@
       <c r="G254">
         <v>0.43657955215033001</v>
       </c>
-      <c r="H254">
+      <c r="H254" s="1">
         <v>-6.6774434723430882E-3</v>
       </c>
       <c r="I254">
@@ -10003,7 +10015,7 @@
       <c r="J254">
         <v>-0.28059483035445093</v>
       </c>
-      <c r="K254">
+      <c r="K254" s="1">
         <v>0.11416367198041039</v>
       </c>
       <c r="M254">
@@ -10020,7 +10032,7 @@
       <c r="C255">
         <v>-0.48732718894009214</v>
       </c>
-      <c r="D255">
+      <c r="D255" s="1">
         <v>-4.7069956339741648E-2</v>
       </c>
       <c r="E255">
@@ -10032,7 +10044,7 @@
       <c r="G255">
         <v>0.55940977408139914</v>
       </c>
-      <c r="H255">
+      <c r="H255" s="1">
         <v>-9.4676753727017393E-3</v>
       </c>
       <c r="I255">
@@ -10041,7 +10053,7 @@
       <c r="J255">
         <v>-0.34599530032222808</v>
       </c>
-      <c r="K255">
+      <c r="K255" s="1">
         <v>-0.55433453120783582</v>
       </c>
       <c r="M255">
@@ -10058,7 +10070,7 @@
       <c r="C256">
         <v>-0.34907834101382484</v>
       </c>
-      <c r="D256">
+      <c r="D256" s="1">
         <v>-5.7881156186778658E-2</v>
       </c>
       <c r="E256">
@@ -10070,7 +10082,7 @@
       <c r="G256">
         <v>0.45260088544568683</v>
       </c>
-      <c r="H256">
+      <c r="H256" s="1">
         <v>-2.7604182725032539E-2</v>
       </c>
       <c r="I256">
@@ -10079,7 +10091,7 @@
       <c r="J256">
         <v>-0.73839812012889128</v>
       </c>
-      <c r="K256">
+      <c r="K256" s="1">
         <v>-1.2228327343960821</v>
       </c>
       <c r="M256">
@@ -10096,7 +10108,7 @@
       <c r="C257">
         <v>-0.47004608294930872</v>
       </c>
-      <c r="D257">
+      <c r="D257" s="1">
         <v>-4.0892127855720516E-2</v>
       </c>
       <c r="E257">
@@ -10108,7 +10120,7 @@
       <c r="G257">
         <v>0.15887644169747811</v>
       </c>
-      <c r="H257">
+      <c r="H257" s="1">
         <v>-1.9233487023956709E-2</v>
       </c>
       <c r="I257">
@@ -10117,7 +10129,7 @@
       <c r="J257">
         <v>-0.60759718019333686</v>
       </c>
-      <c r="K257">
+      <c r="K257" s="1">
         <v>-1.8913309375843281</v>
       </c>
       <c r="M257">
@@ -10134,7 +10146,7 @@
       <c r="C258">
         <v>-0.44124423963133635</v>
       </c>
-      <c r="D258">
+      <c r="D258" s="1">
         <v>-4.3981042097731016E-2</v>
       </c>
       <c r="E258">
@@ -10146,7 +10158,7 @@
       <c r="G258">
         <v>0.15887644169747811</v>
       </c>
-      <c r="H258">
+      <c r="H258" s="1">
         <v>-1.5048139173418918E-2</v>
       </c>
       <c r="I258">
@@ -10155,7 +10167,7 @@
       <c r="J258">
         <v>-0.54219671022555971</v>
       </c>
-      <c r="K258">
+      <c r="K258" s="1">
         <v>-1.4456654687921642</v>
       </c>
       <c r="M258">
@@ -10172,7 +10184,7 @@
       <c r="C259">
         <v>-0.44354838709677419</v>
       </c>
-      <c r="D259">
+      <c r="D259" s="1">
         <v>-6.0970070428789158E-2</v>
       </c>
       <c r="E259">
@@ -10184,7 +10196,7 @@
       <c r="G259">
         <v>0.35113244124176018</v>
       </c>
-      <c r="H259">
+      <c r="H259" s="1">
         <v>-2.4813950824673886E-2</v>
       </c>
       <c r="I259">
@@ -10193,7 +10205,7 @@
       <c r="J259">
         <v>-0.54219671022555971</v>
       </c>
-      <c r="K259">
+      <c r="K259" s="1">
         <v>-1.4456654687921642</v>
       </c>
       <c r="M259">
@@ -10210,7 +10222,7 @@
       <c r="C260">
         <v>-0.18433179723502299</v>
       </c>
-      <c r="D260">
+      <c r="D260" s="1">
         <v>-2.8536470887678259E-2</v>
       </c>
       <c r="E260">
@@ -10222,7 +10234,7 @@
       <c r="G260">
         <v>0.30840888578747527</v>
       </c>
-      <c r="H260">
+      <c r="H260" s="1">
         <v>-8.0725594225223522E-3</v>
       </c>
       <c r="I260">
@@ -10231,7 +10243,7 @@
       <c r="J260">
         <v>-0.67299765016111401</v>
       </c>
-      <c r="K260">
+      <c r="K260" s="1">
         <v>-1.8913309375843281</v>
       </c>
       <c r="M260">
@@ -10248,7 +10260,7 @@
       <c r="C261">
         <v>-0.36635944700460821</v>
       </c>
-      <c r="D261">
+      <c r="D261" s="1">
         <v>-3.162538512968889E-2</v>
       </c>
       <c r="E261">
@@ -10260,7 +10272,7 @@
       <c r="G261">
         <v>0.43657955215033001</v>
       </c>
-      <c r="H261">
+      <c r="H261" s="1">
         <v>-1.2257907273060267E-2</v>
       </c>
       <c r="I261">
@@ -10269,7 +10281,7 @@
       <c r="J261">
         <v>-0.93459953003222285</v>
       </c>
-      <c r="K261">
+      <c r="K261" s="1">
         <v>-2.7826618751686563</v>
       </c>
       <c r="M261">
@@ -10286,7 +10298,7 @@
       <c r="C262">
         <v>-0.34418202764976957</v>
       </c>
-      <c r="D262">
+      <c r="D262" s="1">
         <v>-5.324778482376278E-2</v>
       </c>
       <c r="E262">
@@ -10298,7 +10310,7 @@
       <c r="G262">
         <v>0.3938559966960451</v>
       </c>
-      <c r="H262">
+      <c r="H262" s="1">
         <v>-3.5974878426108248E-2</v>
       </c>
       <c r="I262">
@@ -10307,7 +10319,7 @@
       <c r="J262">
         <v>-0.80379859009666843</v>
       </c>
-      <c r="K262">
+      <c r="K262" s="1">
         <v>-2.3369964063764921</v>
       </c>
       <c r="M262">
@@ -10324,7 +10336,7 @@
       <c r="C263">
         <v>-0.32949308755760376</v>
       </c>
-      <c r="D263">
+      <c r="D263" s="1">
         <v>-4.2436584976725769E-2</v>
       </c>
       <c r="E263">
@@ -10336,7 +10348,7 @@
       <c r="G263">
         <v>0.34579199680997458</v>
       </c>
-      <c r="H263">
+      <c r="H263" s="1">
         <v>-1.5048139173418918E-2</v>
       </c>
       <c r="I263">
@@ -10345,7 +10357,7 @@
       <c r="J263">
         <v>-0.54219671022555971</v>
       </c>
-      <c r="K263">
+      <c r="K263" s="1">
         <v>-2.3369964063764921</v>
       </c>
       <c r="M263">
@@ -10362,7 +10374,7 @@
       <c r="C264">
         <v>0.37096774193548404</v>
       </c>
-      <c r="D264">
+      <c r="D264" s="1">
         <v>1.4708328500469646E-2</v>
       </c>
       <c r="E264">
@@ -10374,7 +10386,7 @@
       <c r="G264">
         <v>-0.12416711318715951</v>
       </c>
-      <c r="H264">
+      <c r="H264" s="1">
         <v>-2.4813950824673886E-2</v>
       </c>
       <c r="I264">
@@ -10383,7 +10395,7 @@
       <c r="J264">
         <v>-0.60759718019333686</v>
       </c>
-      <c r="K264">
+      <c r="K264" s="1">
         <v>-1.2228327343960821</v>
       </c>
       <c r="M264">
@@ -10400,7 +10412,7 @@
       <c r="C265">
         <v>0.45622119815668216</v>
       </c>
-      <c r="D265">
+      <c r="D265" s="1">
         <v>2.2430614105496023E-2</v>
       </c>
       <c r="E265">
@@ -10412,7 +10424,7 @@
       <c r="G265">
         <v>4.0035531756953237E-3</v>
       </c>
-      <c r="H265">
+      <c r="H265" s="1">
         <v>-1.0969796716259099E-3</v>
       </c>
       <c r="I265">
@@ -10421,7 +10433,7 @@
       <c r="J265">
         <v>-0.60759718019333686</v>
       </c>
-      <c r="K265">
+      <c r="K265" s="1">
         <v>-1.4456654687921642</v>
       </c>
       <c r="M265">
@@ -10438,7 +10450,7 @@
       <c r="C266">
         <v>0.67741935483870963</v>
       </c>
-      <c r="D266">
+      <c r="D266" s="1">
         <v>2.2430614105496023E-2</v>
       </c>
       <c r="E266">
@@ -10450,7 +10462,7 @@
       <c r="G266">
         <v>-2.8039113415018357E-2</v>
       </c>
-      <c r="H266">
+      <c r="H266" s="1">
         <v>2.9813627855335373E-4</v>
       </c>
       <c r="I266">
@@ -10459,7 +10471,7 @@
       <c r="J266">
         <v>-0.4767962402577825</v>
       </c>
-      <c r="K266">
+      <c r="K266" s="1">
         <v>-1.4456654687921642</v>
       </c>
       <c r="M266">
@@ -10476,7 +10488,7 @@
       <c r="C267">
         <v>0.50201612903225801</v>
       </c>
-      <c r="D267">
+      <c r="D267" s="1">
         <v>8.530500016448516E-3</v>
       </c>
       <c r="E267">
@@ -10488,7 +10500,7 @@
       <c r="G267">
         <v>6.808888635712268E-2</v>
       </c>
-      <c r="H267">
+      <c r="H267" s="1">
         <v>8.6688319796291834E-3</v>
       </c>
       <c r="I267">
@@ -10497,7 +10509,7 @@
       <c r="J267">
         <v>-0.4767962402577825</v>
       </c>
-      <c r="K267">
+      <c r="K267" s="1">
         <v>-0.77716726560391791</v>
       </c>
       <c r="M267">
@@ -10514,7 +10526,7 @@
       <c r="C268">
         <v>0.24423963133640558</v>
       </c>
-      <c r="D268">
+      <c r="D268" s="1">
         <v>3.478627107353828E-2</v>
       </c>
       <c r="E268">
@@ -10526,7 +10538,7 @@
       <c r="G268">
         <v>8.9450664084265136E-2</v>
       </c>
-      <c r="H268">
+      <c r="H268" s="1">
         <v>1.1459063879987711E-2</v>
       </c>
       <c r="I268">
@@ -10535,7 +10547,7 @@
       <c r="J268">
         <v>-0.4767962402577825</v>
       </c>
-      <c r="K268">
+      <c r="K268" s="1">
         <v>-1.4456654687921642</v>
       </c>
       <c r="M268">
@@ -10552,7 +10564,7 @@
       <c r="C269">
         <v>-4.838709677419354E-2</v>
       </c>
-      <c r="D269">
+      <c r="D269" s="1">
         <v>2.397507122650127E-2</v>
       </c>
       <c r="E269">
@@ -10564,7 +10576,7 @@
       <c r="G269">
         <v>-6.6773356878759033E-3</v>
       </c>
-      <c r="H269">
+      <c r="H269" s="1">
         <v>1.9829759581063415E-2</v>
       </c>
       <c r="I269">
@@ -10573,7 +10585,7 @@
       <c r="J269">
         <v>-0.60759718019333686</v>
       </c>
-      <c r="K269">
+      <c r="K269" s="1">
         <v>-1.8913309375843281</v>
       </c>
       <c r="M269">
@@ -10590,7 +10602,7 @@
       <c r="C270">
         <v>-1.4976958525345613E-2</v>
       </c>
-      <c r="D270">
+      <c r="D270" s="1">
         <v>-1.6180813919636002E-2</v>
       </c>
       <c r="E270">
@@ -10602,7 +10614,7 @@
       <c r="G270">
         <v>0.28704710806033285</v>
       </c>
-      <c r="H270">
+      <c r="H270" s="1">
         <v>7.2737160294497963E-3</v>
       </c>
       <c r="I270">
@@ -10611,7 +10623,7 @@
       <c r="J270">
         <v>-0.41139577029000529</v>
       </c>
-      <c r="K270">
+      <c r="K270" s="1">
         <v>-1.6684982031882463</v>
       </c>
       <c r="M270">
@@ -10628,7 +10640,7 @@
       <c r="C271">
         <v>0.15207373271889402</v>
       </c>
-      <c r="D271">
+      <c r="D271" s="1">
         <v>-1.4636356798630753E-2</v>
       </c>
       <c r="E271">
@@ -10640,7 +10652,7 @@
       <c r="G271">
         <v>0.23898310817426233</v>
       </c>
-      <c r="H271">
+      <c r="H271" s="1">
         <v>-6.6774434723430882E-3</v>
       </c>
       <c r="I271">
@@ -10649,7 +10661,7 @@
       <c r="J271">
         <v>-0.54219671022555971</v>
       </c>
-      <c r="K271">
+      <c r="K271" s="1">
         <v>-2.11416367198041</v>
       </c>
       <c r="M271">
@@ -10666,7 +10678,7 @@
       <c r="C272">
         <v>0.38767281105990797</v>
       </c>
-      <c r="D272">
+      <c r="D272" s="1">
         <v>5.4415857744378833E-3</v>
       </c>
       <c r="E272">
@@ -10678,7 +10690,7 @@
       <c r="G272">
         <v>2.5365330902837779E-2</v>
       </c>
-      <c r="H272">
+      <c r="H272" s="1">
         <v>-5.2823275221638251E-3</v>
       </c>
       <c r="I272">
@@ -10687,7 +10699,7 @@
       <c r="J272">
         <v>-1</v>
       </c>
-      <c r="K272">
+      <c r="K272" s="1">
         <v>-2.5598291407725742</v>
       </c>
       <c r="M272">
@@ -10704,7 +10716,7 @@
       <c r="C273">
         <v>0.17857142857142869</v>
       </c>
-      <c r="D273">
+      <c r="D273" s="1">
         <v>-2.235864240365713E-2</v>
       </c>
       <c r="E273">
@@ -10716,7 +10728,7 @@
       <c r="G273">
         <v>2.5365330902837779E-2</v>
       </c>
-      <c r="H273">
+      <c r="H273" s="1">
         <v>-2.4813950824673886E-2</v>
       </c>
       <c r="I273">
@@ -10725,7 +10737,7 @@
       <c r="J273">
         <v>-0.73839812012889128</v>
       </c>
-      <c r="K273">
+      <c r="K273" s="1">
         <v>-2.11416367198041</v>
       </c>
       <c r="M273">
@@ -10742,7 +10754,7 @@
       <c r="C274">
         <v>0.12615207373271889</v>
       </c>
-      <c r="D274">
+      <c r="D274" s="1">
         <v>-1.154744255662012E-2</v>
       </c>
       <c r="E274">
@@ -10754,7 +10766,7 @@
       <c r="G274">
         <v>7.8769775220693908E-2</v>
       </c>
-      <c r="H274">
+      <c r="H274" s="1">
         <v>-1.3653023223239531E-2</v>
       </c>
       <c r="I274">
@@ -10763,7 +10775,7 @@
       <c r="J274">
         <v>-0.54219671022555971</v>
       </c>
-      <c r="K274">
+      <c r="K274" s="1">
         <v>-1.6684982031882463</v>
       </c>
       <c r="M274">
@@ -10780,7 +10792,7 @@
       <c r="C275">
         <v>0.375</v>
       </c>
-      <c r="D275">
+      <c r="D275" s="1">
         <v>6.9860428954431307E-3</v>
       </c>
       <c r="E275">
@@ -10792,7 +10804,7 @@
       <c r="G275">
         <v>-0.12416711318715951</v>
       </c>
-      <c r="H275">
+      <c r="H275" s="1">
         <v>-1.0862791322881003E-2</v>
       </c>
       <c r="I275">
@@ -10801,7 +10813,7 @@
       <c r="J275">
         <v>-0.60759718019333686</v>
       </c>
-      <c r="K275">
+      <c r="K275" s="1">
         <v>-2.3369964063764921</v>
       </c>
       <c r="M275">
@@ -10818,7 +10830,7 @@
       <c r="C276">
         <v>0.11607142857142856</v>
       </c>
-      <c r="D276">
+      <c r="D276" s="1">
         <v>-3.3169842250694144E-2</v>
       </c>
       <c r="E276">
@@ -10830,7 +10842,7 @@
       <c r="G276">
         <v>0.12683377510676444</v>
       </c>
-      <c r="H276">
+      <c r="H276" s="1">
         <v>-2.0628602974136098E-2</v>
       </c>
       <c r="I276">
@@ -10839,7 +10851,7 @@
       <c r="J276">
         <v>-0.60759718019333686</v>
       </c>
-      <c r="K276">
+      <c r="K276" s="1">
         <v>-1.4456654687921642</v>
       </c>
       <c r="M276">
@@ -10856,7 +10868,7 @@
       <c r="C277">
         <v>0.532258064516129</v>
       </c>
-      <c r="D277">
+      <c r="D277" s="1">
         <v>1.9341699863485391E-2</v>
       </c>
       <c r="E277">
@@ -10868,7 +10880,7 @@
       <c r="G277">
         <v>-4.9400891142160813E-2</v>
       </c>
-      <c r="H277">
+      <c r="H277" s="1">
         <v>1.6932522287326174E-3</v>
       </c>
       <c r="I277">
@@ -10877,7 +10889,7 @@
       <c r="J277">
         <v>-0.34599530032222808</v>
       </c>
-      <c r="K277">
+      <c r="K277" s="1">
         <v>-1.4456654687921642</v>
       </c>
       <c r="M277">
@@ -10894,7 +10906,7 @@
       <c r="C278">
         <v>0.14285714285714285</v>
       </c>
-      <c r="D278">
+      <c r="D278" s="1">
         <v>2.397507122650127E-2</v>
       </c>
       <c r="E278">
@@ -10906,7 +10918,7 @@
       <c r="G278">
         <v>1.4684442039266551E-2</v>
       </c>
-      <c r="H278">
+      <c r="H278" s="1">
         <v>-6.6774434723430882E-3</v>
       </c>
       <c r="I278">
@@ -10915,7 +10927,7 @@
       <c r="J278">
         <v>-0.21519436038667372</v>
       </c>
-      <c r="K278">
+      <c r="K278" s="1">
         <v>-1.4456654687921642</v>
       </c>
       <c r="M278">
@@ -10932,7 +10944,7 @@
       <c r="C279">
         <v>-3.2258064516128976E-2</v>
       </c>
-      <c r="D279">
+      <c r="D279" s="1">
         <v>-2.390309952466238E-2</v>
       </c>
       <c r="E279">
@@ -10944,7 +10956,7 @@
       <c r="G279">
         <v>0.18023821942462057</v>
       </c>
-      <c r="H279">
+      <c r="H279" s="1">
         <v>-2.8999298675211803E-2</v>
       </c>
       <c r="I279">
@@ -10953,7 +10965,7 @@
       <c r="J279">
         <v>-0.41139577029000529</v>
       </c>
-      <c r="K279">
+      <c r="K279" s="1">
         <v>-1.6684982031882463</v>
       </c>
       <c r="M279">
@@ -10970,7 +10982,7 @@
       <c r="C280">
         <v>5.3571428571428589E-2</v>
       </c>
-      <c r="D280">
+      <c r="D280" s="1">
         <v>-7.3624270958324645E-4</v>
       </c>
       <c r="E280">
@@ -10982,7 +10994,7 @@
       <c r="G280">
         <v>8.9450664084265136E-2</v>
       </c>
-      <c r="H280">
+      <c r="H280" s="1">
         <v>-1.2257907273060267E-2</v>
       </c>
       <c r="I280">
@@ -10991,7 +11003,7 @@
       <c r="J280">
         <v>-0.73839812012889128</v>
       </c>
-      <c r="K280">
+      <c r="K280" s="1">
         <v>-1.6684982031882463</v>
       </c>
       <c r="M280">
@@ -11008,7 +11020,7 @@
       <c r="C281">
         <v>1.3824884792626805E-2</v>
       </c>
-      <c r="D281">
+      <c r="D281" s="1">
         <v>-7.3624270958324645E-4</v>
       </c>
       <c r="E281">
@@ -11020,7 +11032,7 @@
       <c r="G281">
         <v>5.2067553061765845E-2</v>
       </c>
-      <c r="H281">
+      <c r="H281" s="1">
         <v>-2.0628602974136098E-2</v>
       </c>
       <c r="I281">
@@ -11029,7 +11041,7 @@
       <c r="J281">
         <v>-0.73839812012889128</v>
       </c>
-      <c r="K281">
+      <c r="K281" s="1">
         <v>-1.8913309375843281</v>
       </c>
       <c r="M281">
@@ -11046,7 +11058,7 @@
       <c r="C282">
         <v>-0.24827188940092168</v>
       </c>
-      <c r="D282">
+      <c r="D282" s="1">
         <v>-3.3169842250694144E-2</v>
       </c>
       <c r="E282">
@@ -11058,7 +11070,7 @@
       <c r="G282">
         <v>0.15887644169747811</v>
       </c>
-      <c r="H282">
+      <c r="H282" s="1">
         <v>-2.3418834874494626E-2</v>
       </c>
       <c r="I282">
@@ -11067,7 +11079,7 @@
       <c r="J282">
         <v>-0.67299765016111401</v>
       </c>
-      <c r="K282">
+      <c r="K282" s="1">
         <v>-2.3369964063764921</v>
       </c>
       <c r="M282">
@@ -11084,7 +11096,7 @@
       <c r="C283">
         <v>-0.1445852534562212</v>
       </c>
-      <c r="D283">
+      <c r="D283" s="1">
         <v>-2.0814185282651883E-2</v>
       </c>
       <c r="E283">
@@ -11096,7 +11108,7 @@
       <c r="G283">
         <v>0.15887644169747811</v>
       </c>
-      <c r="H283">
+      <c r="H283" s="1">
         <v>-1.7838371073777445E-2</v>
       </c>
       <c r="I283">
@@ -11105,7 +11117,7 @@
       <c r="J283">
         <v>-0.86919906006444558</v>
       </c>
-      <c r="K283">
+      <c r="K283" s="1">
         <v>-2.7826618751686563</v>
       </c>
       <c r="M283">
@@ -11122,7 +11134,7 @@
       <c r="C284">
         <v>0.33640552995391698</v>
       </c>
-      <c r="D284">
+      <c r="D284" s="1">
         <v>2.2430614105496023E-2</v>
       </c>
       <c r="E284">
@@ -11134,7 +11146,7 @@
       <c r="G284">
         <v>-0.11882666875537379</v>
       </c>
-      <c r="H284">
+      <c r="H284" s="1">
         <v>-1.7838371073777445E-2</v>
       </c>
       <c r="I284">
@@ -11143,7 +11155,7 @@
       <c r="J284">
         <v>-0.80379859009666843</v>
       </c>
-      <c r="K284">
+      <c r="K284" s="1">
         <v>-3.2283273439608204</v>
       </c>
       <c r="M284">
@@ -11160,7 +11172,7 @@
       <c r="C285">
         <v>0.27419354838709692</v>
       </c>
-      <c r="D285">
+      <c r="D285" s="1">
         <v>2.397507122650127E-2</v>
       </c>
       <c r="E285">
@@ -11172,7 +11184,7 @@
       <c r="G285">
         <v>6.808888635712268E-2</v>
       </c>
-      <c r="H285">
+      <c r="H285" s="1">
         <v>-3.8872115719845611E-3</v>
       </c>
       <c r="I285">
@@ -11181,7 +11193,7 @@
       <c r="J285">
         <v>-0.67299765016111401</v>
       </c>
-      <c r="K285">
+      <c r="K285" s="1">
         <v>-2.3369964063764921</v>
       </c>
       <c r="M285">
@@ -11198,7 +11210,7 @@
       <c r="C286">
         <v>2.3041474654377542E-3</v>
       </c>
-      <c r="D286">
+      <c r="D286" s="1">
         <v>-8.4585283146096247E-3</v>
       </c>
       <c r="E286">
@@ -11210,7 +11222,7 @@
       <c r="G286">
         <v>0.31908977465104654</v>
       </c>
-      <c r="H286">
+      <c r="H286" s="1">
         <v>-1.2257907273060267E-2</v>
       </c>
       <c r="I286">
@@ -11219,7 +11231,7 @@
       <c r="J286">
         <v>-0.60759718019333686</v>
       </c>
-      <c r="K286">
+      <c r="K286" s="1">
         <v>-2.3369964063764921</v>
       </c>
       <c r="M286">
@@ -11236,7 +11248,7 @@
       <c r="C287">
         <v>-4.0322580645161185E-2</v>
       </c>
-      <c r="D287">
+      <c r="D287" s="1">
         <v>-6.9140711936043755E-3</v>
       </c>
       <c r="E287">
@@ -11248,7 +11260,7 @@
       <c r="G287">
         <v>0.31374933021926088</v>
       </c>
-      <c r="H287">
+      <c r="H287" s="1">
         <v>-1.5048139173418918E-2</v>
       </c>
       <c r="I287">
@@ -11257,7 +11269,7 @@
       <c r="J287">
         <v>-1</v>
       </c>
-      <c r="K287">
+      <c r="K287" s="1">
         <v>-2.7826618751686563</v>
       </c>
       <c r="M287">
@@ -11274,7 +11286,7 @@
       <c r="C288">
         <v>0.16935483870967752</v>
       </c>
-      <c r="D288">
+      <c r="D288" s="1">
         <v>1.4708328500469646E-2</v>
       </c>
       <c r="E288">
@@ -11286,7 +11298,7 @@
       <c r="G288">
         <v>8.9450664084265136E-2</v>
       </c>
-      <c r="H288">
+      <c r="H288" s="1">
         <v>-1.2257907273060267E-2</v>
       </c>
       <c r="I288">
@@ -11295,7 +11307,7 @@
       <c r="J288">
         <v>-1</v>
       </c>
-      <c r="K288">
+      <c r="K288" s="1">
         <v>-3.0054946095647384</v>
       </c>
       <c r="M288">
@@ -11312,7 +11324,7 @@
       <c r="C289">
         <v>0.17511520737327196</v>
       </c>
-      <c r="D289">
+      <c r="D289" s="1">
         <v>-1.7725271040641248E-2</v>
       </c>
       <c r="E289">
@@ -11324,7 +11336,7 @@
       <c r="G289">
         <v>0.16421688612926372</v>
       </c>
-      <c r="H289">
+      <c r="H289" s="1">
         <v>-1.2257907273060267E-2</v>
       </c>
       <c r="I289">
@@ -11333,7 +11345,7 @@
       <c r="J289">
         <v>-0.80379859009666843</v>
       </c>
-      <c r="K289">
+      <c r="K289" s="1">
         <v>-3.0054946095647384</v>
       </c>
       <c r="M289">
@@ -11350,7 +11362,7 @@
       <c r="C290">
         <v>0.15783410138248846</v>
       </c>
-      <c r="D290">
+      <c r="D290" s="1">
         <v>3.897128653432635E-3</v>
       </c>
       <c r="E290">
@@ -11362,7 +11374,7 @@
       <c r="G290">
         <v>0.17489777499283496</v>
       </c>
-      <c r="H290">
+      <c r="H290" s="1">
         <v>-1.9233487023956709E-2</v>
       </c>
       <c r="I290">
@@ -11371,7 +11383,7 @@
       <c r="J290">
         <v>-0.60759718019333686</v>
       </c>
-      <c r="K290">
+      <c r="K290" s="1">
         <v>-2.7826618751686563</v>
       </c>
       <c r="M290">
@@ -11388,7 +11400,7 @@
       <c r="C291">
         <v>0.27880184331797248</v>
       </c>
-      <c r="D291">
+      <c r="D291" s="1">
         <v>3.3241813952533034E-2</v>
       </c>
       <c r="E291">
@@ -11400,7 +11412,7 @@
       <c r="G291">
         <v>0.14285510840212126</v>
       </c>
-      <c r="H291">
+      <c r="H291" s="1">
         <v>2.9813627855335373E-4</v>
       </c>
       <c r="I291">
@@ -11409,7 +11421,7 @@
       <c r="J291">
         <v>-0.60759718019333686</v>
       </c>
-      <c r="K291">
+      <c r="K291" s="1">
         <v>-2.3369964063764921</v>
       </c>
       <c r="M291">
@@ -11426,7 +11438,7 @@
       <c r="C292">
         <v>0.26152073732718895</v>
       </c>
-      <c r="D292">
+      <c r="D292" s="1">
         <v>3.0152899710522402E-2</v>
       </c>
       <c r="E292">
@@ -11438,7 +11450,7 @@
       <c r="G292">
         <v>0.16421688612926372</v>
       </c>
-      <c r="H292">
+      <c r="H292" s="1">
         <v>-3.8872115719845611E-3</v>
       </c>
       <c r="I292">
@@ -11447,7 +11459,7 @@
       <c r="J292">
         <v>-0.4767962402577825</v>
       </c>
-      <c r="K292">
+      <c r="K292" s="1">
         <v>-1.6684982031882463</v>
       </c>
       <c r="M292">
@@ -11464,7 +11476,7 @@
       <c r="C293">
         <v>0.34792626728110593</v>
       </c>
-      <c r="D293">
+      <c r="D293" s="1">
         <v>2.397507122650127E-2</v>
       </c>
       <c r="E293">
@@ -11476,7 +11488,7 @@
       <c r="G293">
         <v>0.18557866385640617</v>
       </c>
-      <c r="H293">
+      <c r="H293" s="1">
         <v>-5.2823275221638251E-3</v>
       </c>
       <c r="I293">
@@ -11485,7 +11497,7 @@
       <c r="J293">
         <v>-1</v>
       </c>
-      <c r="K293">
+      <c r="K293" s="1">
         <v>-2.7826618751686563</v>
       </c>
       <c r="M293">
@@ -11502,7 +11514,7 @@
       <c r="C294">
         <v>0.51785714285714302</v>
       </c>
-      <c r="D294">
+      <c r="D294" s="1">
         <v>2.7063985468511905E-2</v>
       </c>
       <c r="E294">
@@ -11514,7 +11526,7 @@
       <c r="G294">
         <v>6.808888635712268E-2</v>
       </c>
-      <c r="H294">
+      <c r="H294" s="1">
         <v>-1.5048139173418918E-2</v>
       </c>
       <c r="I294">
@@ -11523,7 +11535,7 @@
       <c r="J294">
         <v>-1.1962014099033318</v>
       </c>
-      <c r="K294">
+      <c r="K294" s="1">
         <v>-3.6739928127529846</v>
       </c>
       <c r="M294">
@@ -11540,7 +11552,7 @@
       <c r="C295">
         <v>0.41705069124423938</v>
       </c>
-      <c r="D295">
+      <c r="D295" s="1">
         <v>1.7797242742480141E-2</v>
       </c>
       <c r="E295">
@@ -11552,7 +11564,7 @@
       <c r="G295">
         <v>4.1386664198194617E-2</v>
       </c>
-      <c r="H295">
+      <c r="H295" s="1">
         <v>1.6932522287326174E-3</v>
       </c>
       <c r="I295">
@@ -11561,7 +11573,7 @@
       <c r="J295">
         <v>-1.0654004699677773</v>
       </c>
-      <c r="K295">
+      <c r="K295" s="1">
         <v>-3.6739928127529846</v>
       </c>
       <c r="M295">
@@ -11578,7 +11590,7 @@
       <c r="C296">
         <v>0.40841013824884792</v>
       </c>
-      <c r="D296">
+      <c r="D296" s="1">
         <v>-6.9140711936043755E-3</v>
       </c>
       <c r="E296">
@@ -11590,7 +11602,7 @@
       <c r="G296">
         <v>0.11081244181140759</v>
       </c>
-      <c r="H296">
+      <c r="H296" s="1">
         <v>4.4834841290912683E-3</v>
       </c>
       <c r="I296">
@@ -11599,7 +11611,7 @@
       <c r="J296">
         <v>-1.0654004699677773</v>
       </c>
-      <c r="K296">
+      <c r="K296" s="1">
         <v>-2.7826618751686563</v>
       </c>
       <c r="M296">
@@ -11616,7 +11628,7 @@
       <c r="C297">
         <v>0.3652073732718894</v>
       </c>
-      <c r="D297">
+      <c r="D297" s="1">
         <v>-1.0002985435614871E-2</v>
       </c>
       <c r="E297">
@@ -11628,7 +11640,7 @@
       <c r="G297">
         <v>3.6046219766409003E-2</v>
       </c>
-      <c r="H297">
+      <c r="H297" s="1">
         <v>-1.0969796716259099E-3</v>
       </c>
       <c r="I297">
@@ -11637,7 +11649,7 @@
       <c r="J297">
         <v>-0.93459953003222285</v>
       </c>
-      <c r="K297">
+      <c r="K297" s="1">
         <v>-2.7826618751686563</v>
       </c>
       <c r="M297">
@@ -11654,7 +11666,7 @@
       <c r="C298">
         <v>-0.37355990783410131</v>
       </c>
-      <c r="D298">
+      <c r="D298" s="1">
         <v>-1.4636356798630753E-2</v>
       </c>
       <c r="E298">
@@ -11666,7 +11678,7 @@
       <c r="G298">
         <v>0.1535359972656925</v>
       </c>
-      <c r="H298">
+      <c r="H298" s="1">
         <v>-1.7838371073777445E-2</v>
       </c>
       <c r="I298">
@@ -11675,7 +11687,7 @@
       <c r="J298">
         <v>-1.1962014099033318</v>
       </c>
-      <c r="K298">
+      <c r="K298" s="1">
         <v>-4.1196582815451492</v>
       </c>
       <c r="M298">
@@ -11692,7 +11704,7 @@
       <c r="C299">
         <v>0.17511520737327196</v>
       </c>
-      <c r="D299">
+      <c r="D299" s="1">
         <v>-2.2806998305884944E-3</v>
       </c>
       <c r="E299">
@@ -11704,7 +11716,7 @@
       <c r="G299">
         <v>3.6046219766409003E-2</v>
       </c>
-      <c r="H299">
+      <c r="H299" s="1">
         <v>-1.6443255123598181E-2</v>
       </c>
       <c r="I299">
@@ -11713,7 +11725,7 @@
       <c r="J299">
         <v>-1.654004699677772</v>
       </c>
-      <c r="K299">
+      <c r="K299" s="1">
         <v>-5.9023201567138059</v>
       </c>
       <c r="M299">
@@ -11730,7 +11742,7 @@
       <c r="C300">
         <v>0.28571428571428586</v>
       </c>
-      <c r="D300">
+      <c r="D300" s="1">
         <v>-1.6180813919636002E-2</v>
       </c>
       <c r="E300">
@@ -11742,7 +11754,7 @@
       <c r="G300">
         <v>-0.33778489045858395</v>
       </c>
-      <c r="H300">
+      <c r="H300" s="1">
         <v>-3.4579762475928984E-2</v>
       </c>
       <c r="I300">
@@ -11751,7 +11763,7 @@
       <c r="J300">
         <v>-0.93459953003222285</v>
       </c>
-      <c r="K300">
+      <c r="K300" s="1">
         <v>-2.3369964063764921</v>
       </c>
       <c r="M300">
@@ -11768,7 +11780,7 @@
       <c r="C301">
         <v>0.34562211981566832</v>
       </c>
-      <c r="D301">
+      <c r="D301" s="1">
         <v>-2.2806998305884944E-3</v>
       </c>
       <c r="E301">
@@ -11780,7 +11792,7 @@
       <c r="G301">
         <v>-0.28972089057251343</v>
       </c>
-      <c r="H301">
+      <c r="H301" s="1">
         <v>-1.7838371073777445E-2</v>
       </c>
       <c r="I301">
@@ -11789,7 +11801,7 @@
       <c r="J301">
         <v>-1.0654004699677773</v>
       </c>
-      <c r="K301">
+      <c r="K301" s="1">
         <v>-2.7826618751686563</v>
       </c>
       <c r="M301">
@@ -11806,7 +11818,7 @@
       <c r="C302">
         <v>0.30299539170506906</v>
       </c>
-      <c r="D302">
+      <c r="D302" s="1">
         <v>-1.4636356798630753E-2</v>
       </c>
       <c r="E302">
@@ -11818,7 +11830,7 @@
       <c r="G302">
         <v>-0.32176355716322708</v>
       </c>
-      <c r="H302">
+      <c r="H302" s="1">
         <v>-2.0628602974136098E-2</v>
       </c>
       <c r="I302">
@@ -11827,7 +11839,7 @@
       <c r="J302">
         <v>-1.0654004699677773</v>
       </c>
-      <c r="K302">
+      <c r="K302" s="1">
         <v>-3.0054946095647384</v>
       </c>
       <c r="M302">
@@ -11844,7 +11856,7 @@
       <c r="C303">
         <v>-2.275345622119819E-2</v>
       </c>
-      <c r="D303">
+      <c r="D303" s="1">
         <v>-3.8251569515937427E-3</v>
       </c>
       <c r="E303">
@@ -11856,7 +11868,7 @@
       <c r="G303">
         <v>-0.10280533546001694</v>
       </c>
-      <c r="H303">
+      <c r="H303" s="1">
         <v>-5.4111385778439047E-2</v>
       </c>
       <c r="I303">
@@ -11865,7 +11877,7 @@
       <c r="J303">
         <v>-0.80379859009666843</v>
       </c>
-      <c r="K303">
+      <c r="K303" s="1">
         <v>-3.0054946095647384</v>
       </c>
       <c r="M303">
@@ -11882,7 +11894,7 @@
       <c r="C304">
         <v>5.3571428571428589E-2</v>
       </c>
-      <c r="D304">
+      <c r="D304" s="1">
         <v>-1.3091899677625505E-2</v>
       </c>
       <c r="E304">
@@ -11894,7 +11906,7 @@
       <c r="G304">
         <v>-6.0081780005732034E-2</v>
       </c>
-      <c r="H304">
+      <c r="H304" s="1">
         <v>-2.620906677485315E-2</v>
       </c>
       <c r="I304">
@@ -11903,7 +11915,7 @@
       <c r="J304">
         <v>-0.67299765016111401</v>
       </c>
-      <c r="K304">
+      <c r="K304" s="1">
         <v>-2.3369964063764921</v>
       </c>
       <c r="M304">
@@ -11920,7 +11932,7 @@
       <c r="C305">
         <v>0.1405529953917051</v>
       </c>
-      <c r="D305">
+      <c r="D305" s="1">
         <v>2.2430614105496023E-2</v>
       </c>
       <c r="E305">
@@ -11932,7 +11944,7 @@
       <c r="G305">
         <v>-0.10280533546001694</v>
       </c>
-      <c r="H305">
+      <c r="H305" s="1">
         <v>-2.0628602974136098E-2</v>
       </c>
       <c r="I305">
@@ -11941,7 +11953,7 @@
       <c r="J305">
         <v>-0.4767962402577825</v>
       </c>
-      <c r="K305">
+      <c r="K305" s="1">
         <v>-1.6684982031882463</v>
       </c>
       <c r="M305">
@@ -11958,7 +11970,7 @@
       <c r="C306">
         <v>6.2499999999999972E-2</v>
       </c>
-      <c r="D306">
+      <c r="D306" s="1">
         <v>-5.3696140725989902E-3</v>
       </c>
       <c r="E306">
@@ -11970,7 +11982,7 @@
       <c r="G306">
         <v>-6.5422224437517648E-2</v>
       </c>
-      <c r="H306">
+      <c r="H306" s="1">
         <v>-2.620906677485315E-2</v>
       </c>
       <c r="I306">
@@ -11979,7 +11991,7 @@
       <c r="J306">
         <v>-0.67299765016111401</v>
       </c>
-      <c r="K306">
+      <c r="K306" s="1">
         <v>-2.5598291407725742</v>
       </c>
       <c r="M306">
@@ -11996,7 +12008,7 @@
       <c r="C307">
         <v>3.5714285714285816E-2</v>
       </c>
-      <c r="D307">
+      <c r="D307" s="1">
         <v>-5.3696140725989902E-3</v>
       </c>
       <c r="E307">
@@ -12008,7 +12020,7 @@
       <c r="G307">
         <v>1.4684442039266551E-2</v>
       </c>
-      <c r="H307">
+      <c r="H307" s="1">
         <v>-8.0725594225223522E-3</v>
       </c>
       <c r="I307">
@@ -12017,7 +12029,7 @@
       <c r="J307">
         <v>-0.67299765016111401</v>
       </c>
-      <c r="K307">
+      <c r="K307" s="1">
         <v>-2.5598291407725742</v>
       </c>
       <c r="M307">
@@ -12034,7 +12046,7 @@
       <c r="C308">
         <v>8.8709677419354871E-2</v>
       </c>
-      <c r="D308">
+      <c r="D308" s="1">
         <v>-5.3696140725989902E-3</v>
       </c>
       <c r="E308">
@@ -12046,7 +12058,7 @@
       <c r="G308">
         <v>-0.24699733511822849</v>
       </c>
-      <c r="H308">
+      <c r="H308" s="1">
         <v>1.0063947929808447E-2</v>
       </c>
       <c r="I308">
@@ -12055,7 +12067,7 @@
       <c r="J308">
         <v>-0.73839812012889128</v>
       </c>
-      <c r="K308">
+      <c r="K308" s="1">
         <v>-2.5598291407725742</v>
       </c>
       <c r="M308">
@@ -12072,7 +12084,7 @@
       <c r="C309">
         <v>-0.25864055299539179</v>
       </c>
-      <c r="D309">
+      <c r="D309" s="1">
         <v>8.0821441142213879E-4</v>
       </c>
       <c r="E309">
@@ -12084,7 +12096,7 @@
       <c r="G309">
         <v>-0.11348622432358807</v>
       </c>
-      <c r="H309">
+      <c r="H309" s="1">
         <v>1.1459063879987711E-2</v>
       </c>
       <c r="I309">
@@ -12093,7 +12105,7 @@
       <c r="J309">
         <v>-0.4767962402577825</v>
       </c>
-      <c r="K309">
+      <c r="K309" s="1">
         <v>-1.8913309375843281</v>
       </c>
       <c r="M309">
@@ -12110,7 +12122,7 @@
       <c r="C310">
         <v>0.45161290322580638</v>
       </c>
-      <c r="D310">
+      <c r="D310" s="1">
         <v>-3.8251569515937427E-3</v>
       </c>
       <c r="E310">
@@ -12122,7 +12134,7 @@
       <c r="G310">
         <v>-0.33244444602679835</v>
       </c>
-      <c r="H310">
+      <c r="H310" s="1">
         <v>1.8434643630884155E-2</v>
       </c>
       <c r="I310">
@@ -12131,7 +12143,7 @@
       <c r="J310">
         <v>-8.4393420451119333E-2</v>
       </c>
-      <c r="K310">
+      <c r="K310" s="1">
         <v>-2.11416367198041</v>
       </c>
       <c r="M310">
@@ -12148,7 +12160,7 @@
       <c r="C311">
         <v>0.59677419354838723</v>
       </c>
-      <c r="D311">
+      <c r="D311" s="1">
         <v>-2.0814185282651883E-2</v>
       </c>
       <c r="E311">
@@ -12160,7 +12172,7 @@
       <c r="G311">
         <v>-0.36448711261751199</v>
       </c>
-      <c r="H311">
+      <c r="H311" s="1">
         <v>3.9361382883573603E-2</v>
       </c>
       <c r="I311">
@@ -12169,7 +12181,7 @@
       <c r="J311">
         <v>-0.21519436038667372</v>
       </c>
-      <c r="K311">
+      <c r="K311" s="1">
         <v>-1</v>
       </c>
       <c r="M311">
@@ -12186,7 +12198,7 @@
       <c r="C312">
         <v>-3.2258064516128976E-2</v>
       </c>
-      <c r="D312">
+      <c r="D312" s="1">
         <v>-8.4585283146096247E-3</v>
       </c>
       <c r="E312">
@@ -12198,7 +12210,7 @@
       <c r="G312">
         <v>-0.28438044614072783</v>
       </c>
-      <c r="H312">
+      <c r="H312" s="1">
         <v>5.8786000792705323E-3</v>
       </c>
       <c r="I312">
@@ -12207,7 +12219,7 @@
       <c r="J312">
         <v>4.6407519484435042E-2</v>
       </c>
-      <c r="K312">
+      <c r="K312" s="1">
         <v>-0.33150179681175379</v>
       </c>
       <c r="M312">
@@ -12224,7 +12236,7 @@
       <c r="C313">
         <v>-7.25806451612903E-2</v>
       </c>
-      <c r="D313">
+      <c r="D313" s="1">
         <v>-1.3091899677625505E-2</v>
       </c>
       <c r="E313">
@@ -12236,7 +12248,7 @@
       <c r="G313">
         <v>-0.41789155693536811</v>
       </c>
-      <c r="H313">
+      <c r="H313" s="1">
         <v>1.0063947929808447E-2</v>
       </c>
       <c r="I313">
@@ -12245,7 +12257,7 @@
       <c r="J313">
         <v>-0.14979389041889654</v>
       </c>
-      <c r="K313">
+      <c r="K313" s="1">
         <v>-0.10866906241567169</v>
       </c>
       <c r="M313">
@@ -12262,7 +12274,7 @@
       <c r="C314">
         <v>-0.27534562211981561</v>
       </c>
-      <c r="D314">
+      <c r="D314" s="1">
         <v>5.6408670767612169E-2</v>
       </c>
       <c r="E314">
@@ -12274,7 +12286,7 @@
       <c r="G314">
         <v>-0.15620977977787309</v>
       </c>
-      <c r="H314">
+      <c r="H314" s="1">
         <v>1.5644411730525627E-2</v>
       </c>
       <c r="I314">
@@ -12283,7 +12295,7 @@
       <c r="J314">
         <v>-0.86919906006444558</v>
       </c>
-      <c r="K314">
+      <c r="K314" s="1">
         <v>-2.3369964063764921</v>
       </c>
       <c r="M314">
@@ -12300,7 +12312,7 @@
       <c r="C315">
         <v>-0.35195852534562216</v>
       </c>
-      <c r="D315">
+      <c r="D315" s="1">
         <v>8.111998470369669E-2</v>
       </c>
       <c r="E315">
@@ -12312,7 +12324,7 @@
       <c r="G315">
         <v>-0.22029511295930043</v>
       </c>
-      <c r="H315">
+      <c r="H315" s="1">
         <v>-1.0862791322881003E-2</v>
       </c>
       <c r="I315">
@@ -12321,7 +12333,7 @@
       <c r="J315">
         <v>-1.1308009399355545</v>
       </c>
-      <c r="K315">
+      <c r="K315" s="1">
         <v>-3.4511600783569025</v>
       </c>
       <c r="M315">
@@ -12338,7 +12350,7 @@
       <c r="C316">
         <v>-0.24193548387096769</v>
       </c>
-      <c r="D316">
+      <c r="D316" s="1">
         <v>3.9419642436554166E-2</v>
       </c>
       <c r="E316">
@@ -12350,7 +12362,7 @@
       <c r="G316">
         <v>0.13217421953855005</v>
       </c>
-      <c r="H316">
+      <c r="H316" s="1">
         <v>3.0883681789120048E-3</v>
       </c>
       <c r="I316">
@@ -12359,7 +12371,7 @@
       <c r="J316">
         <v>-0.41139577029000529</v>
       </c>
-      <c r="K316">
+      <c r="K316" s="1">
         <v>-1.4456654687921642</v>
       </c>
       <c r="M316">
@@ -12376,7 +12388,7 @@
       <c r="C317">
         <v>-0.22235023041474655</v>
       </c>
-      <c r="D317">
+      <c r="D317" s="1">
         <v>4.4053013799569905E-2</v>
       </c>
       <c r="E317">
@@ -12388,7 +12400,7 @@
       <c r="G317">
         <v>-0.20427377966394361</v>
       </c>
-      <c r="H317">
+      <c r="H317" s="1">
         <v>1.5644411730525627E-2</v>
       </c>
       <c r="I317">
@@ -12397,7 +12409,7 @@
       <c r="J317">
         <v>-0.34599530032222808</v>
       </c>
-      <c r="K317">
+      <c r="K317" s="1">
         <v>-2.11416367198041</v>
       </c>
       <c r="M317">
@@ -12414,7 +12426,7 @@
       <c r="C318">
         <v>-0.36290322580645151</v>
       </c>
-      <c r="D318">
+      <c r="D318" s="1">
         <v>7.3397699098670305E-2</v>
       </c>
       <c r="E318">
@@ -12426,7 +12438,7 @@
       <c r="G318">
         <v>-0.39652977920822569</v>
       </c>
-      <c r="H318">
+      <c r="H318" s="1">
         <v>1.8434643630884155E-2</v>
       </c>
       <c r="I318">
@@ -12435,7 +12447,7 @@
       <c r="J318">
         <v>-0.67299765016111401</v>
       </c>
-      <c r="K318">
+      <c r="K318" s="1">
         <v>-2.5598291407725742</v>
       </c>
       <c r="M318">
@@ -12452,7 +12464,7 @@
       <c r="C319">
         <v>0.22609447004608305</v>
       </c>
-      <c r="D319">
+      <c r="D319" s="1">
         <v>3.478627107353828E-2</v>
       </c>
       <c r="E319">
@@ -12464,7 +12476,7 @@
       <c r="G319">
         <v>-0.24165689068644289</v>
       </c>
-      <c r="H319">
+      <c r="H319" s="1">
         <v>1.0063947929808447E-2</v>
       </c>
       <c r="I319">
@@ -12473,7 +12485,7 @@
       <c r="J319">
         <v>-0.4767962402577825</v>
       </c>
-      <c r="K319">
+      <c r="K319" s="1">
         <v>-0.77716726560391791</v>
       </c>
       <c r="M319">
@@ -12490,7 +12502,7 @@
       <c r="C320">
         <v>0.22609447004608305</v>
       </c>
-      <c r="D320">
+      <c r="D320" s="1">
         <v>-2.2806998305884944E-3</v>
       </c>
       <c r="E320">
@@ -12502,7 +12514,7 @@
       <c r="G320">
         <v>-0.24165689068644289</v>
       </c>
-      <c r="H320">
+      <c r="H320" s="1">
         <v>-1.6443255123598181E-2</v>
       </c>
       <c r="I320">
@@ -12511,7 +12523,7 @@
       <c r="J320">
         <v>-0.54219671022555971</v>
       </c>
-      <c r="K320">
+      <c r="K320" s="1">
         <v>-1.6684982031882463</v>
       </c>
       <c r="M320">
@@ -12528,7 +12540,7 @@
       <c r="C321">
         <v>-0.45564516129032256</v>
       </c>
-      <c r="D321">
+      <c r="D321" s="1">
         <v>2.3526715324273867E-3</v>
       </c>
       <c r="E321">
@@ -12540,7 +12552,7 @@
       <c r="G321">
         <v>-0.12416711318715951</v>
       </c>
-      <c r="H321">
+      <c r="H321" s="1">
         <v>-3.8872115719845611E-3</v>
       </c>
       <c r="I321">
@@ -12549,7 +12561,7 @@
       <c r="J321">
         <v>-0.73839812012889128</v>
       </c>
-      <c r="K321">
+      <c r="K321" s="1">
         <v>-2.5598291407725742</v>
       </c>
       <c r="M321">
@@ -12566,7 +12578,7 @@
       <c r="C322">
         <v>-0.60253456221198154</v>
       </c>
-      <c r="D322">
+      <c r="D322" s="1">
         <v>1.7797242742480141E-2</v>
       </c>
       <c r="E322">
@@ -12578,7 +12590,7 @@
       <c r="G322">
         <v>-0.30574222386787026</v>
       </c>
-      <c r="H322">
+      <c r="H322" s="1">
         <v>-6.6774434723430882E-3</v>
       </c>
       <c r="I322">
@@ -12587,7 +12599,7 @@
       <c r="J322">
         <v>-0.54219671022555971</v>
       </c>
-      <c r="K322">
+      <c r="K322" s="1">
         <v>-1.8913309375843281</v>
       </c>
       <c r="M322">
@@ -12604,7 +12616,7 @@
       <c r="C323">
         <v>-0.32315668202764974</v>
       </c>
-      <c r="D323">
+      <c r="D323" s="1">
         <v>2.7063985468511905E-2</v>
       </c>
       <c r="E323">
@@ -12616,7 +12628,7 @@
       <c r="G323">
         <v>-0.49799822341215233</v>
       </c>
-      <c r="H323">
+      <c r="H323" s="1">
         <v>-1.0969796716259099E-3</v>
       </c>
       <c r="I323">
@@ -12625,7 +12637,7 @@
       <c r="J323">
         <v>-0.4767962402577825</v>
       </c>
-      <c r="K323">
+      <c r="K323" s="1">
         <v>-1.4456654687921642</v>
       </c>
       <c r="M323">
@@ -12642,7 +12654,7 @@
       <c r="C324">
         <v>-0.42741935483870963</v>
       </c>
-      <c r="D324">
+      <c r="D324" s="1">
         <v>-6.9140711936043755E-3</v>
       </c>
       <c r="E324">
@@ -12654,7 +12666,7 @@
       <c r="G324">
         <v>-0.30040177943608465</v>
       </c>
-      <c r="H324">
+      <c r="H324" s="1">
         <v>-1.6443255123598181E-2</v>
       </c>
       <c r="I324">
@@ -12663,7 +12675,7 @@
       <c r="J324">
         <v>-0.28059483035445093</v>
       </c>
-      <c r="K324">
+      <c r="K324" s="1">
         <v>-1.2228327343960821</v>
       </c>
       <c r="M324">
@@ -12680,7 +12692,7 @@
       <c r="C325">
         <v>-0.27419354838709681</v>
       </c>
-      <c r="D325">
+      <c r="D325" s="1">
         <v>-4.3981042097731016E-2</v>
       </c>
       <c r="E325">
@@ -12692,7 +12704,7 @@
       <c r="G325">
         <v>-6.5422224437517648E-2</v>
       </c>
-      <c r="H325">
+      <c r="H325" s="1">
         <v>-2.7604182725032539E-2</v>
       </c>
       <c r="I325">
@@ -12701,7 +12713,7 @@
       <c r="J325">
         <v>-0.41139577029000529</v>
       </c>
-      <c r="K325">
+      <c r="K325" s="1">
         <v>-1</v>
       </c>
       <c r="M325">
@@ -12718,7 +12730,7 @@
       <c r="C326">
         <v>-0.49193548387096769</v>
       </c>
-      <c r="D326">
+      <c r="D326" s="1">
         <v>-3.6258756492704637E-2</v>
       </c>
       <c r="E326">
@@ -12730,7 +12742,7 @@
       <c r="G326">
         <v>-1.735822455144713E-2</v>
       </c>
-      <c r="H326">
+      <c r="H326" s="1">
         <v>-5.5506501728618429E-2</v>
       </c>
       <c r="I326">
@@ -12739,7 +12751,7 @@
       <c r="J326">
         <v>-0.67299765016111401</v>
       </c>
-      <c r="K326">
+      <c r="K326" s="1">
         <v>-2.11416367198041</v>
       </c>
       <c r="M326">
@@ -12756,7 +12768,7 @@
       <c r="C327">
         <v>-0.17857142857142855</v>
       </c>
-      <c r="D327">
+      <c r="D327" s="1">
         <v>-1.0002985435614871E-2</v>
       </c>
       <c r="E327">
@@ -12768,7 +12780,7 @@
       <c r="G327">
         <v>1.4684442039266551E-2</v>
       </c>
-      <c r="H327">
+      <c r="H327" s="1">
         <v>-2.3418834874494626E-2</v>
       </c>
       <c r="I327">
@@ -12777,7 +12789,7 @@
       <c r="J327">
         <v>-0.67299765016111401</v>
       </c>
-      <c r="K327">
+      <c r="K327" s="1">
         <v>-2.11416367198041</v>
       </c>
       <c r="M327">
@@ -12794,7 +12806,7 @@
       <c r="C328">
         <v>-0.45564516129032256</v>
       </c>
-      <c r="D328">
+      <c r="D328" s="1">
         <v>2.3526715324273867E-3</v>
       </c>
       <c r="E328">
@@ -12806,7 +12818,7 @@
       <c r="G328">
         <v>2.0024886471052165E-2</v>
       </c>
-      <c r="H328">
+      <c r="H328" s="1">
         <v>-1.9233487023956709E-2</v>
       </c>
       <c r="I328">
@@ -12815,7 +12827,7 @@
       <c r="J328">
         <v>-0.21519436038667372</v>
       </c>
-      <c r="K328">
+      <c r="K328" s="1">
         <v>-0.77716726560391791</v>
       </c>
       <c r="M328">
@@ -12832,7 +12844,7 @@
       <c r="C329">
         <v>-0.45391705069124422</v>
       </c>
-      <c r="D329">
+      <c r="D329" s="1">
         <v>-3.6258756492704637E-2</v>
       </c>
       <c r="E329">
@@ -12844,7 +12856,7 @@
       <c r="G329">
         <v>7.8769775220693908E-2</v>
       </c>
-      <c r="H329">
+      <c r="H329" s="1">
         <v>-2.3418834874494626E-2</v>
       </c>
       <c r="I329">
@@ -12853,7 +12865,7 @@
       <c r="J329">
         <v>0.17720845941998942</v>
       </c>
-      <c r="K329">
+      <c r="K329" s="1">
         <v>-0.33150179681175379</v>
       </c>
       <c r="M329">
@@ -12870,7 +12882,7 @@
       <c r="C330">
         <v>-0.42972350230414746</v>
       </c>
-      <c r="D330">
+      <c r="D330" s="1">
         <v>-5.1703327702757533E-2</v>
       </c>
       <c r="E330">
@@ -12882,7 +12894,7 @@
       <c r="G330">
         <v>0.10547199737962198</v>
       </c>
-      <c r="H330">
+      <c r="H330" s="1">
         <v>-2.7604182725032539E-2</v>
       </c>
       <c r="I330">
@@ -12891,7 +12903,7 @@
       <c r="J330">
         <v>0.56961127922665256</v>
       </c>
-      <c r="K330">
+      <c r="K330" s="1">
         <v>0.7826618751686566</v>
       </c>
       <c r="M330">
@@ -12908,7 +12920,7 @@
       <c r="C331">
         <v>-0.41935483870967744</v>
       </c>
-      <c r="D331">
+      <c r="D331" s="1">
         <v>-3.0080928008683509E-2</v>
       </c>
       <c r="E331">
@@ -12920,7 +12932,7 @@
       <c r="G331">
         <v>0.20159999715176302</v>
       </c>
-      <c r="H331">
+      <c r="H331" s="1">
         <v>-2.2023718924315362E-2</v>
       </c>
       <c r="I331">
@@ -12929,7 +12941,7 @@
       <c r="J331">
         <v>0.5042108092588754</v>
       </c>
-      <c r="K331">
+      <c r="K331" s="1">
         <v>-0.10866906241567169</v>
       </c>
       <c r="M331">
@@ -12946,7 +12958,7 @@
       <c r="C332">
         <v>-0.23963133640552994</v>
       </c>
-      <c r="D332">
+      <c r="D332" s="1">
         <v>2.0886156984490777E-2</v>
       </c>
       <c r="E332">
@@ -12958,7 +12970,7 @@
       <c r="G332">
         <v>0.16955733056104935</v>
       </c>
-      <c r="H332">
+      <c r="H332" s="1">
         <v>1.5644411730525627E-2</v>
       </c>
       <c r="I332">
@@ -12967,7 +12979,7 @@
       <c r="J332">
         <v>-1.8992950483342149E-2</v>
       </c>
-      <c r="K332">
+      <c r="K332" s="1">
         <v>-0.33150179681175379</v>
       </c>
       <c r="M332">
@@ -12984,7 +12996,7 @@
       <c r="C333">
         <v>-0.13882488479262675</v>
       </c>
-      <c r="D333">
+      <c r="D333" s="1">
         <v>-1.154744255662012E-2</v>
       </c>
       <c r="E333">
@@ -12996,7 +13008,7 @@
       <c r="G333">
         <v>0.16421688612926372</v>
       </c>
-      <c r="H333">
+      <c r="H333" s="1">
         <v>4.4834841290912683E-3</v>
       </c>
       <c r="I333">
@@ -13005,7 +13017,7 @@
       <c r="J333">
         <v>-1.8992950483342149E-2</v>
       </c>
-      <c r="K333">
+      <c r="K333" s="1">
         <v>-1.4456654687921642</v>
       </c>
       <c r="M333">
@@ -13022,7 +13034,7 @@
       <c r="C334">
         <v>-0.56566820276497698</v>
       </c>
-      <c r="D334">
+      <c r="D334" s="1">
         <v>-4.5525499218736401E-2</v>
       </c>
       <c r="E334">
@@ -13034,7 +13046,7 @@
       <c r="G334">
         <v>0.3938559966960451</v>
       </c>
-      <c r="H334">
+      <c r="H334" s="1">
         <v>-3.1789530575570331E-2</v>
       </c>
       <c r="I334">
@@ -13043,7 +13055,7 @@
       <c r="J334">
         <v>-0.67299765016111401</v>
       </c>
-      <c r="K334">
+      <c r="K334" s="1">
         <v>-2.11416367198041</v>
       </c>
       <c r="M334">
@@ -13060,7 +13072,7 @@
       <c r="C335">
         <v>-0.28110599078341009</v>
       </c>
-      <c r="D335">
+      <c r="D335" s="1">
         <v>-4.0892127855720516E-2</v>
       </c>
       <c r="E335">
@@ -13072,7 +13084,7 @@
       <c r="G335">
         <v>0.19091910828819178</v>
       </c>
-      <c r="H335">
+      <c r="H335" s="1">
         <v>-3.5974878426108248E-2</v>
       </c>
       <c r="I335">
@@ -13081,7 +13093,7 @@
       <c r="J335">
         <v>-0.73839812012889128</v>
       </c>
-      <c r="K335">
+      <c r="K335" s="1">
         <v>-2.3369964063764921</v>
       </c>
       <c r="M335">
@@ -13098,7 +13110,7 @@
       <c r="C336">
         <v>-0.29032258064516137</v>
       </c>
-      <c r="D336">
+      <c r="D336" s="1">
         <v>-1.0002985435614871E-2</v>
       </c>
       <c r="E336">
@@ -13110,7 +13122,7 @@
       <c r="G336">
         <v>0.24432355260604793</v>
       </c>
-      <c r="H336">
+      <c r="H336" s="1">
         <v>-1.2257907273060267E-2</v>
       </c>
       <c r="I336">
@@ -13119,7 +13131,7 @@
       <c r="J336">
         <v>-0.54219671022555971</v>
       </c>
-      <c r="K336">
+      <c r="K336" s="1">
         <v>-2.3369964063764921</v>
       </c>
       <c r="M336">
@@ -13136,7 +13148,7 @@
       <c r="C337">
         <v>-0.29032258064516137</v>
       </c>
-      <c r="D337">
+      <c r="D337" s="1">
         <v>1.1619414258459013E-2</v>
       </c>
       <c r="E337">
@@ -13148,7 +13160,7 @@
       <c r="G337">
         <v>0.1481955528339069</v>
       </c>
-      <c r="H337">
+      <c r="H337" s="1">
         <v>1.6932522287326174E-3</v>
       </c>
       <c r="I337">
@@ -13157,7 +13169,7 @@
       <c r="J337">
         <v>-0.34599530032222808</v>
       </c>
-      <c r="K337">
+      <c r="K337" s="1">
         <v>-1.6684982031882463</v>
       </c>
       <c r="M337">
@@ -13174,7 +13186,7 @@
       <c r="C338">
         <v>-0.36232718894009225</v>
       </c>
-      <c r="D338">
+      <c r="D338" s="1">
         <v>-7.3624270958324645E-4</v>
       </c>
       <c r="E338">
@@ -13186,7 +13198,7 @@
       <c r="G338">
         <v>0.16955733056104935</v>
       </c>
-      <c r="H338">
+      <c r="H338" s="1">
         <v>-1.2257907273060267E-2</v>
       </c>
       <c r="I338">
@@ -13195,7 +13207,7 @@
       <c r="J338">
         <v>-0.21519436038667372</v>
       </c>
-      <c r="K338">
+      <c r="K338" s="1">
         <v>-1</v>
       </c>
       <c r="M338">
@@ -13212,7 +13224,7 @@
       <c r="C339">
         <v>-0.28254608294930877</v>
       </c>
-      <c r="D339">
+      <c r="D339" s="1">
         <v>8.0821441142213879E-4</v>
       </c>
       <c r="E339">
@@ -13224,7 +13236,7 @@
       <c r="G339">
         <v>0.24966399703783354</v>
       </c>
-      <c r="H339">
+      <c r="H339" s="1">
         <v>-1.9233487023956709E-2</v>
       </c>
       <c r="I339">
@@ -13233,7 +13245,7 @@
       <c r="J339">
         <v>-0.21519436038667372</v>
       </c>
-      <c r="K339">
+      <c r="K339" s="1">
         <v>-2.11416367198041</v>
       </c>
       <c r="M339">
@@ -13250,7 +13262,7 @@
       <c r="C340">
         <v>-0.30184331797235026</v>
       </c>
-      <c r="D340">
+      <c r="D340" s="1">
         <v>2.3526715324273867E-3</v>
       </c>
       <c r="E340">
@@ -13262,7 +13274,7 @@
       <c r="G340">
         <v>0.1481955528339069</v>
       </c>
-      <c r="H340">
+      <c r="H340" s="1">
         <v>1.4249295780346238E-2</v>
       </c>
       <c r="I340">
@@ -13271,7 +13283,7 @@
       <c r="J340">
         <v>-8.4393420451119333E-2</v>
       </c>
-      <c r="K340">
+      <c r="K340" s="1">
         <v>-0.77716726560391791</v>
       </c>
       <c r="M340">
@@ -13288,7 +13300,7 @@
       <c r="C341">
         <v>-0.17857142857142855</v>
       </c>
-      <c r="D341">
+      <c r="D341" s="1">
         <v>2.551952834750652E-2</v>
       </c>
       <c r="E341">
@@ -13300,7 +13312,7 @@
       <c r="G341">
         <v>-7.0762668869303269E-2</v>
       </c>
-      <c r="H341">
+      <c r="H341" s="1">
         <v>1.0063947929808447E-2</v>
       </c>
       <c r="I341">
@@ -13309,7 +13321,7 @@
       <c r="J341">
         <v>-8.4393420451119333E-2</v>
       </c>
-      <c r="K341">
+      <c r="K341" s="1">
         <v>-0.55433453120783582</v>
       </c>
       <c r="M341">
@@ -13326,7 +13338,7 @@
       <c r="C342">
         <v>-8.6405529953916968E-2</v>
       </c>
-      <c r="D342">
+      <c r="D342" s="1">
         <v>1.4708328500469646E-2</v>
       </c>
       <c r="E342">
@@ -13338,7 +13350,7 @@
       <c r="G342">
         <v>4.0035531756953237E-3</v>
       </c>
-      <c r="H342">
+      <c r="H342" s="1">
         <v>3.0883681789120048E-3</v>
       </c>
       <c r="I342">
@@ -13347,7 +13359,7 @@
       <c r="J342">
         <v>0.30800939935554378</v>
       </c>
-      <c r="K342">
+      <c r="K342" s="1">
         <v>0.55982914077257451</v>
       </c>
       <c r="M342">
@@ -13364,7 +13376,7 @@
       <c r="C343">
         <v>-3.5714285714285678E-2</v>
       </c>
-      <c r="D343">
+      <c r="D343" s="1">
         <v>-3.8251569515937427E-3</v>
       </c>
       <c r="E343">
@@ -13376,7 +13388,7 @@
       <c r="G343">
         <v>-6.6773356878759033E-3</v>
       </c>
-      <c r="H343">
+      <c r="H343" s="1">
         <v>1.6932522287326174E-3</v>
       </c>
       <c r="I343">
@@ -13385,7 +13397,7 @@
       <c r="J343">
         <v>0.43881033929109819</v>
       </c>
-      <c r="K343">
+      <c r="K343" s="1">
         <v>-0.10866906241567169</v>
       </c>
       <c r="M343">
@@ -13402,7 +13414,7 @@
       <c r="C344">
         <v>-1.7857142857142769E-2</v>
       </c>
-      <c r="D344">
+      <c r="D344" s="1">
         <v>3.3241813952533034E-2</v>
       </c>
       <c r="E344">
@@ -13414,7 +13426,7 @@
       <c r="G344">
         <v>2.5365330902837779E-2</v>
       </c>
-      <c r="H344">
+      <c r="H344" s="1">
         <v>1.8434643630884155E-2</v>
       </c>
       <c r="I344">
@@ -13423,7 +13435,7 @@
       <c r="J344">
         <v>0.24260892938776663</v>
       </c>
-      <c r="K344">
+      <c r="K344" s="1">
         <v>-0.10866906241567169</v>
       </c>
       <c r="M344">
@@ -13440,7 +13452,7 @@
       <c r="C345">
         <v>0.12500000000000008</v>
       </c>
-      <c r="D345">
+      <c r="D345" s="1">
         <v>2.397507122650127E-2</v>
       </c>
       <c r="E345">
@@ -13452,7 +13464,7 @@
       <c r="G345">
         <v>3.6046219766409003E-2</v>
       </c>
-      <c r="H345">
+      <c r="H345" s="1">
         <v>7.2737160294497963E-3</v>
       </c>
       <c r="I345">
@@ -13461,7 +13473,7 @@
       <c r="J345">
         <v>0.17720845941998942</v>
       </c>
-      <c r="K345">
+      <c r="K345" s="1">
         <v>-0.33150179681175379</v>
       </c>
       <c r="M345">
@@ -13478,7 +13490,7 @@
       <c r="C346">
         <v>1.9009216589861856E-2</v>
       </c>
-      <c r="D346">
+      <c r="D346" s="1">
         <v>3.0152899710522402E-2</v>
       </c>
       <c r="E346">
@@ -13490,7 +13502,7 @@
       <c r="G346">
         <v>-4.9400891142160813E-2</v>
       </c>
-      <c r="H346">
+      <c r="H346" s="1">
         <v>1.9829759581063415E-2</v>
       </c>
       <c r="I346">
@@ -13499,7 +13511,7 @@
       <c r="J346">
         <v>-0.28059483035445093</v>
       </c>
-      <c r="K346">
+      <c r="K346" s="1">
         <v>-1.4456654687921642</v>
       </c>
       <c r="M346">
@@ -13516,7 +13528,7 @@
       <c r="C347">
         <v>6.2788018433179743E-2</v>
       </c>
-      <c r="D347">
+      <c r="D347" s="1">
         <v>2.551952834750652E-2</v>
       </c>
       <c r="E347">
@@ -13528,7 +13540,7 @@
       <c r="G347">
         <v>-1.2017780119661517E-2</v>
       </c>
-      <c r="H347">
+      <c r="H347" s="1">
         <v>2.2619991481422068E-2</v>
       </c>
       <c r="I347">
@@ -13537,7 +13549,7 @@
       <c r="J347">
         <v>-0.14979389041889654</v>
       </c>
-      <c r="K347">
+      <c r="K347" s="1">
         <v>-1.4456654687921642</v>
       </c>
       <c r="M347">
@@ -13554,7 +13566,7 @@
       <c r="C348">
         <v>-2.419354838709677E-2</v>
       </c>
-      <c r="D348">
+      <c r="D348" s="1">
         <v>5.0230842283591037E-2</v>
       </c>
       <c r="E348">
@@ -13566,7 +13578,7 @@
       <c r="G348">
         <v>2.0024886471052165E-2</v>
       </c>
-      <c r="H348">
+      <c r="H348" s="1">
         <v>2.4015107431601332E-2</v>
       </c>
       <c r="I348">
@@ -13575,7 +13587,7 @@
       <c r="J348">
         <v>-1.8992950483342149E-2</v>
       </c>
-      <c r="K348">
+      <c r="K348" s="1">
         <v>-1.2228327343960821</v>
       </c>
       <c r="M348">
@@ -13592,7 +13604,7 @@
       <c r="C349">
         <v>0.22321428571428575</v>
       </c>
-      <c r="D349">
+      <c r="D349" s="1">
         <v>3.3241813952533034E-2</v>
       </c>
       <c r="E349">
@@ -13604,7 +13616,7 @@
       <c r="G349">
         <v>-2.2698668983232743E-2</v>
       </c>
-      <c r="H349">
+      <c r="H349" s="1">
         <v>3.6571150983214951E-2</v>
       </c>
       <c r="I349">
@@ -13613,7 +13625,7 @@
       <c r="J349">
         <v>0.11180798945221224</v>
       </c>
-      <c r="K349">
+      <c r="K349" s="1">
         <v>-0.55433453120783582</v>
       </c>
       <c r="M349">
@@ -13630,7 +13642,7 @@
       <c r="C350">
         <v>0.16129032258064516</v>
       </c>
-      <c r="D350">
+      <c r="D350" s="1">
         <v>1.7797242742480141E-2</v>
       </c>
       <c r="E350">
@@ -13642,7 +13654,7 @@
       <c r="G350">
         <v>7.3429330788908301E-2</v>
       </c>
-      <c r="H350">
+      <c r="H350" s="1">
         <v>2.2619991481422068E-2</v>
       </c>
       <c r="I350">
@@ -13651,7 +13663,7 @@
       <c r="J350">
         <v>0.5042108092588754</v>
       </c>
-      <c r="K350">
+      <c r="K350" s="1">
         <v>1.0054946095647388</v>
       </c>
       <c r="M350">
@@ -13668,7 +13680,7 @@
       <c r="C351">
         <v>6.7396313364055396E-2</v>
       </c>
-      <c r="D351">
+      <c r="D351" s="1">
         <v>1.9341699863485391E-2</v>
       </c>
       <c r="E351">
@@ -13680,7 +13692,7 @@
       <c r="G351">
         <v>4.6727108629980231E-2</v>
       </c>
-      <c r="H351">
+      <c r="H351" s="1">
         <v>1.8434643630884155E-2</v>
       </c>
       <c r="I351">
@@ -13689,7 +13701,7 @@
       <c r="J351">
         <v>0.17720845941998942</v>
       </c>
-      <c r="K351">
+      <c r="K351" s="1">
         <v>0.7826618751686566</v>
       </c>
       <c r="M351">
@@ -13706,7 +13718,7 @@
       <c r="C352">
         <v>5.8467741935483868E-2</v>
       </c>
-      <c r="D352">
+      <c r="D352" s="1">
         <v>1.3163871379464261E-2</v>
       </c>
       <c r="E352">
@@ -13718,7 +13730,7 @@
       <c r="G352">
         <v>2.5365330902837779E-2</v>
       </c>
-      <c r="H352">
+      <c r="H352" s="1">
         <v>1.5644411730525627E-2</v>
       </c>
       <c r="I352">
@@ -13727,7 +13739,7 @@
       <c r="J352">
         <v>0.63501174919442971</v>
       </c>
-      <c r="K352">
+      <c r="K352" s="1">
         <v>1.8968255471490671</v>
       </c>
       <c r="M352">
@@ -13744,7 +13756,7 @@
       <c r="C353">
         <v>-0.19354838709677416</v>
       </c>
-      <c r="D353">
+      <c r="D353" s="1">
         <v>-7.3624270958324645E-4</v>
       </c>
       <c r="E353">
@@ -13756,7 +13768,7 @@
       <c r="G353">
         <v>7.3429330788908301E-2</v>
       </c>
-      <c r="H353">
+      <c r="H353" s="1">
         <v>-1.0969796716259099E-3</v>
       </c>
       <c r="I353">
@@ -13765,7 +13777,7 @@
       <c r="J353">
         <v>0.70041221916220697</v>
       </c>
-      <c r="K353">
+      <c r="K353" s="1">
         <v>1.451160078356903</v>
       </c>
       <c r="M353">
@@ -13782,7 +13794,7 @@
       <c r="C354">
         <v>-0.15322580645161282</v>
       </c>
-      <c r="D354">
+      <c r="D354" s="1">
         <v>5.4415857744378833E-3</v>
       </c>
       <c r="E354">
@@ -13794,7 +13806,7 @@
       <c r="G354">
         <v>0.16955733056104935</v>
       </c>
-      <c r="H354">
+      <c r="H354" s="1">
         <v>-1.0969796716259099E-3</v>
       </c>
       <c r="I354">
@@ -13803,7 +13815,7 @@
       <c r="J354">
         <v>-1.8992950483342149E-2</v>
       </c>
-      <c r="K354">
+      <c r="K354" s="1">
         <v>0.11416367198041039</v>
       </c>
       <c r="M354">
@@ -13820,7 +13832,7 @@
       <c r="C355">
         <v>-0.10138248847926258</v>
       </c>
-      <c r="D355">
+      <c r="D355" s="1">
         <v>-8.4585283146096247E-3</v>
       </c>
       <c r="E355">
@@ -13832,7 +13844,7 @@
       <c r="G355">
         <v>7.3429330788908301E-2</v>
       </c>
-      <c r="H355">
+      <c r="H355" s="1">
         <v>-1.9233487023956709E-2</v>
       </c>
       <c r="I355">
@@ -13841,7 +13853,7 @@
       <c r="J355">
         <v>4.6407519484435042E-2</v>
       </c>
-      <c r="K355">
+      <c r="K355" s="1">
         <v>-0.33150179681175379</v>
       </c>
       <c r="M355">
@@ -13858,7 +13870,7 @@
       <c r="C356">
         <v>-0.1370967741935484</v>
       </c>
-      <c r="D356">
+      <c r="D356" s="1">
         <v>1.0074957137453764E-2</v>
       </c>
       <c r="E356">
@@ -13870,7 +13882,7 @@
       <c r="G356">
         <v>7.3429330788908301E-2</v>
       </c>
-      <c r="H356">
+      <c r="H356" s="1">
         <v>2.9813627855335373E-4</v>
       </c>
       <c r="I356">
@@ -13879,7 +13891,7 @@
       <c r="J356">
         <v>0.5042108092588754</v>
       </c>
-      <c r="K356">
+      <c r="K356" s="1">
         <v>1.0054946095647388</v>
       </c>
       <c r="M356">
@@ -13896,7 +13908,7 @@
       <c r="C357">
         <v>0.20449308755760379</v>
       </c>
-      <c r="D357">
+      <c r="D357" s="1">
         <v>-1.3091899677625505E-2</v>
       </c>
       <c r="E357">
@@ -13908,7 +13920,7 @@
       <c r="G357">
         <v>0.12683377510676444</v>
       </c>
-      <c r="H357">
+      <c r="H357" s="1">
         <v>-1.7838371073777445E-2</v>
       </c>
       <c r="I357">
@@ -13917,7 +13929,7 @@
       <c r="J357">
         <v>0.30800939935554378</v>
       </c>
-      <c r="K357">
+      <c r="K357" s="1">
         <v>1.2283273439608209</v>
       </c>
       <c r="M357">
@@ -13934,7 +13946,7 @@
       <c r="C358">
         <v>-7.25806451612903E-2</v>
       </c>
-      <c r="D358">
+      <c r="D358" s="1">
         <v>-1.154744255662012E-2</v>
       </c>
       <c r="E358">
@@ -13946,7 +13958,7 @@
       <c r="G358">
         <v>-4.9400891142160813E-2</v>
       </c>
-      <c r="H358">
+      <c r="H358" s="1">
         <v>-1.2257907273060267E-2</v>
       </c>
       <c r="I358">
@@ -13955,7 +13967,7 @@
       <c r="J358">
         <v>0.43881033929109819</v>
       </c>
-      <c r="K358">
+      <c r="K358" s="1">
         <v>0.7826618751686566</v>
       </c>
       <c r="M358">
@@ -13972,7 +13984,7 @@
       <c r="C359">
         <v>-9.7926267281106025E-2</v>
       </c>
-      <c r="D359">
+      <c r="D359" s="1">
         <v>3.0152899710522402E-2</v>
       </c>
       <c r="E359">
@@ -13984,7 +13996,7 @@
       <c r="G359">
         <v>-0.16689066864144431</v>
       </c>
-      <c r="H359">
+      <c r="H359" s="1">
         <v>-8.0725594225223522E-3</v>
       </c>
       <c r="I359">
@@ -13993,7 +14005,7 @@
       <c r="J359">
         <v>0.56961127922665256</v>
       </c>
-      <c r="K359">
+      <c r="K359" s="1">
         <v>1.0054946095647388</v>
       </c>
       <c r="M359">
@@ -14010,7 +14022,7 @@
       <c r="C360">
         <v>-7.25806451612903E-2</v>
       </c>
-      <c r="D360">
+      <c r="D360" s="1">
         <v>1.1619414258459013E-2</v>
       </c>
       <c r="E360">
@@ -14022,7 +14034,7 @@
       <c r="G360">
         <v>4.0035531756953237E-3</v>
       </c>
-      <c r="H360">
+      <c r="H360" s="1">
         <v>-6.6774434723430882E-3</v>
       </c>
       <c r="I360">
@@ -14031,7 +14043,7 @@
       <c r="J360">
         <v>0.89661362906553854</v>
       </c>
-      <c r="K360">
+      <c r="K360" s="1">
         <v>1.0054946095647388</v>
       </c>
       <c r="M360">
@@ -14048,7 +14060,7 @@
       <c r="C361">
         <v>8.0645161290323498E-3</v>
       </c>
-      <c r="D361">
+      <c r="D361" s="1">
         <v>1.3163871379464261E-2</v>
       </c>
       <c r="E361">
@@ -14060,7 +14072,7 @@
       <c r="G361">
         <v>-0.13484800205073064</v>
       </c>
-      <c r="H361">
+      <c r="H361" s="1">
         <v>-1.9233487023956709E-2</v>
       </c>
       <c r="I361">
@@ -14069,7 +14081,7 @@
       <c r="J361">
         <v>0.56961127922665256</v>
       </c>
-      <c r="K361">
+      <c r="K361" s="1">
         <v>0.33699640637649247</v>
       </c>
       <c r="M361">
@@ -14086,7 +14098,7 @@
       <c r="C362">
         <v>-0.16330645161290316</v>
       </c>
-      <c r="D362">
+      <c r="D362" s="1">
         <v>2.3526715324273867E-3</v>
       </c>
       <c r="E362">
@@ -14098,7 +14110,7 @@
       <c r="G362">
         <v>-0.12416711318715951</v>
       </c>
-      <c r="H362">
+      <c r="H362" s="1">
         <v>-3.318464652574972E-2</v>
       </c>
       <c r="I362">
@@ -14107,7 +14119,7 @@
       <c r="J362">
         <v>0.37340986932332099</v>
       </c>
-      <c r="K362">
+      <c r="K362" s="1">
         <v>0.55982914077257451</v>
       </c>
       <c r="M362">
@@ -14124,7 +14136,7 @@
       <c r="C363">
         <v>-0.29435483870967732</v>
       </c>
-      <c r="D363">
+      <c r="D363" s="1">
         <v>1.3163871379464261E-2</v>
       </c>
       <c r="E363">
@@ -14136,7 +14148,7 @@
       <c r="G363">
         <v>-2.2698668983232743E-2</v>
       </c>
-      <c r="H363">
+      <c r="H363" s="1">
         <v>-2.2023718924315362E-2</v>
       </c>
       <c r="I363">
@@ -14145,7 +14157,7 @@
       <c r="J363">
         <v>0.63501174919442971</v>
       </c>
-      <c r="K363">
+      <c r="K363" s="1">
         <v>1.2283273439608209</v>
       </c>
       <c r="M363">
@@ -14162,7 +14174,7 @@
       <c r="C364">
         <v>-0.19210829493087556</v>
       </c>
-      <c r="D364">
+      <c r="D364" s="1">
         <v>-2.2806998305884944E-3</v>
       </c>
       <c r="E364">
@@ -14174,7 +14186,7 @@
       <c r="G364">
         <v>-1.2017780119661517E-2</v>
       </c>
-      <c r="H364">
+      <c r="H364" s="1">
         <v>-1.3653023223239531E-2</v>
       </c>
       <c r="I364">
@@ -14183,7 +14195,7 @@
       <c r="J364">
         <v>0.89661362906553854</v>
       </c>
-      <c r="K364">
+      <c r="K364" s="1">
         <v>1.6739928127529848</v>
       </c>
       <c r="M364">
@@ -14200,7 +14212,7 @@
       <c r="C365">
         <v>-0.30875576036866353</v>
       </c>
-      <c r="D365">
+      <c r="D365" s="1">
         <v>6.9860428954431307E-3</v>
       </c>
       <c r="E365">
@@ -14212,7 +14224,7 @@
       <c r="G365">
         <v>4.1386664198194617E-2</v>
       </c>
-      <c r="H365">
+      <c r="H365" s="1">
         <v>-1.5048139173418918E-2</v>
       </c>
       <c r="I365">
@@ -14221,7 +14233,7 @@
       <c r="J365">
         <v>0.5042108092588754</v>
       </c>
-      <c r="K365">
+      <c r="K365" s="1">
         <v>1.451160078356903</v>
       </c>
       <c r="M365">
@@ -14231,5 +14243,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>